--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37857584-9860-4BF1-B3D0-F9C349C2D7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D791DF-0DE9-473B-B5B2-487C12D0F47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,7 +947,7 @@
     <t>/html/body/main/skmo-app-root/div/div/div/skmo-internal-news/div[2]/div[2]/div/skmo-internal-news-content/section[1]</t>
   </si>
   <si>
-    <t>chromedriver</t>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -958,12 +958,19 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1553,220 +1560,223 @@
   </borders>
   <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="61" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="61" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="61" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="61" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="61" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="125">
@@ -16541,7 +16551,7 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="32" t="s">
         <v>308</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -16553,5 +16563,6 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D791DF-0DE9-473B-B5B2-487C12D0F47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1EA054-2DC1-4CB4-8332-5DB2B00A8D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,7 +947,7 @@
     <t>/html/body/main/skmo-app-root/div/div/div/skmo-internal-news/div[2]/div[2]/div/skmo-internal-news-content/section[1]</t>
   </si>
   <si>
-    <t>chrome</t>
+    <t>chrome.exe</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EE2BB-9D38-4FAE-8877-78BAF03D4CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0B03BE-BA02-488A-AF95-DCB968251CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3990" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,10 +944,10 @@
     <t>/html/body/main/skmo-app-root/div/div/div/skmo-internal-news/div[2]/div[2]/div/skmo-internal-news-content/section[1]</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>webdriver.chrome.driver</t>
+    <t>webdriver.gecko.driver</t>
+  </si>
+  <si>
+    <t>geckodriver</t>
   </si>
 </sst>
 </file>
@@ -16519,7 +16519,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16549,10 +16549,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>307</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7D6D6C-C9FB-4B01-9ACC-AA7B04901CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4824A528-0C51-477F-968C-A7798AECED14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3990" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,13 +941,13 @@
     <t>/html/body/main/skmo-app-root/div/div/div/skmo-internal-news/div[2]/div[2]/div/skmo-internal-news-content/section[1]</t>
   </si>
   <si>
-    <t>webdriver.gecko.driver</t>
-  </si>
-  <si>
-    <t>geckodriver</t>
-  </si>
-  <si>
-    <t>FirefoxDriver</t>
+    <t>chromedriver.exe</t>
+  </si>
+  <si>
+    <t>ChromeDriver</t>
+  </si>
+  <si>
+    <t>webdriver.chrome.driver</t>
   </si>
 </sst>
 </file>
@@ -16519,7 +16519,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16549,13 +16549,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49FE83-132C-490C-B123-D35BE5763F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="6075" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -953,16 +959,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,130 +1010,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1161,8 +1042,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,103 +1059,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,91 +1131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1412,262 +1192,105 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1695,159 +1318,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="87">
+    <cellStyle name="20% - Accent1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Buena 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Incorrecto 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Moneda 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Moneda 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Moneda 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Neutral 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
-    <cellStyle name="Incorrecto 2" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="Normal 7 2" xfId="12"/>
-    <cellStyle name="60% - Accent4" xfId="13" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="17" builtinId="11"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="Normal 6 3" xfId="19"/>
-    <cellStyle name="40% - Accent2" xfId="20" builtinId="35"/>
-    <cellStyle name="Normal 4_Sheet1" xfId="21"/>
-    <cellStyle name="CExplanatory Text" xfId="22" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="24" builtinId="18"/>
-    <cellStyle name="20% - Accent3 2" xfId="25"/>
-    <cellStyle name="Heading 4" xfId="26" builtinId="19"/>
-    <cellStyle name="20% - Accent3 3" xfId="27"/>
-    <cellStyle name="Input" xfId="28" builtinId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="29"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40"/>
-    <cellStyle name="Good" xfId="31" builtinId="26"/>
-    <cellStyle name="Output" xfId="32" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="33" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="35"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24"/>
-    <cellStyle name="Total" xfId="37" builtinId="25"/>
-    <cellStyle name="Bad" xfId="38" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="39" builtinId="28"/>
-    <cellStyle name="20% - Accent6 3" xfId="40"/>
-    <cellStyle name="20% - Accent2 3" xfId="41"/>
-    <cellStyle name="Accent1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="44" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="45" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="46" builtinId="34"/>
-    <cellStyle name="60% - Accent2" xfId="47" builtinId="36"/>
-    <cellStyle name="Title 2" xfId="48"/>
-    <cellStyle name="20% - Accent6" xfId="49" builtinId="50"/>
-    <cellStyle name="Accent3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="51" builtinId="38"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="52"/>
-    <cellStyle name="Accent4" xfId="53" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="54" builtinId="42"/>
-    <cellStyle name="20% - Accent4 2" xfId="55"/>
-    <cellStyle name="40% - Accent4" xfId="56" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="57" builtinId="45"/>
-    <cellStyle name="20% - Accent4 3" xfId="58"/>
-    <cellStyle name="40% - Accent5" xfId="59" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="60" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="61" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="62" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="63" builtinId="52"/>
-    <cellStyle name="20% - Accent1 2" xfId="64"/>
-    <cellStyle name="20% - Accent1 3" xfId="65"/>
-    <cellStyle name="20% - Accent2 2" xfId="66"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="67"/>
-    <cellStyle name="20% - Accent5 2" xfId="68"/>
-    <cellStyle name="20% - Accent5 3" xfId="69"/>
-    <cellStyle name="20% - Accent6 2" xfId="70"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="71"/>
-    <cellStyle name="40% - Accent1 2" xfId="72"/>
-    <cellStyle name="Millares 2" xfId="73"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="74"/>
-    <cellStyle name="Millares 2 2" xfId="75"/>
-    <cellStyle name="40% - Accent1 3" xfId="76"/>
-    <cellStyle name="Millares 3" xfId="77"/>
-    <cellStyle name="40% - Accent2 2" xfId="78"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="79"/>
-    <cellStyle name="40% - Accent2 3" xfId="80"/>
-    <cellStyle name="40% - Accent3 2" xfId="81"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="82"/>
-    <cellStyle name="40% - Accent3 3" xfId="83"/>
-    <cellStyle name="40% - Accent4 2" xfId="84"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="85"/>
-    <cellStyle name="40% - Accent4 3" xfId="86"/>
-    <cellStyle name="40% - Accent5 2" xfId="87"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="88"/>
-    <cellStyle name="40% - Accent5 3" xfId="89"/>
-    <cellStyle name="40% - Accent6 2" xfId="90"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="91"/>
-    <cellStyle name="40% - Accent6 3" xfId="92"/>
-    <cellStyle name="Buena 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2" xfId="94"/>
-    <cellStyle name="Normal 7 2 2" xfId="95"/>
-    <cellStyle name="Millares 2 2 2" xfId="96"/>
-    <cellStyle name="Millares 2 3" xfId="97"/>
-    <cellStyle name="Millares 3 2" xfId="98"/>
-    <cellStyle name="Millares 3 2 2" xfId="99"/>
-    <cellStyle name="Millares 3 3" xfId="100"/>
-    <cellStyle name="Moneda 2" xfId="101"/>
-    <cellStyle name="Moneda 2 2" xfId="102"/>
-    <cellStyle name="Moneda 2 2 2" xfId="103"/>
-    <cellStyle name="Moneda 2 3" xfId="104"/>
-    <cellStyle name="Neutral 2" xfId="105"/>
-    <cellStyle name="Normal 10" xfId="106"/>
-    <cellStyle name="Normal 10 2" xfId="107"/>
-    <cellStyle name="Normal 2" xfId="108"/>
-    <cellStyle name="Normal 2 2" xfId="109"/>
-    <cellStyle name="Normal 2 2 2" xfId="110"/>
-    <cellStyle name="Normal 2 3" xfId="111"/>
-    <cellStyle name="Normal 2_Sheet1" xfId="112"/>
-    <cellStyle name="Normal 3" xfId="113"/>
-    <cellStyle name="Normal 4" xfId="114"/>
-    <cellStyle name="Normal 4 2" xfId="115"/>
-    <cellStyle name="Normal 4 2 2" xfId="116"/>
-    <cellStyle name="Normal 4 3" xfId="117"/>
-    <cellStyle name="Normal 5" xfId="118"/>
-    <cellStyle name="Normal 6" xfId="119"/>
-    <cellStyle name="Normal 6 2" xfId="120"/>
-    <cellStyle name="Normal 6 4" xfId="121"/>
-    <cellStyle name="Normal 7" xfId="122"/>
-    <cellStyle name="Normal 7 3" xfId="123"/>
-    <cellStyle name="Normal 7_Sheet1" xfId="124"/>
-    <cellStyle name="Normal 8" xfId="125"/>
-    <cellStyle name="Normal 9" xfId="126"/>
-    <cellStyle name="Normal 9 2" xfId="127"/>
-    <cellStyle name="Normal 9_Sheet1" xfId="128"/>
-    <cellStyle name="Notas 2" xfId="129"/>
-    <cellStyle name="Notas 2 2" xfId="130"/>
-    <cellStyle name="Notas 2 2 2" xfId="131"/>
-    <cellStyle name="Notas 2 3" xfId="132"/>
-    <cellStyle name="Porcentaje 2" xfId="133"/>
+    <cellStyle name="Normal 10" xfId="59" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 10 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 2_Sheet1" xfId="65" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 4 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 4_Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 6 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 6 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 7" xfId="75" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 7 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 7 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 7_Sheet1" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 8" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 9" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 9_Sheet1" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Notas 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Notas 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Notas 2 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Notas 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2105,33 +1685,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A67" sqref="$A67:$XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="20.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="41.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.5714285714286" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="122.857142857143" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" customWidth="1"/>
-    <col min="11" max="12" width="11.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" customWidth="1"/>
-    <col min="14" max="14" width="10.2857142857143" customWidth="1"/>
-    <col min="15" max="17" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="122.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2183,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>15</v>
@@ -2208,12 +1788,12 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -2240,12 +1820,12 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>19</v>
@@ -2272,12 +1852,12 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>19</v>
@@ -2309,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>19</v>
@@ -2338,12 +1918,12 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>15</v>
@@ -2373,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2405,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2441,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2477,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
@@ -2513,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2549,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2585,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2621,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2652,7 +2232,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" customFormat="1" spans="1:14">
+    <row r="16" spans="1:14">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -3330,7 +2910,7 @@
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
     </row>
-    <row r="37" customFormat="1" spans="1:14">
+    <row r="37" spans="1:14">
       <c r="A37" s="5">
         <v>21</v>
       </c>
@@ -3428,7 +3008,7 @@
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" customFormat="1" spans="1:14">
+    <row r="40" spans="1:14">
       <c r="A40" s="5">
         <v>21</v>
       </c>
@@ -3526,7 +3106,7 @@
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" customFormat="1" spans="1:14">
+    <row r="43" spans="1:14">
       <c r="A43" s="5">
         <v>21</v>
       </c>
@@ -3624,7 +3204,7 @@
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
     </row>
-    <row r="46" customFormat="1" spans="1:14">
+    <row r="46" spans="1:14">
       <c r="A46" s="5">
         <v>21</v>
       </c>
@@ -3722,7 +3302,7 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" customFormat="1" spans="1:14">
+    <row r="49" spans="1:14">
       <c r="A49" s="5">
         <v>21</v>
       </c>
@@ -3820,7 +3400,7 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" customFormat="1" spans="1:14">
+    <row r="52" spans="1:14">
       <c r="A52" s="5">
         <v>21</v>
       </c>
@@ -3918,7 +3498,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" customFormat="1" spans="1:14">
+    <row r="55" spans="1:14">
       <c r="A55" s="5">
         <v>21</v>
       </c>
@@ -4016,7 +3596,7 @@
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" customFormat="1" spans="1:14">
+    <row r="58" spans="1:14">
       <c r="A58" s="5">
         <v>21</v>
       </c>
@@ -4114,7 +3694,7 @@
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" customFormat="1" spans="1:14">
+    <row r="61" spans="1:14">
       <c r="A61" s="5">
         <v>21</v>
       </c>
@@ -4212,7 +3792,7 @@
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" customFormat="1" spans="1:14">
+    <row r="64" spans="1:14">
       <c r="A64" s="5">
         <v>21</v>
       </c>
@@ -4310,7 +3890,7 @@
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" customFormat="1" spans="1:14">
+    <row r="67" spans="1:14">
       <c r="A67" s="5">
         <v>21</v>
       </c>
@@ -4376,12 +3956,12 @@
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" customFormat="1" spans="1:14">
+    <row r="69" spans="1:14">
       <c r="A69" s="5">
         <v>1</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>57</v>
@@ -4411,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>57</v>
@@ -4443,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>57</v>
@@ -4477,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>57</v>
@@ -4509,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>57</v>
@@ -4541,7 +4121,7 @@
         <v>6</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>57</v>
@@ -4572,12 +4152,12 @@
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
     </row>
-    <row r="75" customFormat="1" spans="1:14">
+    <row r="75" spans="1:14">
       <c r="A75" s="5">
         <v>1</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>64</v>
@@ -4607,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>64</v>
@@ -4639,7 +4219,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>64</v>
@@ -4673,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>64</v>
@@ -4705,7 +4285,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>64</v>
@@ -4737,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>64</v>
@@ -4773,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>64</v>
@@ -4809,7 +4389,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>64</v>
@@ -4841,7 +4421,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>64</v>
@@ -4870,12 +4450,12 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" customFormat="1" spans="1:14">
+    <row r="84" spans="1:14">
       <c r="A84" s="5">
         <v>1</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>71</v>
@@ -4905,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>71</v>
@@ -4937,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>71</v>
@@ -4973,7 +4553,7 @@
         <v>4</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>71</v>
@@ -5005,7 +4585,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>71</v>
@@ -5039,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>71</v>
@@ -5071,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>71</v>
@@ -5107,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>71</v>
@@ -5143,7 +4723,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>71</v>
@@ -5179,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>71</v>
@@ -5215,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>71</v>
@@ -5251,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>71</v>
@@ -5287,7 +4867,7 @@
         <v>13</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>71</v>
@@ -5323,7 +4903,7 @@
         <v>14</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>71</v>
@@ -5359,7 +4939,7 @@
         <v>15</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>71</v>
@@ -5395,7 +4975,7 @@
         <v>16</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>71</v>
@@ -5431,7 +5011,7 @@
         <v>17</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>71</v>
@@ -5467,7 +5047,7 @@
         <v>18</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>71</v>
@@ -5503,7 +5083,7 @@
         <v>19</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>71</v>
@@ -5530,12 +5110,12 @@
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
     </row>
-    <row r="103" customFormat="1" spans="1:14">
+    <row r="103" spans="1:14">
       <c r="A103" s="5">
         <v>20</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>71</v>
@@ -5567,7 +5147,7 @@
         <v>21</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>71</v>
@@ -5599,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>71</v>
@@ -5631,7 +5211,7 @@
         <v>23</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>71</v>
@@ -5665,7 +5245,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>71</v>
@@ -5695,7 +5275,7 @@
         <v>25</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>71</v>
@@ -5722,12 +5302,12 @@
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
     </row>
-    <row r="109" customFormat="1" spans="1:14">
+    <row r="109" spans="1:14">
       <c r="A109" s="5">
         <v>26</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>71</v>
@@ -5759,7 +5339,7 @@
         <v>27</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>71</v>
@@ -5791,7 +5371,7 @@
         <v>28</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>71</v>
@@ -5823,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>71</v>
@@ -5857,7 +5437,7 @@
         <v>30</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>71</v>
@@ -5889,7 +5469,7 @@
         <v>31</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>71</v>
@@ -5921,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>71</v>
@@ -5953,7 +5533,7 @@
         <v>33</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>71</v>
@@ -5985,7 +5565,7 @@
         <v>34</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>71</v>
@@ -6019,7 +5599,7 @@
         <v>35</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>71</v>
@@ -6051,7 +5631,7 @@
         <v>36</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>71</v>
@@ -6083,7 +5663,7 @@
         <v>37</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>71</v>
@@ -6115,7 +5695,7 @@
         <v>38</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>71</v>
@@ -6149,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>71</v>
@@ -6181,7 +5761,7 @@
         <v>40</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>71</v>
@@ -6213,7 +5793,7 @@
         <v>41</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>71</v>
@@ -6245,7 +5825,7 @@
         <v>42</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>71</v>
@@ -6279,7 +5859,7 @@
         <v>43</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>71</v>
@@ -6311,7 +5891,7 @@
         <v>44</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>71</v>
@@ -6343,7 +5923,7 @@
         <v>45</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>71</v>
@@ -6375,7 +5955,7 @@
         <v>46</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>71</v>
@@ -6409,7 +5989,7 @@
         <v>47</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>71</v>
@@ -6441,7 +6021,7 @@
         <v>48</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>71</v>
@@ -6473,7 +6053,7 @@
         <v>49</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>71</v>
@@ -6505,7 +6085,7 @@
         <v>50</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>71</v>
@@ -6539,7 +6119,7 @@
         <v>51</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>71</v>
@@ -6571,7 +6151,7 @@
         <v>52</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>71</v>
@@ -6603,7 +6183,7 @@
         <v>53</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>71</v>
@@ -6635,7 +6215,7 @@
         <v>54</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>71</v>
@@ -6669,7 +6249,7 @@
         <v>55</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>71</v>
@@ -6701,7 +6281,7 @@
         <v>56</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>71</v>
@@ -6733,7 +6313,7 @@
         <v>57</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>71</v>
@@ -6765,7 +6345,7 @@
         <v>58</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>71</v>
@@ -6799,7 +6379,7 @@
         <v>59</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>71</v>
@@ -6831,7 +6411,7 @@
         <v>60</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>71</v>
@@ -6858,12 +6438,12 @@
       <c r="M143" s="11"/>
       <c r="N143" s="11"/>
     </row>
-    <row r="144" customFormat="1" spans="1:14">
+    <row r="144" spans="1:14">
       <c r="A144" s="5">
         <v>61</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>71</v>
@@ -6895,7 +6475,7 @@
         <v>62</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>71</v>
@@ -6927,7 +6507,7 @@
         <v>63</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>71</v>
@@ -6959,7 +6539,7 @@
         <v>64</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>71</v>
@@ -6993,7 +6573,7 @@
         <v>65</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>71</v>
@@ -7025,7 +6605,7 @@
         <v>66</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>71</v>
@@ -7057,7 +6637,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>71</v>
@@ -7089,7 +6669,7 @@
         <v>68</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>71</v>
@@ -7123,7 +6703,7 @@
         <v>69</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>71</v>
@@ -7155,7 +6735,7 @@
         <v>70</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>71</v>
@@ -7182,12 +6762,12 @@
       <c r="M153" s="11"/>
       <c r="N153" s="11"/>
     </row>
-    <row r="154" customFormat="1" spans="1:14">
+    <row r="154" spans="1:14">
       <c r="A154" s="5">
         <v>71</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>71</v>
@@ -7219,7 +6799,7 @@
         <v>72</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>71</v>
@@ -7251,7 +6831,7 @@
         <v>73</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>71</v>
@@ -7283,7 +6863,7 @@
         <v>74</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>71</v>
@@ -7317,7 +6897,7 @@
         <v>75</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>71</v>
@@ -7349,7 +6929,7 @@
         <v>76</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>71</v>
@@ -7376,12 +6956,12 @@
       <c r="M159" s="11"/>
       <c r="N159" s="11"/>
     </row>
-    <row r="160" customFormat="1" spans="1:14">
+    <row r="160" spans="1:14">
       <c r="A160" s="5">
         <v>77</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>71</v>
@@ -7413,7 +6993,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>71</v>
@@ -7445,7 +7025,7 @@
         <v>79</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>71</v>
@@ -7477,7 +7057,7 @@
         <v>80</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>71</v>
@@ -7511,7 +7091,7 @@
         <v>81</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>71</v>
@@ -7543,7 +7123,7 @@
         <v>82</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>71</v>
@@ -7575,7 +7155,7 @@
         <v>83</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>71</v>
@@ -7604,12 +7184,12 @@
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
     </row>
-    <row r="167" customFormat="1" spans="1:14">
+    <row r="167" spans="1:14">
       <c r="A167" s="5">
         <v>1</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>120</v>
@@ -7639,7 +7219,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>120</v>
@@ -7671,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>120</v>
@@ -7703,7 +7283,7 @@
         <v>4</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>120</v>
@@ -7739,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>120</v>
@@ -7775,7 +7355,7 @@
         <v>6</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>120</v>
@@ -7811,7 +7391,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>120</v>
@@ -7847,7 +7427,7 @@
         <v>8</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>120</v>
@@ -7883,7 +7463,7 @@
         <v>9</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>120</v>
@@ -7919,7 +7499,7 @@
         <v>10</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>120</v>
@@ -7955,7 +7535,7 @@
         <v>11</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>120</v>
@@ -7991,7 +7571,7 @@
         <v>12</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>120</v>
@@ -8027,7 +7607,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>120</v>
@@ -8063,7 +7643,7 @@
         <v>14</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>120</v>
@@ -8099,7 +7679,7 @@
         <v>15</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>120</v>
@@ -8135,7 +7715,7 @@
         <v>16</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>120</v>
@@ -8171,7 +7751,7 @@
         <v>17</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>120</v>
@@ -8207,7 +7787,7 @@
         <v>18</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>120</v>
@@ -8243,7 +7823,7 @@
         <v>19</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>120</v>
@@ -8279,7 +7859,7 @@
         <v>20</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>120</v>
@@ -8315,7 +7895,7 @@
         <v>21</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>120</v>
@@ -8351,7 +7931,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>120</v>
@@ -8387,7 +7967,7 @@
         <v>23</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>120</v>
@@ -8423,7 +8003,7 @@
         <v>24</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>120</v>
@@ -8459,7 +8039,7 @@
         <v>25</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>120</v>
@@ -8495,7 +8075,7 @@
         <v>26</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>120</v>
@@ -8531,7 +8111,7 @@
         <v>27</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>120</v>
@@ -8567,7 +8147,7 @@
         <v>28</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>120</v>
@@ -8603,7 +8183,7 @@
         <v>29</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>120</v>
@@ -8639,7 +8219,7 @@
         <v>30</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>120</v>
@@ -8675,7 +8255,7 @@
         <v>31</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>120</v>
@@ -8711,7 +8291,7 @@
         <v>32</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>120</v>
@@ -8747,7 +8327,7 @@
         <v>33</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>120</v>
@@ -8783,7 +8363,7 @@
         <v>34</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>120</v>
@@ -8819,7 +8399,7 @@
         <v>35</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>120</v>
@@ -8855,7 +8435,7 @@
         <v>36</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>120</v>
@@ -8891,7 +8471,7 @@
         <v>37</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>120</v>
@@ -8927,7 +8507,7 @@
         <v>38</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>120</v>
@@ -8963,7 +8543,7 @@
         <v>39</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>120</v>
@@ -8999,7 +8579,7 @@
         <v>40</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>120</v>
@@ -9035,7 +8615,7 @@
         <v>41</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>120</v>
@@ -9071,7 +8651,7 @@
         <v>42</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>120</v>
@@ -9107,7 +8687,7 @@
         <v>43</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>120</v>
@@ -9143,7 +8723,7 @@
         <v>44</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>120</v>
@@ -9179,7 +8759,7 @@
         <v>45</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>120</v>
@@ -9215,7 +8795,7 @@
         <v>46</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>120</v>
@@ -9251,7 +8831,7 @@
         <v>47</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>120</v>
@@ -9287,7 +8867,7 @@
         <v>48</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>120</v>
@@ -9318,12 +8898,12 @@
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
     </row>
-    <row r="215" customFormat="1" spans="1:14">
+    <row r="215" spans="1:14">
       <c r="A215" s="5">
         <v>1</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>166</v>
@@ -9353,7 +8933,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>166</v>
@@ -9385,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>166</v>
@@ -9417,7 +8997,7 @@
         <v>4</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>166</v>
@@ -9451,7 +9031,7 @@
         <v>5</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>166</v>
@@ -9483,7 +9063,7 @@
         <v>6</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>166</v>
@@ -9519,7 +9099,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>166</v>
@@ -9555,7 +9135,7 @@
         <v>8</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>166</v>
@@ -9591,7 +9171,7 @@
         <v>9</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>166</v>
@@ -9627,7 +9207,7 @@
         <v>10</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>166</v>
@@ -9663,7 +9243,7 @@
         <v>11</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>166</v>
@@ -9699,7 +9279,7 @@
         <v>12</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>166</v>
@@ -9735,7 +9315,7 @@
         <v>13</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>166</v>
@@ -9771,7 +9351,7 @@
         <v>14</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>166</v>
@@ -9807,7 +9387,7 @@
         <v>15</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>166</v>
@@ -9843,7 +9423,7 @@
         <v>16</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>166</v>
@@ -9879,7 +9459,7 @@
         <v>17</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>166</v>
@@ -9915,7 +9495,7 @@
         <v>18</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>166</v>
@@ -9951,7 +9531,7 @@
         <v>19</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>166</v>
@@ -9987,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>166</v>
@@ -10023,7 +9603,7 @@
         <v>21</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>166</v>
@@ -10059,7 +9639,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>166</v>
@@ -10095,7 +9675,7 @@
         <v>23</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>166</v>
@@ -10131,7 +9711,7 @@
         <v>24</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>166</v>
@@ -10167,7 +9747,7 @@
         <v>25</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>166</v>
@@ -10203,7 +9783,7 @@
         <v>26</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>166</v>
@@ -10239,7 +9819,7 @@
         <v>27</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>166</v>
@@ -10275,7 +9855,7 @@
         <v>28</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>166</v>
@@ -10311,7 +9891,7 @@
         <v>29</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>166</v>
@@ -10347,7 +9927,7 @@
         <v>30</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>166</v>
@@ -10379,7 +9959,7 @@
         <v>31</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>166</v>
@@ -10415,7 +9995,7 @@
         <v>32</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>166</v>
@@ -10451,7 +10031,7 @@
         <v>33</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>166</v>
@@ -10487,7 +10067,7 @@
         <v>34</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>166</v>
@@ -10519,7 +10099,7 @@
         <v>35</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>166</v>
@@ -10551,7 +10131,7 @@
         <v>36</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>166</v>
@@ -10583,7 +10163,7 @@
         <v>37</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>166</v>
@@ -10615,7 +10195,7 @@
         <v>38</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>166</v>
@@ -10647,7 +10227,7 @@
         <v>39</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>166</v>
@@ -10683,7 +10263,7 @@
         <v>40</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>166</v>
@@ -10719,7 +10299,7 @@
         <v>41</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>166</v>
@@ -10755,7 +10335,7 @@
         <v>42</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>166</v>
@@ -10791,7 +10371,7 @@
         <v>43</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>166</v>
@@ -10827,7 +10407,7 @@
         <v>44</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>166</v>
@@ -10863,7 +10443,7 @@
         <v>45</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>166</v>
@@ -10899,7 +10479,7 @@
         <v>46</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>166</v>
@@ -10935,7 +10515,7 @@
         <v>47</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>166</v>
@@ -10971,7 +10551,7 @@
         <v>48</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>166</v>
@@ -11007,7 +10587,7 @@
         <v>49</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>166</v>
@@ -11043,7 +10623,7 @@
         <v>50</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>166</v>
@@ -11079,7 +10659,7 @@
         <v>51</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>166</v>
@@ -11115,7 +10695,7 @@
         <v>52</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>166</v>
@@ -11151,7 +10731,7 @@
         <v>53</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>166</v>
@@ -11187,7 +10767,7 @@
         <v>54</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>166</v>
@@ -11223,7 +10803,7 @@
         <v>55</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>166</v>
@@ -11259,7 +10839,7 @@
         <v>56</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>166</v>
@@ -11295,7 +10875,7 @@
         <v>57</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>166</v>
@@ -11331,7 +10911,7 @@
         <v>58</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>166</v>
@@ -11367,7 +10947,7 @@
         <v>59</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>166</v>
@@ -11403,7 +10983,7 @@
         <v>60</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>166</v>
@@ -11439,7 +11019,7 @@
         <v>61</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>166</v>
@@ -11475,7 +11055,7 @@
         <v>62</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>166</v>
@@ -11511,7 +11091,7 @@
         <v>63</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>166</v>
@@ -11545,7 +11125,7 @@
         <v>64</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>166</v>
@@ -11577,7 +11157,7 @@
         <v>65</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>166</v>
@@ -11609,7 +11189,7 @@
         <v>66</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>166</v>
@@ -11643,7 +11223,7 @@
         <v>67</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>166</v>
@@ -11677,7 +11257,7 @@
         <v>68</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>166</v>
@@ -11709,7 +11289,7 @@
         <v>69</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>166</v>
@@ -11741,7 +11321,7 @@
         <v>70</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>166</v>
@@ -11777,7 +11357,7 @@
         <v>71</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>166</v>
@@ -11811,7 +11391,7 @@
         <v>72</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>166</v>
@@ -11843,7 +11423,7 @@
         <v>73</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>166</v>
@@ -11875,7 +11455,7 @@
         <v>74</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>166</v>
@@ -11907,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>166</v>
@@ -11939,7 +11519,7 @@
         <v>76</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>166</v>
@@ -11971,7 +11551,7 @@
         <v>77</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>166</v>
@@ -12003,7 +11583,7 @@
         <v>78</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>166</v>
@@ -12032,12 +11612,12 @@
       <c r="M292" s="11"/>
       <c r="N292" s="11"/>
     </row>
-    <row r="293" customFormat="1" spans="1:14">
+    <row r="293" spans="1:14">
       <c r="A293" s="5">
         <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>219</v>
@@ -12067,7 +11647,7 @@
         <v>2</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>219</v>
@@ -12099,7 +11679,7 @@
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>219</v>
@@ -12131,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>219</v>
@@ -12163,7 +11743,7 @@
         <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>219</v>
@@ -12192,12 +11772,12 @@
       <c r="M297" s="11"/>
       <c r="N297" s="11"/>
     </row>
-    <row r="298" customFormat="1" spans="1:14">
+    <row r="298" spans="1:14">
       <c r="A298" s="5">
         <v>6</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>219</v>
@@ -12229,7 +11809,7 @@
         <v>7</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>219</v>
@@ -12260,12 +11840,12 @@
       <c r="M299" s="11"/>
       <c r="N299" s="11"/>
     </row>
-    <row r="300" customFormat="1" spans="1:14">
+    <row r="300" spans="1:14">
       <c r="A300" s="5">
         <v>8</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>219</v>
@@ -12297,7 +11877,7 @@
         <v>9</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>219</v>
@@ -12328,12 +11908,12 @@
       <c r="M301" s="11"/>
       <c r="N301" s="11"/>
     </row>
-    <row r="302" customFormat="1" spans="1:14">
+    <row r="302" spans="1:14">
       <c r="A302" s="5">
         <v>10</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>219</v>
@@ -12365,7 +11945,7 @@
         <v>11</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>219</v>
@@ -12396,12 +11976,12 @@
       <c r="M303" s="11"/>
       <c r="N303" s="11"/>
     </row>
-    <row r="304" customFormat="1" spans="1:14">
+    <row r="304" spans="1:14">
       <c r="A304" s="5">
         <v>12</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>219</v>
@@ -12433,7 +12013,7 @@
         <v>13</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>219</v>
@@ -12464,12 +12044,12 @@
       <c r="M305" s="11"/>
       <c r="N305" s="11"/>
     </row>
-    <row r="306" customFormat="1" spans="1:14">
+    <row r="306" spans="1:14">
       <c r="A306" s="5">
         <v>14</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>219</v>
@@ -12501,7 +12081,7 @@
         <v>15</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>219</v>
@@ -12532,12 +12112,12 @@
       <c r="M307" s="11"/>
       <c r="N307" s="11"/>
     </row>
-    <row r="308" customFormat="1" spans="1:14">
+    <row r="308" spans="1:14">
       <c r="A308" s="5">
         <v>16</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>219</v>
@@ -12569,7 +12149,7 @@
         <v>17</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>219</v>
@@ -12600,12 +12180,12 @@
       <c r="M309" s="11"/>
       <c r="N309" s="11"/>
     </row>
-    <row r="310" customFormat="1" spans="1:14">
+    <row r="310" spans="1:14">
       <c r="A310" s="5">
         <v>18</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>219</v>
@@ -12637,7 +12217,7 @@
         <v>19</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>219</v>
@@ -12668,12 +12248,12 @@
       <c r="M311" s="11"/>
       <c r="N311" s="11"/>
     </row>
-    <row r="312" customFormat="1" spans="1:14">
+    <row r="312" spans="1:14">
       <c r="A312" s="5">
         <v>20</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>219</v>
@@ -12705,7 +12285,7 @@
         <v>21</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>219</v>
@@ -12736,12 +12316,12 @@
       <c r="M313" s="11"/>
       <c r="N313" s="11"/>
     </row>
-    <row r="314" customFormat="1" spans="1:14">
+    <row r="314" spans="1:14">
       <c r="A314" s="5">
         <v>22</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>219</v>
@@ -12773,7 +12353,7 @@
         <v>23</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>219</v>
@@ -12804,12 +12384,12 @@
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
     </row>
-    <row r="316" customFormat="1" spans="1:14">
+    <row r="316" spans="1:14">
       <c r="A316" s="5">
         <v>24</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>219</v>
@@ -12841,7 +12421,7 @@
         <v>25</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>219</v>
@@ -12872,12 +12452,12 @@
       <c r="M317" s="11"/>
       <c r="N317" s="11"/>
     </row>
-    <row r="318" customFormat="1" spans="1:14">
+    <row r="318" spans="1:14">
       <c r="A318" s="5">
         <v>26</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>219</v>
@@ -12909,7 +12489,7 @@
         <v>27</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>219</v>
@@ -12940,12 +12520,12 @@
       <c r="M319" s="11"/>
       <c r="N319" s="11"/>
     </row>
-    <row r="320" customFormat="1" spans="1:14">
+    <row r="320" spans="1:14">
       <c r="A320" s="5">
         <v>28</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>219</v>
@@ -12977,7 +12557,7 @@
         <v>29</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>219</v>
@@ -13008,12 +12588,12 @@
       <c r="M321" s="11"/>
       <c r="N321" s="11"/>
     </row>
-    <row r="322" customFormat="1" spans="1:14">
+    <row r="322" spans="1:14">
       <c r="A322" s="5">
         <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>219</v>
@@ -13043,7 +12623,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>219</v>
@@ -13075,7 +12655,7 @@
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>219</v>
@@ -13107,7 +12687,7 @@
         <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>219</v>
@@ -13139,7 +12719,7 @@
         <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>219</v>
@@ -13168,12 +12748,12 @@
       <c r="M326" s="11"/>
       <c r="N326" s="11"/>
     </row>
-    <row r="327" customFormat="1" spans="1:14">
+    <row r="327" spans="1:14">
       <c r="A327" s="5">
         <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>219</v>
@@ -13200,12 +12780,12 @@
       <c r="M327" s="11"/>
       <c r="N327" s="11"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1" spans="1:14">
+    <row r="328" spans="1:14" ht="15.75" customHeight="1">
       <c r="A328" s="5">
         <v>7</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>219</v>
@@ -13236,12 +12816,12 @@
       <c r="M328" s="11"/>
       <c r="N328" s="11"/>
     </row>
-    <row r="329" customFormat="1" spans="1:14">
+    <row r="329" spans="1:14">
       <c r="A329" s="5">
         <v>8</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>219</v>
@@ -13273,7 +12853,7 @@
         <v>9</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>219</v>
@@ -13304,12 +12884,12 @@
       <c r="M330" s="11"/>
       <c r="N330" s="11"/>
     </row>
-    <row r="331" customFormat="1" spans="1:14">
+    <row r="331" spans="1:14">
       <c r="A331" s="5">
         <v>10</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>219</v>
@@ -13341,7 +12921,7 @@
         <v>11</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>219</v>
@@ -13372,12 +12952,12 @@
       <c r="M332" s="11"/>
       <c r="N332" s="11"/>
     </row>
-    <row r="333" customFormat="1" spans="1:14">
+    <row r="333" spans="1:14">
       <c r="A333" s="5">
         <v>12</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>219</v>
@@ -13409,7 +12989,7 @@
         <v>13</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>219</v>
@@ -13440,12 +13020,12 @@
       <c r="M334" s="11"/>
       <c r="N334" s="11"/>
     </row>
-    <row r="335" customFormat="1" spans="1:14">
+    <row r="335" spans="1:14">
       <c r="A335" s="5">
         <v>14</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>219</v>
@@ -13477,7 +13057,7 @@
         <v>15</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>219</v>
@@ -13508,12 +13088,12 @@
       <c r="M336" s="11"/>
       <c r="N336" s="11"/>
     </row>
-    <row r="337" customFormat="1" spans="1:14">
+    <row r="337" spans="1:14">
       <c r="A337" s="5">
         <v>16</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>219</v>
@@ -13545,7 +13125,7 @@
         <v>17</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>219</v>
@@ -13576,12 +13156,12 @@
       <c r="M338" s="11"/>
       <c r="N338" s="11"/>
     </row>
-    <row r="339" customFormat="1" spans="1:14">
+    <row r="339" spans="1:14">
       <c r="A339" s="5">
         <v>18</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>219</v>
@@ -13613,7 +13193,7 @@
         <v>19</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>219</v>
@@ -13644,12 +13224,12 @@
       <c r="M340" s="11"/>
       <c r="N340" s="11"/>
     </row>
-    <row r="341" customFormat="1" spans="1:14">
+    <row r="341" spans="1:14">
       <c r="A341" s="5">
         <v>20</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>219</v>
@@ -13681,7 +13261,7 @@
         <v>21</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>219</v>
@@ -13712,12 +13292,12 @@
       <c r="M342" s="11"/>
       <c r="N342" s="11"/>
     </row>
-    <row r="343" customFormat="1" spans="1:14">
+    <row r="343" spans="1:14">
       <c r="A343" s="5">
         <v>22</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>219</v>
@@ -13749,7 +13329,7 @@
         <v>23</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>219</v>
@@ -13780,12 +13360,12 @@
       <c r="M344" s="11"/>
       <c r="N344" s="11"/>
     </row>
-    <row r="345" customFormat="1" spans="1:14">
+    <row r="345" spans="1:14">
       <c r="A345" s="5">
         <v>24</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>219</v>
@@ -13817,7 +13397,7 @@
         <v>25</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>219</v>
@@ -13848,12 +13428,12 @@
       <c r="M346" s="11"/>
       <c r="N346" s="11"/>
     </row>
-    <row r="347" customFormat="1" spans="1:14">
+    <row r="347" spans="1:14">
       <c r="A347" s="5">
         <v>26</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>219</v>
@@ -13885,7 +13465,7 @@
         <v>27</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>219</v>
@@ -13916,12 +13496,12 @@
       <c r="M348" s="11"/>
       <c r="N348" s="11"/>
     </row>
-    <row r="349" customFormat="1" spans="1:14">
+    <row r="349" spans="1:14">
       <c r="A349" s="5">
         <v>28</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>219</v>
@@ -13953,7 +13533,7 @@
         <v>29</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>219</v>
@@ -13984,12 +13564,12 @@
       <c r="M350" s="11"/>
       <c r="N350" s="11"/>
     </row>
-    <row r="351" customFormat="1" spans="1:14">
+    <row r="351" spans="1:14">
       <c r="A351" s="5">
         <v>30</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>219</v>
@@ -14021,7 +13601,7 @@
         <v>31</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>219</v>
@@ -14052,12 +13632,12 @@
       <c r="M352" s="11"/>
       <c r="N352" s="11"/>
     </row>
-    <row r="353" customFormat="1" spans="1:14">
+    <row r="353" spans="1:14">
       <c r="A353" s="5">
         <v>32</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>219</v>
@@ -14089,7 +13669,7 @@
         <v>33</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>219</v>
@@ -14120,12 +13700,12 @@
       <c r="M354" s="11"/>
       <c r="N354" s="11"/>
     </row>
-    <row r="355" customFormat="1" spans="1:14">
+    <row r="355" spans="1:14">
       <c r="A355" s="5">
         <v>34</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>219</v>
@@ -14157,7 +13737,7 @@
         <v>35</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>219</v>
@@ -14188,12 +13768,12 @@
       <c r="M356" s="11"/>
       <c r="N356" s="11"/>
     </row>
-    <row r="357" customFormat="1" spans="1:14">
+    <row r="357" spans="1:14">
       <c r="A357" s="5">
         <v>36</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>219</v>
@@ -14225,7 +13805,7 @@
         <v>37</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>219</v>
@@ -14256,12 +13836,12 @@
       <c r="M358" s="11"/>
       <c r="N358" s="11"/>
     </row>
-    <row r="359" customFormat="1" spans="1:14">
+    <row r="359" spans="1:14">
       <c r="A359" s="5">
         <v>1</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>246</v>
@@ -14291,7 +13871,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>246</v>
@@ -14323,7 +13903,7 @@
         <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>246</v>
@@ -14355,7 +13935,7 @@
         <v>4</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>246</v>
@@ -14387,7 +13967,7 @@
         <v>5</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>246</v>
@@ -14421,7 +14001,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>246</v>
@@ -14457,7 +14037,7 @@
         <v>7</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>246</v>
@@ -14493,7 +14073,7 @@
         <v>8</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>246</v>
@@ -14529,7 +14109,7 @@
         <v>9</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>246</v>
@@ -14565,7 +14145,7 @@
         <v>10</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>246</v>
@@ -14597,7 +14177,7 @@
         <v>11</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>246</v>
@@ -14629,7 +14209,7 @@
         <v>12</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>246</v>
@@ -14663,7 +14243,7 @@
         <v>13</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>246</v>
@@ -14699,7 +14279,7 @@
         <v>14</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>246</v>
@@ -14735,7 +14315,7 @@
         <v>15</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>246</v>
@@ -14771,7 +14351,7 @@
         <v>16</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>246</v>
@@ -14807,7 +14387,7 @@
         <v>17</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>246</v>
@@ -14839,7 +14419,7 @@
         <v>18</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>246</v>
@@ -14871,7 +14451,7 @@
         <v>19</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>246</v>
@@ -14905,7 +14485,7 @@
         <v>20</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>246</v>
@@ -14941,7 +14521,7 @@
         <v>21</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>246</v>
@@ -14977,7 +14557,7 @@
         <v>22</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>246</v>
@@ -15013,7 +14593,7 @@
         <v>23</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>246</v>
@@ -15044,12 +14624,12 @@
       <c r="M381" s="11"/>
       <c r="N381" s="11"/>
     </row>
-    <row r="382" customFormat="1" spans="1:14">
+    <row r="382" spans="1:14">
       <c r="A382" s="5">
         <v>1</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C382" s="9" t="s">
         <v>267</v>
@@ -15079,7 +14659,7 @@
         <v>2</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C383" s="9" t="s">
         <v>267</v>
@@ -15111,7 +14691,7 @@
         <v>3</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C384" s="9" t="s">
         <v>267</v>
@@ -15143,7 +14723,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C385" s="9" t="s">
         <v>267</v>
@@ -15177,7 +14757,7 @@
         <v>5</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C386" s="9" t="s">
         <v>267</v>
@@ -15211,7 +14791,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C387" s="9" t="s">
         <v>267</v>
@@ -15241,7 +14821,7 @@
         <v>7</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C388" s="9" t="s">
         <v>267</v>
@@ -15273,7 +14853,7 @@
         <v>8</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C389" s="9" t="s">
         <v>267</v>
@@ -15305,7 +14885,7 @@
         <v>9</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C390" s="9" t="s">
         <v>267</v>
@@ -15339,7 +14919,7 @@
         <v>10</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>267</v>
@@ -15369,7 +14949,7 @@
         <v>11</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>267</v>
@@ -15401,7 +14981,7 @@
         <v>12</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C393" s="9" t="s">
         <v>267</v>
@@ -15433,7 +15013,7 @@
         <v>13</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>267</v>
@@ -15467,7 +15047,7 @@
         <v>14</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>267</v>
@@ -15497,7 +15077,7 @@
         <v>15</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>267</v>
@@ -15529,7 +15109,7 @@
         <v>16</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>267</v>
@@ -15561,7 +15141,7 @@
         <v>17</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>267</v>
@@ -15595,7 +15175,7 @@
         <v>18</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>267</v>
@@ -15625,7 +15205,7 @@
         <v>19</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>267</v>
@@ -15657,7 +15237,7 @@
         <v>20</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>267</v>
@@ -15689,7 +15269,7 @@
         <v>21</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>267</v>
@@ -15723,7 +15303,7 @@
         <v>22</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>267</v>
@@ -15753,7 +15333,7 @@
         <v>23</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>267</v>
@@ -15782,12 +15362,12 @@
       <c r="M404" s="11"/>
       <c r="N404" s="11"/>
     </row>
-    <row r="405" customFormat="1" spans="1:14">
+    <row r="405" spans="1:14">
       <c r="A405" s="5">
         <v>1</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C405" t="s">
         <v>282</v>
@@ -15812,12 +15392,12 @@
       <c r="M405" s="7"/>
       <c r="N405" s="7"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:14">
       <c r="A406" s="5">
         <v>2</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C406" t="s">
         <v>282</v>
@@ -15838,12 +15418,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:14">
       <c r="A407" s="5">
         <v>3</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C407" t="s">
         <v>282</v>
@@ -15864,12 +15444,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="408" ht="16.5" spans="1:10">
+    <row r="408" spans="1:14" ht="16.5">
       <c r="A408" s="5">
         <v>4</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C408" t="s">
         <v>282</v>
@@ -15892,12 +15472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:14">
       <c r="A409" s="5">
         <v>5</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C409" t="s">
         <v>282</v>
@@ -15922,12 +15502,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:14">
       <c r="A410" s="5">
         <v>6</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C410" t="s">
         <v>282</v>
@@ -15945,12 +15525,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:14">
       <c r="A411" s="5">
         <v>7</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C411" t="s">
         <v>282</v>
@@ -15971,12 +15551,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:14">
       <c r="A412" s="5">
         <v>8</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C412" t="s">
         <v>282</v>
@@ -15997,12 +15577,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:14">
       <c r="A413" s="5">
         <v>9</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C413" t="s">
         <v>282</v>
@@ -16027,12 +15607,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:14">
       <c r="A414" s="5">
         <v>10</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C414" t="s">
         <v>282</v>
@@ -16056,12 +15636,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:14">
       <c r="A415" s="5">
         <v>11</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C415" t="s">
         <v>282</v>
@@ -16082,12 +15662,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:14">
       <c r="A416" s="5">
         <v>12</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C416" t="s">
         <v>282</v>
@@ -16108,12 +15688,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="417" ht="16.5" spans="1:10">
+    <row r="417" spans="1:10" ht="16.5">
       <c r="A417" s="5">
         <v>13</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C417" t="s">
         <v>282</v>
@@ -16141,7 +15721,7 @@
         <v>14</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C418" t="s">
         <v>282</v>
@@ -16166,12 +15746,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:10">
       <c r="A419" s="5">
         <v>15</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C419" t="s">
         <v>282</v>
@@ -16189,12 +15769,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:10">
       <c r="A420" s="5">
         <v>16</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C420" t="s">
         <v>282</v>
@@ -16215,12 +15795,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:10">
       <c r="A421" s="5">
         <v>17</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C421" t="s">
         <v>282</v>
@@ -16241,12 +15821,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="422" ht="16.5" spans="1:10">
+    <row r="422" spans="1:10" ht="16.5">
       <c r="A422" s="5">
         <v>18</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C422" t="s">
         <v>282</v>
@@ -16274,7 +15854,7 @@
         <v>19</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C423" t="s">
         <v>282</v>
@@ -16299,12 +15879,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:10">
       <c r="A424" s="5">
         <v>20</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C424" t="s">
         <v>282</v>
@@ -16322,12 +15902,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:10">
       <c r="A425" s="5">
         <v>21</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C425" t="s">
         <v>282</v>
@@ -16348,12 +15928,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:10">
       <c r="A426" s="5">
         <v>22</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C426" t="s">
         <v>282</v>
@@ -16374,12 +15954,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="427" ht="16.5" spans="1:10">
+    <row r="427" spans="1:10" ht="16.5">
       <c r="A427" s="5">
         <v>23</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C427" t="s">
         <v>282</v>
@@ -16407,7 +15987,7 @@
         <v>24</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C428" t="s">
         <v>282</v>
@@ -16432,12 +16012,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:10">
       <c r="A429" s="5">
         <v>25</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C429" t="s">
         <v>282</v>
@@ -16455,12 +16035,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:10">
       <c r="A430" s="5">
         <v>26</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C430" t="s">
         <v>282</v>
@@ -16481,12 +16061,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:10">
       <c r="A431" s="5">
         <v>27</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C431" t="s">
         <v>282</v>
@@ -16507,12 +16087,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="432" ht="16.5" spans="1:10">
+    <row r="432" spans="1:10" ht="16.5">
       <c r="A432" s="5">
         <v>28</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C432" t="s">
         <v>282</v>
@@ -16540,7 +16120,7 @@
         <v>29</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C433" t="s">
         <v>282</v>
@@ -16565,12 +16145,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:10">
       <c r="A434" s="5">
         <v>30</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C434" t="s">
         <v>282</v>
@@ -16588,12 +16168,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:10">
       <c r="A435" s="5">
         <v>31</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C435" t="s">
         <v>282</v>
@@ -16614,12 +16194,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:10">
       <c r="A436" s="5">
         <v>32</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C436" t="s">
         <v>282</v>
@@ -16640,12 +16220,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="437" ht="16.5" spans="1:10">
+    <row r="437" spans="1:10" ht="16.5">
       <c r="A437" s="5">
         <v>33</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C437" t="s">
         <v>282</v>
@@ -16673,7 +16253,7 @@
         <v>34</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C438" t="s">
         <v>282</v>
@@ -16698,12 +16278,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:10">
       <c r="A439" s="5">
         <v>35</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C439" t="s">
         <v>282</v>
@@ -16721,12 +16301,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:10">
       <c r="A440" s="5">
         <v>36</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C440" t="s">
         <v>282</v>
@@ -16747,12 +16327,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:10">
       <c r="A441" s="5">
         <v>37</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C441" t="s">
         <v>282</v>
@@ -16773,12 +16353,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="442" ht="16.5" spans="1:10">
+    <row r="442" spans="1:10" ht="16.5">
       <c r="A442" s="5">
         <v>38</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C442" t="s">
         <v>282</v>
@@ -16806,7 +16386,7 @@
         <v>39</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C443" t="s">
         <v>282</v>
@@ -16831,12 +16411,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:10">
       <c r="A444" s="5">
         <v>40</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C444" t="s">
         <v>282</v>
@@ -16854,12 +16434,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:10">
       <c r="A445" s="5">
         <v>41</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C445" t="s">
         <v>282</v>
@@ -16880,12 +16460,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:10">
       <c r="A446" s="5">
         <v>42</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C446" t="s">
         <v>282</v>
@@ -16906,12 +16486,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="447" ht="16.5" spans="1:10">
+    <row r="447" spans="1:10" ht="16.5">
       <c r="A447" s="5">
         <v>43</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C447" t="s">
         <v>282</v>
@@ -16939,7 +16519,7 @@
         <v>44</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C448" t="s">
         <v>282</v>
@@ -16964,12 +16544,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:14">
       <c r="A449" s="5">
         <v>45</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C449" t="s">
         <v>282</v>
@@ -16987,12 +16567,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:14">
       <c r="A450" s="5">
         <v>46</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C450" t="s">
         <v>282</v>
@@ -17013,12 +16593,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="451" ht="16.5" spans="1:10">
+    <row r="451" spans="1:14" ht="16.5">
       <c r="A451" s="5">
         <v>47</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C451" t="s">
         <v>282</v>
@@ -17041,12 +16621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:14">
       <c r="A452" s="5">
         <v>48</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C452" t="s">
         <v>282</v>
@@ -17071,12 +16651,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="453" customFormat="1" spans="1:14">
+    <row r="453" spans="1:14">
       <c r="A453" s="5">
         <v>1</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C453" t="s">
         <v>301</v>
@@ -17101,12 +16681,12 @@
       <c r="M453" s="7"/>
       <c r="N453" s="7"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:14">
       <c r="A454" s="5">
         <v>2</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C454" t="s">
         <v>301</v>
@@ -17132,30 +16712,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J133" r:id="rId1" display="http://weapp.everis.com/CVEM.Web/EditCV.aspx"/>
-    <hyperlink ref="J326" r:id="rId2" display="https://knowler.everis.com/internalNews/company/nttd"/>
+    <hyperlink ref="J133" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J326" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17188,10 +16766,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://knowler.everis.com/home"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49FE83-132C-490C-B123-D35BE5763F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F62C42-C03D-40DF-BA41-B2ACE872A755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -962,7 +962,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1220,11 +1220,11 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1246,11 +1246,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B454"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:A454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>31</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>31</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>31</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>31</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>31</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>31</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>31</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>31</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>31</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>31</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>31</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>31</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>31</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>31</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>31</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>31</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>31</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>31</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>31</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>31</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="5">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>31</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>31</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>31</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="5">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>31</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>31</v>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>31</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="5">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>31</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="5">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>31</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="5">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>31</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="5">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>31</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>31</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>31</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="5">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>31</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="5">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>31</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="5">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>31</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="5">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>31</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>31</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>31</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>31</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="5">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>31</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>31</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>31</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="5">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>31</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>31</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>31</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>31</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0A0285-A994-4C79-9B9A-61E55D2CFC5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -953,16 +959,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,43 +995,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -1042,96 +1007,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1161,8 +1042,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,187 +1065,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,12 +1149,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1412,262 +1192,105 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1695,159 +1318,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="87">
+    <cellStyle name="20% - Accent1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Buena 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Incorrecto 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Moneda 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Moneda 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Moneda 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Neutral 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
-    <cellStyle name="Incorrecto 2" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="Normal 7 2" xfId="12"/>
-    <cellStyle name="60% - Accent4" xfId="13" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="17" builtinId="11"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="Normal 6 3" xfId="19"/>
-    <cellStyle name="40% - Accent2" xfId="20" builtinId="35"/>
-    <cellStyle name="Normal 4_Sheet1" xfId="21"/>
-    <cellStyle name="CExplanatory Text" xfId="22" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="24" builtinId="18"/>
-    <cellStyle name="20% - Accent3 2" xfId="25"/>
-    <cellStyle name="Heading 4" xfId="26" builtinId="19"/>
-    <cellStyle name="20% - Accent3 3" xfId="27"/>
-    <cellStyle name="Input" xfId="28" builtinId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="29"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40"/>
-    <cellStyle name="Good" xfId="31" builtinId="26"/>
-    <cellStyle name="Output" xfId="32" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="33" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="35"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24"/>
-    <cellStyle name="Total" xfId="37" builtinId="25"/>
-    <cellStyle name="Bad" xfId="38" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="39" builtinId="28"/>
-    <cellStyle name="20% - Accent6 3" xfId="40"/>
-    <cellStyle name="20% - Accent2 3" xfId="41"/>
-    <cellStyle name="Accent1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="44" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="45" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="46" builtinId="34"/>
-    <cellStyle name="60% - Accent2" xfId="47" builtinId="36"/>
-    <cellStyle name="Title 2" xfId="48"/>
-    <cellStyle name="20% - Accent6" xfId="49" builtinId="50"/>
-    <cellStyle name="Accent3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="51" builtinId="38"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="52"/>
-    <cellStyle name="Accent4" xfId="53" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="54" builtinId="42"/>
-    <cellStyle name="20% - Accent4 2" xfId="55"/>
-    <cellStyle name="40% - Accent4" xfId="56" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="57" builtinId="45"/>
-    <cellStyle name="20% - Accent4 3" xfId="58"/>
-    <cellStyle name="40% - Accent5" xfId="59" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="60" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="61" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="62" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="63" builtinId="52"/>
-    <cellStyle name="20% - Accent1 2" xfId="64"/>
-    <cellStyle name="20% - Accent1 3" xfId="65"/>
-    <cellStyle name="20% - Accent2 2" xfId="66"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="67"/>
-    <cellStyle name="20% - Accent5 2" xfId="68"/>
-    <cellStyle name="20% - Accent5 3" xfId="69"/>
-    <cellStyle name="20% - Accent6 2" xfId="70"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="71"/>
-    <cellStyle name="40% - Accent1 2" xfId="72"/>
-    <cellStyle name="Millares 2" xfId="73"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="74"/>
-    <cellStyle name="Millares 2 2" xfId="75"/>
-    <cellStyle name="40% - Accent1 3" xfId="76"/>
-    <cellStyle name="Millares 3" xfId="77"/>
-    <cellStyle name="40% - Accent2 2" xfId="78"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="79"/>
-    <cellStyle name="40% - Accent2 3" xfId="80"/>
-    <cellStyle name="40% - Accent3 2" xfId="81"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="82"/>
-    <cellStyle name="40% - Accent3 3" xfId="83"/>
-    <cellStyle name="40% - Accent4 2" xfId="84"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="85"/>
-    <cellStyle name="40% - Accent4 3" xfId="86"/>
-    <cellStyle name="40% - Accent5 2" xfId="87"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="88"/>
-    <cellStyle name="40% - Accent5 3" xfId="89"/>
-    <cellStyle name="40% - Accent6 2" xfId="90"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="91"/>
-    <cellStyle name="40% - Accent6 3" xfId="92"/>
-    <cellStyle name="Buena 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2" xfId="94"/>
-    <cellStyle name="Normal 7 2 2" xfId="95"/>
-    <cellStyle name="Millares 2 2 2" xfId="96"/>
-    <cellStyle name="Millares 2 3" xfId="97"/>
-    <cellStyle name="Millares 3 2" xfId="98"/>
-    <cellStyle name="Millares 3 2 2" xfId="99"/>
-    <cellStyle name="Millares 3 3" xfId="100"/>
-    <cellStyle name="Moneda 2" xfId="101"/>
-    <cellStyle name="Moneda 2 2" xfId="102"/>
-    <cellStyle name="Moneda 2 2 2" xfId="103"/>
-    <cellStyle name="Moneda 2 3" xfId="104"/>
-    <cellStyle name="Neutral 2" xfId="105"/>
-    <cellStyle name="Normal 10" xfId="106"/>
-    <cellStyle name="Normal 10 2" xfId="107"/>
-    <cellStyle name="Normal 2" xfId="108"/>
-    <cellStyle name="Normal 2 2" xfId="109"/>
-    <cellStyle name="Normal 2 2 2" xfId="110"/>
-    <cellStyle name="Normal 2 3" xfId="111"/>
-    <cellStyle name="Normal 2_Sheet1" xfId="112"/>
-    <cellStyle name="Normal 3" xfId="113"/>
-    <cellStyle name="Normal 4" xfId="114"/>
-    <cellStyle name="Normal 4 2" xfId="115"/>
-    <cellStyle name="Normal 4 2 2" xfId="116"/>
-    <cellStyle name="Normal 4 3" xfId="117"/>
-    <cellStyle name="Normal 5" xfId="118"/>
-    <cellStyle name="Normal 6" xfId="119"/>
-    <cellStyle name="Normal 6 2" xfId="120"/>
-    <cellStyle name="Normal 6 4" xfId="121"/>
-    <cellStyle name="Normal 7" xfId="122"/>
-    <cellStyle name="Normal 7 3" xfId="123"/>
-    <cellStyle name="Normal 7_Sheet1" xfId="124"/>
-    <cellStyle name="Normal 8" xfId="125"/>
-    <cellStyle name="Normal 9" xfId="126"/>
-    <cellStyle name="Normal 9 2" xfId="127"/>
-    <cellStyle name="Normal 9_Sheet1" xfId="128"/>
-    <cellStyle name="Notas 2" xfId="129"/>
-    <cellStyle name="Notas 2 2" xfId="130"/>
-    <cellStyle name="Notas 2 2 2" xfId="131"/>
-    <cellStyle name="Notas 2 3" xfId="132"/>
-    <cellStyle name="Porcentaje 2" xfId="133"/>
+    <cellStyle name="Normal 10" xfId="59" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 10 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 2_Sheet1" xfId="65" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 4 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 4_Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 6 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 6 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 7" xfId="75" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 7 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 7 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 7_Sheet1" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 8" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 9" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 9_Sheet1" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Notas 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Notas 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Notas 2 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Notas 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2105,33 +1685,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="B409" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="20.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="41.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.5714285714286" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="122.857142857143" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" customWidth="1"/>
-    <col min="11" max="12" width="11.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" customWidth="1"/>
-    <col min="14" max="14" width="10.2857142857143" customWidth="1"/>
-    <col min="15" max="17" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="122.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2183,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>15</v>
@@ -2208,12 +1788,12 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
@@ -2240,12 +1820,12 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>19</v>
@@ -2272,12 +1852,12 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>19</v>
@@ -2309,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>19</v>
@@ -2338,12 +1918,12 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>15</v>
@@ -2373,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>28</v>
@@ -2405,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
@@ -2441,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>28</v>
@@ -2477,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
@@ -2513,7 +2093,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
@@ -2549,7 +2129,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
@@ -2585,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>28</v>
@@ -2621,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>28</v>
@@ -2652,7 +2232,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" customFormat="1" spans="1:14">
+    <row r="16" spans="1:14">
       <c r="A16" s="5">
         <v>1</v>
       </c>
@@ -4024,12 +3604,12 @@
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" customFormat="1" spans="1:14">
+    <row r="58" spans="1:14">
       <c r="A58" s="5">
         <v>1</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>57</v>
@@ -4059,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>57</v>
@@ -4091,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>57</v>
@@ -4125,7 +3705,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>57</v>
@@ -4157,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>57</v>
@@ -4189,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>57</v>
@@ -4220,12 +3800,12 @@
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" customFormat="1" spans="1:14">
+    <row r="64" spans="1:14">
       <c r="A64" s="5">
         <v>1</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>64</v>
@@ -4255,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>64</v>
@@ -4287,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>64</v>
@@ -4321,7 +3901,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>64</v>
@@ -4353,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>64</v>
@@ -4385,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>64</v>
@@ -4421,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>64</v>
@@ -4457,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>64</v>
@@ -4489,7 +4069,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>64</v>
@@ -4518,12 +4098,12 @@
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" customFormat="1" spans="1:14">
+    <row r="73" spans="1:14">
       <c r="A73" s="5">
         <v>1</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>71</v>
@@ -4553,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>71</v>
@@ -4585,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>71</v>
@@ -4621,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>71</v>
@@ -4653,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>71</v>
@@ -4687,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>71</v>
@@ -4719,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>71</v>
@@ -4755,7 +4335,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>71</v>
@@ -4791,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>71</v>
@@ -4827,7 +4407,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>71</v>
@@ -4863,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>71</v>
@@ -4899,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>71</v>
@@ -4935,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>71</v>
@@ -4971,7 +4551,7 @@
         <v>14</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>71</v>
@@ -5007,7 +4587,7 @@
         <v>15</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>71</v>
@@ -5043,7 +4623,7 @@
         <v>16</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>71</v>
@@ -5079,7 +4659,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>71</v>
@@ -5115,7 +4695,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>71</v>
@@ -5151,7 +4731,7 @@
         <v>19</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>71</v>
@@ -5178,12 +4758,12 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" customFormat="1" spans="1:14">
+    <row r="92" spans="1:14">
       <c r="A92" s="5">
         <v>20</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>71</v>
@@ -5215,7 +4795,7 @@
         <v>21</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>71</v>
@@ -5247,7 +4827,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>71</v>
@@ -5279,7 +4859,7 @@
         <v>23</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>71</v>
@@ -5313,7 +4893,7 @@
         <v>24</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>71</v>
@@ -5343,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>71</v>
@@ -5370,12 +4950,12 @@
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
     </row>
-    <row r="98" customFormat="1" spans="1:14">
+    <row r="98" spans="1:14">
       <c r="A98" s="5">
         <v>26</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>71</v>
@@ -5407,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>71</v>
@@ -5439,7 +5019,7 @@
         <v>28</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>71</v>
@@ -5471,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>71</v>
@@ -5505,7 +5085,7 @@
         <v>30</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>71</v>
@@ -5537,7 +5117,7 @@
         <v>31</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>71</v>
@@ -5569,7 +5149,7 @@
         <v>32</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>71</v>
@@ -5601,7 +5181,7 @@
         <v>33</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>71</v>
@@ -5633,7 +5213,7 @@
         <v>34</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>71</v>
@@ -5667,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>71</v>
@@ -5699,7 +5279,7 @@
         <v>36</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>71</v>
@@ -5731,7 +5311,7 @@
         <v>37</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>71</v>
@@ -5763,7 +5343,7 @@
         <v>38</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>71</v>
@@ -5797,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>71</v>
@@ -5829,7 +5409,7 @@
         <v>40</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>71</v>
@@ -5861,7 +5441,7 @@
         <v>41</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>71</v>
@@ -5893,7 +5473,7 @@
         <v>42</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>71</v>
@@ -5927,7 +5507,7 @@
         <v>43</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>71</v>
@@ -5959,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>71</v>
@@ -5991,7 +5571,7 @@
         <v>45</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>71</v>
@@ -6023,7 +5603,7 @@
         <v>46</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>71</v>
@@ -6057,7 +5637,7 @@
         <v>47</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>71</v>
@@ -6089,7 +5669,7 @@
         <v>48</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>71</v>
@@ -6121,7 +5701,7 @@
         <v>49</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>71</v>
@@ -6153,7 +5733,7 @@
         <v>50</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>71</v>
@@ -6187,7 +5767,7 @@
         <v>51</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>71</v>
@@ -6219,7 +5799,7 @@
         <v>52</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>71</v>
@@ -6251,7 +5831,7 @@
         <v>53</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>71</v>
@@ -6283,7 +5863,7 @@
         <v>54</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>71</v>
@@ -6317,7 +5897,7 @@
         <v>55</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>71</v>
@@ -6349,7 +5929,7 @@
         <v>56</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>71</v>
@@ -6381,7 +5961,7 @@
         <v>57</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>71</v>
@@ -6413,7 +5993,7 @@
         <v>58</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>71</v>
@@ -6447,7 +6027,7 @@
         <v>59</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>71</v>
@@ -6479,7 +6059,7 @@
         <v>60</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>71</v>
@@ -6506,12 +6086,12 @@
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" customFormat="1" spans="1:14">
+    <row r="133" spans="1:14">
       <c r="A133" s="5">
         <v>61</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>71</v>
@@ -6543,7 +6123,7 @@
         <v>62</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>71</v>
@@ -6575,7 +6155,7 @@
         <v>63</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>71</v>
@@ -6607,7 +6187,7 @@
         <v>64</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>71</v>
@@ -6641,7 +6221,7 @@
         <v>65</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>71</v>
@@ -6673,7 +6253,7 @@
         <v>66</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>71</v>
@@ -6705,7 +6285,7 @@
         <v>67</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>71</v>
@@ -6737,7 +6317,7 @@
         <v>68</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>71</v>
@@ -6771,7 +6351,7 @@
         <v>69</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>71</v>
@@ -6803,7 +6383,7 @@
         <v>70</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>71</v>
@@ -6830,12 +6410,12 @@
       <c r="M142" s="11"/>
       <c r="N142" s="11"/>
     </row>
-    <row r="143" customFormat="1" spans="1:14">
+    <row r="143" spans="1:14">
       <c r="A143" s="5">
         <v>71</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>71</v>
@@ -6867,7 +6447,7 @@
         <v>72</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>71</v>
@@ -6899,7 +6479,7 @@
         <v>73</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>71</v>
@@ -6931,7 +6511,7 @@
         <v>74</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>71</v>
@@ -6965,7 +6545,7 @@
         <v>75</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>71</v>
@@ -6997,7 +6577,7 @@
         <v>76</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>71</v>
@@ -7024,12 +6604,12 @@
       <c r="M148" s="11"/>
       <c r="N148" s="11"/>
     </row>
-    <row r="149" customFormat="1" spans="1:14">
+    <row r="149" spans="1:14">
       <c r="A149" s="5">
         <v>77</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>71</v>
@@ -7061,7 +6641,7 @@
         <v>78</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>71</v>
@@ -7093,7 +6673,7 @@
         <v>79</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>71</v>
@@ -7125,7 +6705,7 @@
         <v>80</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>71</v>
@@ -7159,7 +6739,7 @@
         <v>81</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>71</v>
@@ -7191,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>71</v>
@@ -7223,7 +6803,7 @@
         <v>83</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>71</v>
@@ -7252,12 +6832,12 @@
       <c r="M155" s="11"/>
       <c r="N155" s="11"/>
     </row>
-    <row r="156" customFormat="1" spans="1:14">
+    <row r="156" spans="1:14">
       <c r="A156" s="5">
         <v>1</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>120</v>
@@ -7287,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>120</v>
@@ -7319,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>120</v>
@@ -7351,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>120</v>
@@ -7387,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>120</v>
@@ -7423,7 +7003,7 @@
         <v>6</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>120</v>
@@ -7459,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>120</v>
@@ -7495,7 +7075,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>120</v>
@@ -7531,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>120</v>
@@ -7567,7 +7147,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>120</v>
@@ -7603,7 +7183,7 @@
         <v>11</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>120</v>
@@ -7639,7 +7219,7 @@
         <v>12</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>120</v>
@@ -7675,7 +7255,7 @@
         <v>13</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>120</v>
@@ -7711,7 +7291,7 @@
         <v>14</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>120</v>
@@ -7747,7 +7327,7 @@
         <v>15</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>120</v>
@@ -7783,7 +7363,7 @@
         <v>16</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>120</v>
@@ -7819,7 +7399,7 @@
         <v>17</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>120</v>
@@ -7855,7 +7435,7 @@
         <v>18</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>120</v>
@@ -7891,7 +7471,7 @@
         <v>19</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>120</v>
@@ -7927,7 +7507,7 @@
         <v>20</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>120</v>
@@ -7963,7 +7543,7 @@
         <v>21</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>120</v>
@@ -7999,7 +7579,7 @@
         <v>22</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>120</v>
@@ -8035,7 +7615,7 @@
         <v>23</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>120</v>
@@ -8071,7 +7651,7 @@
         <v>24</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>120</v>
@@ -8107,7 +7687,7 @@
         <v>25</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>120</v>
@@ -8143,7 +7723,7 @@
         <v>26</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>120</v>
@@ -8179,7 +7759,7 @@
         <v>27</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>120</v>
@@ -8215,7 +7795,7 @@
         <v>28</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>120</v>
@@ -8251,7 +7831,7 @@
         <v>29</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>120</v>
@@ -8287,7 +7867,7 @@
         <v>30</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>120</v>
@@ -8323,7 +7903,7 @@
         <v>31</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>120</v>
@@ -8359,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>120</v>
@@ -8395,7 +7975,7 @@
         <v>33</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>120</v>
@@ -8431,7 +8011,7 @@
         <v>34</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>120</v>
@@ -8467,7 +8047,7 @@
         <v>35</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>120</v>
@@ -8503,7 +8083,7 @@
         <v>36</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>120</v>
@@ -8539,7 +8119,7 @@
         <v>37</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>120</v>
@@ -8575,7 +8155,7 @@
         <v>38</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>120</v>
@@ -8611,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>120</v>
@@ -8647,7 +8227,7 @@
         <v>40</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>120</v>
@@ -8683,7 +8263,7 @@
         <v>41</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>120</v>
@@ -8719,7 +8299,7 @@
         <v>42</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>120</v>
@@ -8755,7 +8335,7 @@
         <v>43</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>120</v>
@@ -8791,7 +8371,7 @@
         <v>44</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>120</v>
@@ -8827,7 +8407,7 @@
         <v>45</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>120</v>
@@ -8863,7 +8443,7 @@
         <v>46</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>120</v>
@@ -8899,7 +8479,7 @@
         <v>47</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>120</v>
@@ -8935,7 +8515,7 @@
         <v>48</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>120</v>
@@ -8966,12 +8546,12 @@
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
     </row>
-    <row r="204" customFormat="1" spans="1:14">
+    <row r="204" spans="1:14">
       <c r="A204" s="5">
         <v>1</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>166</v>
@@ -9001,7 +8581,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>166</v>
@@ -9033,7 +8613,7 @@
         <v>3</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>166</v>
@@ -9065,7 +8645,7 @@
         <v>4</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>166</v>
@@ -9099,7 +8679,7 @@
         <v>5</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>166</v>
@@ -9131,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>166</v>
@@ -9167,7 +8747,7 @@
         <v>7</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>166</v>
@@ -9203,7 +8783,7 @@
         <v>8</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>166</v>
@@ -9239,7 +8819,7 @@
         <v>9</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>166</v>
@@ -9275,7 +8855,7 @@
         <v>10</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>166</v>
@@ -9311,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>166</v>
@@ -9347,7 +8927,7 @@
         <v>12</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>166</v>
@@ -9383,7 +8963,7 @@
         <v>13</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>166</v>
@@ -9419,7 +8999,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>166</v>
@@ -9455,7 +9035,7 @@
         <v>15</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>166</v>
@@ -9491,7 +9071,7 @@
         <v>16</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>166</v>
@@ -9527,7 +9107,7 @@
         <v>17</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>166</v>
@@ -9563,7 +9143,7 @@
         <v>18</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>166</v>
@@ -9599,7 +9179,7 @@
         <v>19</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>166</v>
@@ -9635,7 +9215,7 @@
         <v>20</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>166</v>
@@ -9671,7 +9251,7 @@
         <v>21</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>166</v>
@@ -9707,7 +9287,7 @@
         <v>22</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>166</v>
@@ -9743,7 +9323,7 @@
         <v>23</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>166</v>
@@ -9779,7 +9359,7 @@
         <v>24</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>166</v>
@@ -9815,7 +9395,7 @@
         <v>25</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>166</v>
@@ -9851,7 +9431,7 @@
         <v>26</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>166</v>
@@ -9887,7 +9467,7 @@
         <v>27</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>166</v>
@@ -9923,7 +9503,7 @@
         <v>28</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>166</v>
@@ -9959,7 +9539,7 @@
         <v>29</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>166</v>
@@ -9995,7 +9575,7 @@
         <v>30</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>166</v>
@@ -10027,7 +9607,7 @@
         <v>31</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>166</v>
@@ -10063,7 +9643,7 @@
         <v>32</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>166</v>
@@ -10099,7 +9679,7 @@
         <v>33</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>166</v>
@@ -10135,7 +9715,7 @@
         <v>34</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>166</v>
@@ -10167,7 +9747,7 @@
         <v>35</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>166</v>
@@ -10199,7 +9779,7 @@
         <v>36</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>166</v>
@@ -10231,7 +9811,7 @@
         <v>37</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>166</v>
@@ -10263,7 +9843,7 @@
         <v>38</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>166</v>
@@ -10295,7 +9875,7 @@
         <v>39</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>166</v>
@@ -10331,7 +9911,7 @@
         <v>40</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>166</v>
@@ -10367,7 +9947,7 @@
         <v>41</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>166</v>
@@ -10403,7 +9983,7 @@
         <v>42</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>166</v>
@@ -10439,7 +10019,7 @@
         <v>43</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>166</v>
@@ -10475,7 +10055,7 @@
         <v>44</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>166</v>
@@ -10511,7 +10091,7 @@
         <v>45</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>166</v>
@@ -10547,7 +10127,7 @@
         <v>46</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>166</v>
@@ -10583,7 +10163,7 @@
         <v>47</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>166</v>
@@ -10619,7 +10199,7 @@
         <v>48</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>166</v>
@@ -10655,7 +10235,7 @@
         <v>49</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>166</v>
@@ -10691,7 +10271,7 @@
         <v>50</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>166</v>
@@ -10727,7 +10307,7 @@
         <v>51</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>166</v>
@@ -10763,7 +10343,7 @@
         <v>52</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>166</v>
@@ -10799,7 +10379,7 @@
         <v>53</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>166</v>
@@ -10835,7 +10415,7 @@
         <v>54</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>166</v>
@@ -10871,7 +10451,7 @@
         <v>55</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>166</v>
@@ -10907,7 +10487,7 @@
         <v>56</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>166</v>
@@ -10943,7 +10523,7 @@
         <v>57</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>166</v>
@@ -10979,7 +10559,7 @@
         <v>58</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>166</v>
@@ -11015,7 +10595,7 @@
         <v>59</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>166</v>
@@ -11051,7 +10631,7 @@
         <v>60</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>166</v>
@@ -11087,7 +10667,7 @@
         <v>61</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>166</v>
@@ -11123,7 +10703,7 @@
         <v>62</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>166</v>
@@ -11159,7 +10739,7 @@
         <v>63</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>166</v>
@@ -11193,7 +10773,7 @@
         <v>64</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>166</v>
@@ -11225,7 +10805,7 @@
         <v>65</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>166</v>
@@ -11257,7 +10837,7 @@
         <v>66</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>166</v>
@@ -11291,7 +10871,7 @@
         <v>67</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>166</v>
@@ -11325,7 +10905,7 @@
         <v>68</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>166</v>
@@ -11357,7 +10937,7 @@
         <v>69</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>166</v>
@@ -11389,7 +10969,7 @@
         <v>70</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>166</v>
@@ -11425,7 +11005,7 @@
         <v>71</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>166</v>
@@ -11459,7 +11039,7 @@
         <v>72</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>166</v>
@@ -11491,7 +11071,7 @@
         <v>73</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>166</v>
@@ -11523,7 +11103,7 @@
         <v>74</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>166</v>
@@ -11555,7 +11135,7 @@
         <v>75</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>166</v>
@@ -11587,7 +11167,7 @@
         <v>76</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>166</v>
@@ -11619,7 +11199,7 @@
         <v>77</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>166</v>
@@ -11651,7 +11231,7 @@
         <v>78</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>166</v>
@@ -11680,12 +11260,12 @@
       <c r="M281" s="11"/>
       <c r="N281" s="11"/>
     </row>
-    <row r="282" customFormat="1" spans="1:14">
+    <row r="282" spans="1:14">
       <c r="A282" s="5">
         <v>1</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>219</v>
@@ -11715,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>219</v>
@@ -11747,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>219</v>
@@ -11779,7 +11359,7 @@
         <v>4</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>219</v>
@@ -11811,7 +11391,7 @@
         <v>5</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>219</v>
@@ -11840,12 +11420,12 @@
       <c r="M286" s="11"/>
       <c r="N286" s="11"/>
     </row>
-    <row r="287" customFormat="1" spans="1:14">
+    <row r="287" spans="1:14">
       <c r="A287" s="5">
         <v>6</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>219</v>
@@ -11877,7 +11457,7 @@
         <v>7</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>219</v>
@@ -11908,12 +11488,12 @@
       <c r="M288" s="11"/>
       <c r="N288" s="11"/>
     </row>
-    <row r="289" customFormat="1" spans="1:14">
+    <row r="289" spans="1:14">
       <c r="A289" s="5">
         <v>8</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>219</v>
@@ -11945,7 +11525,7 @@
         <v>9</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>219</v>
@@ -11976,12 +11556,12 @@
       <c r="M290" s="11"/>
       <c r="N290" s="11"/>
     </row>
-    <row r="291" customFormat="1" spans="1:14">
+    <row r="291" spans="1:14">
       <c r="A291" s="5">
         <v>10</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>219</v>
@@ -12013,7 +11593,7 @@
         <v>11</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>219</v>
@@ -12044,12 +11624,12 @@
       <c r="M292" s="11"/>
       <c r="N292" s="11"/>
     </row>
-    <row r="293" customFormat="1" spans="1:14">
+    <row r="293" spans="1:14">
       <c r="A293" s="5">
         <v>12</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>219</v>
@@ -12081,7 +11661,7 @@
         <v>13</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>219</v>
@@ -12112,12 +11692,12 @@
       <c r="M294" s="11"/>
       <c r="N294" s="11"/>
     </row>
-    <row r="295" customFormat="1" spans="1:14">
+    <row r="295" spans="1:14">
       <c r="A295" s="5">
         <v>14</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>219</v>
@@ -12149,7 +11729,7 @@
         <v>15</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>219</v>
@@ -12180,12 +11760,12 @@
       <c r="M296" s="11"/>
       <c r="N296" s="11"/>
     </row>
-    <row r="297" customFormat="1" spans="1:14">
+    <row r="297" spans="1:14">
       <c r="A297" s="5">
         <v>16</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>219</v>
@@ -12217,7 +11797,7 @@
         <v>17</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>219</v>
@@ -12248,12 +11828,12 @@
       <c r="M298" s="11"/>
       <c r="N298" s="11"/>
     </row>
-    <row r="299" customFormat="1" spans="1:14">
+    <row r="299" spans="1:14">
       <c r="A299" s="5">
         <v>18</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>219</v>
@@ -12285,7 +11865,7 @@
         <v>19</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>219</v>
@@ -12316,12 +11896,12 @@
       <c r="M300" s="11"/>
       <c r="N300" s="11"/>
     </row>
-    <row r="301" customFormat="1" spans="1:14">
+    <row r="301" spans="1:14">
       <c r="A301" s="5">
         <v>20</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>219</v>
@@ -12353,7 +11933,7 @@
         <v>21</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>219</v>
@@ -12384,12 +11964,12 @@
       <c r="M302" s="11"/>
       <c r="N302" s="11"/>
     </row>
-    <row r="303" customFormat="1" spans="1:14">
+    <row r="303" spans="1:14">
       <c r="A303" s="5">
         <v>22</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>219</v>
@@ -12421,7 +12001,7 @@
         <v>23</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>219</v>
@@ -12452,12 +12032,12 @@
       <c r="M304" s="11"/>
       <c r="N304" s="11"/>
     </row>
-    <row r="305" customFormat="1" spans="1:14">
+    <row r="305" spans="1:14">
       <c r="A305" s="5">
         <v>24</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>219</v>
@@ -12489,7 +12069,7 @@
         <v>25</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>219</v>
@@ -12520,12 +12100,12 @@
       <c r="M306" s="11"/>
       <c r="N306" s="11"/>
     </row>
-    <row r="307" customFormat="1" spans="1:14">
+    <row r="307" spans="1:14">
       <c r="A307" s="5">
         <v>26</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>219</v>
@@ -12557,7 +12137,7 @@
         <v>27</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>219</v>
@@ -12588,12 +12168,12 @@
       <c r="M308" s="11"/>
       <c r="N308" s="11"/>
     </row>
-    <row r="309" customFormat="1" spans="1:14">
+    <row r="309" spans="1:14">
       <c r="A309" s="5">
         <v>28</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>219</v>
@@ -12625,7 +12205,7 @@
         <v>29</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>219</v>
@@ -12656,12 +12236,12 @@
       <c r="M310" s="11"/>
       <c r="N310" s="11"/>
     </row>
-    <row r="311" customFormat="1" spans="1:14">
+    <row r="311" spans="1:14">
       <c r="A311" s="5">
         <v>1</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>219</v>
@@ -12691,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>219</v>
@@ -12723,7 +12303,7 @@
         <v>3</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>219</v>
@@ -12755,7 +12335,7 @@
         <v>4</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>219</v>
@@ -12787,7 +12367,7 @@
         <v>5</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>219</v>
@@ -12816,12 +12396,12 @@
       <c r="M315" s="11"/>
       <c r="N315" s="11"/>
     </row>
-    <row r="316" customFormat="1" spans="1:14">
+    <row r="316" spans="1:14">
       <c r="A316" s="5">
         <v>6</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>219</v>
@@ -12848,12 +12428,12 @@
       <c r="M316" s="11"/>
       <c r="N316" s="11"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1" spans="1:14">
+    <row r="317" spans="1:14" ht="15.75" customHeight="1">
       <c r="A317" s="5">
         <v>7</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>219</v>
@@ -12884,12 +12464,12 @@
       <c r="M317" s="11"/>
       <c r="N317" s="11"/>
     </row>
-    <row r="318" customFormat="1" spans="1:14">
+    <row r="318" spans="1:14">
       <c r="A318" s="5">
         <v>8</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>219</v>
@@ -12921,7 +12501,7 @@
         <v>9</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>219</v>
@@ -12952,12 +12532,12 @@
       <c r="M319" s="11"/>
       <c r="N319" s="11"/>
     </row>
-    <row r="320" customFormat="1" spans="1:14">
+    <row r="320" spans="1:14">
       <c r="A320" s="5">
         <v>10</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>219</v>
@@ -12989,7 +12569,7 @@
         <v>11</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>219</v>
@@ -13020,12 +12600,12 @@
       <c r="M321" s="11"/>
       <c r="N321" s="11"/>
     </row>
-    <row r="322" customFormat="1" spans="1:14">
+    <row r="322" spans="1:14">
       <c r="A322" s="5">
         <v>12</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>219</v>
@@ -13057,7 +12637,7 @@
         <v>13</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>219</v>
@@ -13088,12 +12668,12 @@
       <c r="M323" s="11"/>
       <c r="N323" s="11"/>
     </row>
-    <row r="324" customFormat="1" spans="1:14">
+    <row r="324" spans="1:14">
       <c r="A324" s="5">
         <v>14</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>219</v>
@@ -13125,7 +12705,7 @@
         <v>15</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>219</v>
@@ -13156,12 +12736,12 @@
       <c r="M325" s="11"/>
       <c r="N325" s="11"/>
     </row>
-    <row r="326" customFormat="1" spans="1:14">
+    <row r="326" spans="1:14">
       <c r="A326" s="5">
         <v>16</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>219</v>
@@ -13193,7 +12773,7 @@
         <v>17</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>219</v>
@@ -13224,12 +12804,12 @@
       <c r="M327" s="11"/>
       <c r="N327" s="11"/>
     </row>
-    <row r="328" customFormat="1" spans="1:14">
+    <row r="328" spans="1:14">
       <c r="A328" s="5">
         <v>18</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>219</v>
@@ -13261,7 +12841,7 @@
         <v>19</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>219</v>
@@ -13292,12 +12872,12 @@
       <c r="M329" s="11"/>
       <c r="N329" s="11"/>
     </row>
-    <row r="330" customFormat="1" spans="1:14">
+    <row r="330" spans="1:14">
       <c r="A330" s="5">
         <v>20</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>219</v>
@@ -13329,7 +12909,7 @@
         <v>21</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>219</v>
@@ -13360,12 +12940,12 @@
       <c r="M331" s="11"/>
       <c r="N331" s="11"/>
     </row>
-    <row r="332" customFormat="1" spans="1:14">
+    <row r="332" spans="1:14">
       <c r="A332" s="5">
         <v>22</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>219</v>
@@ -13397,7 +12977,7 @@
         <v>23</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>219</v>
@@ -13428,12 +13008,12 @@
       <c r="M333" s="11"/>
       <c r="N333" s="11"/>
     </row>
-    <row r="334" customFormat="1" spans="1:14">
+    <row r="334" spans="1:14">
       <c r="A334" s="5">
         <v>24</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>219</v>
@@ -13465,7 +13045,7 @@
         <v>25</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>219</v>
@@ -13496,12 +13076,12 @@
       <c r="M335" s="11"/>
       <c r="N335" s="11"/>
     </row>
-    <row r="336" customFormat="1" spans="1:14">
+    <row r="336" spans="1:14">
       <c r="A336" s="5">
         <v>26</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>219</v>
@@ -13533,7 +13113,7 @@
         <v>27</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>219</v>
@@ -13564,12 +13144,12 @@
       <c r="M337" s="11"/>
       <c r="N337" s="11"/>
     </row>
-    <row r="338" customFormat="1" spans="1:14">
+    <row r="338" spans="1:14">
       <c r="A338" s="5">
         <v>28</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>219</v>
@@ -13601,7 +13181,7 @@
         <v>29</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>219</v>
@@ -13632,12 +13212,12 @@
       <c r="M339" s="11"/>
       <c r="N339" s="11"/>
     </row>
-    <row r="340" customFormat="1" spans="1:14">
+    <row r="340" spans="1:14">
       <c r="A340" s="5">
         <v>30</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>219</v>
@@ -13669,7 +13249,7 @@
         <v>31</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>219</v>
@@ -13700,12 +13280,12 @@
       <c r="M341" s="11"/>
       <c r="N341" s="11"/>
     </row>
-    <row r="342" customFormat="1" spans="1:14">
+    <row r="342" spans="1:14">
       <c r="A342" s="5">
         <v>32</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>219</v>
@@ -13737,7 +13317,7 @@
         <v>33</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>219</v>
@@ -13768,12 +13348,12 @@
       <c r="M343" s="11"/>
       <c r="N343" s="11"/>
     </row>
-    <row r="344" customFormat="1" spans="1:14">
+    <row r="344" spans="1:14">
       <c r="A344" s="5">
         <v>34</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>219</v>
@@ -13805,7 +13385,7 @@
         <v>35</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>219</v>
@@ -13836,12 +13416,12 @@
       <c r="M345" s="11"/>
       <c r="N345" s="11"/>
     </row>
-    <row r="346" customFormat="1" spans="1:14">
+    <row r="346" spans="1:14">
       <c r="A346" s="5">
         <v>36</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>219</v>
@@ -13873,7 +13453,7 @@
         <v>37</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>219</v>
@@ -13904,12 +13484,12 @@
       <c r="M347" s="11"/>
       <c r="N347" s="11"/>
     </row>
-    <row r="348" customFormat="1" spans="1:14">
+    <row r="348" spans="1:14">
       <c r="A348" s="5">
         <v>1</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>246</v>
@@ -13939,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>246</v>
@@ -13971,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>246</v>
@@ -14003,7 +13583,7 @@
         <v>4</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>246</v>
@@ -14035,7 +13615,7 @@
         <v>5</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>246</v>
@@ -14069,7 +13649,7 @@
         <v>6</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>246</v>
@@ -14105,7 +13685,7 @@
         <v>7</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>246</v>
@@ -14141,7 +13721,7 @@
         <v>8</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>246</v>
@@ -14177,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>246</v>
@@ -14213,7 +13793,7 @@
         <v>10</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>246</v>
@@ -14245,7 +13825,7 @@
         <v>11</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>246</v>
@@ -14277,7 +13857,7 @@
         <v>12</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>246</v>
@@ -14311,7 +13891,7 @@
         <v>13</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>246</v>
@@ -14347,7 +13927,7 @@
         <v>14</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>246</v>
@@ -14383,7 +13963,7 @@
         <v>15</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>246</v>
@@ -14419,7 +13999,7 @@
         <v>16</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>246</v>
@@ -14455,7 +14035,7 @@
         <v>17</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>246</v>
@@ -14487,7 +14067,7 @@
         <v>18</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>246</v>
@@ -14519,7 +14099,7 @@
         <v>19</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>246</v>
@@ -14553,7 +14133,7 @@
         <v>20</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>246</v>
@@ -14589,7 +14169,7 @@
         <v>21</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>246</v>
@@ -14625,7 +14205,7 @@
         <v>22</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>246</v>
@@ -14661,7 +14241,7 @@
         <v>23</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>246</v>
@@ -14692,12 +14272,12 @@
       <c r="M370" s="11"/>
       <c r="N370" s="11"/>
     </row>
-    <row r="371" customFormat="1" spans="1:14">
+    <row r="371" spans="1:14">
       <c r="A371" s="5">
         <v>1</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C371" s="9" t="s">
         <v>267</v>
@@ -14727,7 +14307,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C372" s="9" t="s">
         <v>267</v>
@@ -14759,7 +14339,7 @@
         <v>3</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C373" s="9" t="s">
         <v>267</v>
@@ -14791,7 +14371,7 @@
         <v>4</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C374" s="9" t="s">
         <v>267</v>
@@ -14825,7 +14405,7 @@
         <v>5</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C375" s="9" t="s">
         <v>267</v>
@@ -14859,7 +14439,7 @@
         <v>6</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C376" s="9" t="s">
         <v>267</v>
@@ -14889,7 +14469,7 @@
         <v>7</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>267</v>
@@ -14921,7 +14501,7 @@
         <v>8</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C378" s="9" t="s">
         <v>267</v>
@@ -14953,7 +14533,7 @@
         <v>9</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C379" s="9" t="s">
         <v>267</v>
@@ -14987,7 +14567,7 @@
         <v>10</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C380" s="9" t="s">
         <v>267</v>
@@ -15017,7 +14597,7 @@
         <v>11</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C381" s="9" t="s">
         <v>267</v>
@@ -15049,7 +14629,7 @@
         <v>12</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C382" s="9" t="s">
         <v>267</v>
@@ -15081,7 +14661,7 @@
         <v>13</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C383" s="9" t="s">
         <v>267</v>
@@ -15115,7 +14695,7 @@
         <v>14</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C384" s="9" t="s">
         <v>267</v>
@@ -15145,7 +14725,7 @@
         <v>15</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C385" s="9" t="s">
         <v>267</v>
@@ -15177,7 +14757,7 @@
         <v>16</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C386" s="9" t="s">
         <v>267</v>
@@ -15209,7 +14789,7 @@
         <v>17</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C387" s="9" t="s">
         <v>267</v>
@@ -15243,7 +14823,7 @@
         <v>18</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C388" s="9" t="s">
         <v>267</v>
@@ -15273,7 +14853,7 @@
         <v>19</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C389" s="9" t="s">
         <v>267</v>
@@ -15305,7 +14885,7 @@
         <v>20</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C390" s="9" t="s">
         <v>267</v>
@@ -15337,7 +14917,7 @@
         <v>21</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C391" s="9" t="s">
         <v>267</v>
@@ -15371,7 +14951,7 @@
         <v>22</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C392" s="9" t="s">
         <v>267</v>
@@ -15401,7 +14981,7 @@
         <v>23</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C393" s="9" t="s">
         <v>267</v>
@@ -15430,12 +15010,12 @@
       <c r="M393" s="11"/>
       <c r="N393" s="11"/>
     </row>
-    <row r="394" customFormat="1" spans="1:14">
+    <row r="394" spans="1:14">
       <c r="A394" s="5">
         <v>1</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C394" t="s">
         <v>282</v>
@@ -15460,12 +15040,12 @@
       <c r="M394" s="7"/>
       <c r="N394" s="7"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:14">
       <c r="A395" s="5">
         <v>2</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C395" t="s">
         <v>282</v>
@@ -15486,12 +15066,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:14">
       <c r="A396" s="5">
         <v>3</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C396" t="s">
         <v>282</v>
@@ -15512,12 +15092,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="397" ht="16.5" spans="1:10">
+    <row r="397" spans="1:14" ht="16.5">
       <c r="A397" s="5">
         <v>4</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C397" t="s">
         <v>282</v>
@@ -15540,12 +15120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:14">
       <c r="A398" s="5">
         <v>5</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C398" t="s">
         <v>282</v>
@@ -15570,12 +15150,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:14">
       <c r="A399" s="5">
         <v>6</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C399" t="s">
         <v>282</v>
@@ -15593,12 +15173,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:14">
       <c r="A400" s="5">
         <v>7</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C400" t="s">
         <v>282</v>
@@ -15619,12 +15199,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:10">
       <c r="A401" s="5">
         <v>8</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C401" t="s">
         <v>282</v>
@@ -15650,7 +15230,7 @@
         <v>9</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C402" t="s">
         <v>282</v>
@@ -15680,7 +15260,7 @@
         <v>10</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C403" t="s">
         <v>282</v>
@@ -15704,12 +15284,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:10">
       <c r="A404" s="5">
         <v>11</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C404" t="s">
         <v>282</v>
@@ -15730,12 +15310,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:10">
       <c r="A405" s="5">
         <v>12</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C405" t="s">
         <v>282</v>
@@ -15756,12 +15336,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="406" ht="16.5" spans="1:10">
+    <row r="406" spans="1:10" ht="16.5">
       <c r="A406" s="5">
         <v>13</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C406" t="s">
         <v>282</v>
@@ -15789,7 +15369,7 @@
         <v>14</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C407" t="s">
         <v>282</v>
@@ -15814,12 +15394,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:10">
       <c r="A408" s="5">
         <v>15</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C408" t="s">
         <v>282</v>
@@ -15837,12 +15417,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:10">
       <c r="A409" s="5">
         <v>16</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C409" t="s">
         <v>282</v>
@@ -15863,12 +15443,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:10">
       <c r="A410" s="5">
         <v>17</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C410" t="s">
         <v>282</v>
@@ -15889,12 +15469,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="411" ht="16.5" spans="1:10">
+    <row r="411" spans="1:10" ht="16.5">
       <c r="A411" s="5">
         <v>18</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C411" t="s">
         <v>282</v>
@@ -15922,7 +15502,7 @@
         <v>19</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C412" t="s">
         <v>282</v>
@@ -15947,12 +15527,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:10">
       <c r="A413" s="5">
         <v>20</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C413" t="s">
         <v>282</v>
@@ -15970,12 +15550,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:10">
       <c r="A414" s="5">
         <v>21</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C414" t="s">
         <v>282</v>
@@ -15996,12 +15576,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:10">
       <c r="A415" s="5">
         <v>22</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C415" t="s">
         <v>282</v>
@@ -16022,12 +15602,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="416" ht="16.5" spans="1:10">
+    <row r="416" spans="1:10" ht="16.5">
       <c r="A416" s="5">
         <v>23</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C416" t="s">
         <v>282</v>
@@ -16055,7 +15635,7 @@
         <v>24</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C417" t="s">
         <v>282</v>
@@ -16080,12 +15660,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:10">
       <c r="A418" s="5">
         <v>25</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C418" t="s">
         <v>282</v>
@@ -16103,12 +15683,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:10">
       <c r="A419" s="5">
         <v>26</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C419" t="s">
         <v>282</v>
@@ -16129,12 +15709,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:10">
       <c r="A420" s="5">
         <v>27</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C420" t="s">
         <v>282</v>
@@ -16155,12 +15735,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="421" ht="16.5" spans="1:10">
+    <row r="421" spans="1:10" ht="16.5">
       <c r="A421" s="5">
         <v>28</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C421" t="s">
         <v>282</v>
@@ -16188,7 +15768,7 @@
         <v>29</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C422" t="s">
         <v>282</v>
@@ -16213,12 +15793,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:10">
       <c r="A423" s="5">
         <v>30</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C423" t="s">
         <v>282</v>
@@ -16236,12 +15816,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:10">
       <c r="A424" s="5">
         <v>31</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C424" t="s">
         <v>282</v>
@@ -16262,12 +15842,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:10">
       <c r="A425" s="5">
         <v>32</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C425" t="s">
         <v>282</v>
@@ -16288,12 +15868,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="426" ht="16.5" spans="1:10">
+    <row r="426" spans="1:10" ht="16.5">
       <c r="A426" s="5">
         <v>33</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C426" t="s">
         <v>282</v>
@@ -16321,7 +15901,7 @@
         <v>34</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C427" t="s">
         <v>282</v>
@@ -16346,12 +15926,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:10">
       <c r="A428" s="5">
         <v>35</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C428" t="s">
         <v>282</v>
@@ -16369,12 +15949,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:10">
       <c r="A429" s="5">
         <v>36</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C429" t="s">
         <v>282</v>
@@ -16395,12 +15975,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:10">
       <c r="A430" s="5">
         <v>37</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C430" t="s">
         <v>282</v>
@@ -16421,12 +16001,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="431" ht="16.5" spans="1:10">
+    <row r="431" spans="1:10" ht="16.5">
       <c r="A431" s="5">
         <v>38</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C431" t="s">
         <v>282</v>
@@ -16454,7 +16034,7 @@
         <v>39</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C432" t="s">
         <v>282</v>
@@ -16479,12 +16059,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:14">
       <c r="A433" s="5">
         <v>40</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C433" t="s">
         <v>282</v>
@@ -16502,12 +16082,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:14">
       <c r="A434" s="5">
         <v>41</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C434" t="s">
         <v>282</v>
@@ -16528,12 +16108,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:14">
       <c r="A435" s="5">
         <v>42</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C435" t="s">
         <v>282</v>
@@ -16554,12 +16134,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="436" ht="16.5" spans="1:10">
+    <row r="436" spans="1:14" ht="16.5">
       <c r="A436" s="5">
         <v>43</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C436" t="s">
         <v>282</v>
@@ -16582,12 +16162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:14">
       <c r="A437" s="5">
         <v>44</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C437" t="s">
         <v>282</v>
@@ -16612,12 +16192,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:14">
       <c r="A438" s="5">
         <v>45</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C438" t="s">
         <v>282</v>
@@ -16635,12 +16215,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:14">
       <c r="A439" s="5">
         <v>46</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C439" t="s">
         <v>282</v>
@@ -16661,12 +16241,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="440" ht="16.5" spans="1:10">
+    <row r="440" spans="1:14" ht="16.5">
       <c r="A440" s="5">
         <v>47</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C440" t="s">
         <v>282</v>
@@ -16689,12 +16269,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:14">
       <c r="A441" s="5">
         <v>48</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C441" t="s">
         <v>282</v>
@@ -16719,12 +16299,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="442" customFormat="1" spans="1:14">
+    <row r="442" spans="1:14">
       <c r="A442" s="5">
         <v>1</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C442" t="s">
         <v>301</v>
@@ -16749,12 +16329,12 @@
       <c r="M442" s="7"/>
       <c r="N442" s="7"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:14">
       <c r="A443" s="5">
         <v>2</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C443" t="s">
         <v>301</v>
@@ -16780,30 +16360,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J122" r:id="rId1" display="http://weapp.everis.com/CVEM.Web/EditCV.aspx"/>
-    <hyperlink ref="J315" r:id="rId2" display="https://knowler.everis.com/internalNews/company/nttd"/>
+    <hyperlink ref="J122" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J315" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16836,10 +16414,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://knowler.everis.com/home"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\testing_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE8B67B-A88F-42D3-919D-13938ADFF279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B131A29D-7618-499B-A5EB-8A4D0B65616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
   <si>
     <t>order</t>
   </si>
@@ -951,6 +952,15 @@
   </si>
   <si>
     <t>ChromeDriver</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>alex.hilas05@gmail.com</t>
+  </si>
+  <si>
+    <t>varela.alexandre01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -961,7 +971,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1054,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1282,7 +1300,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1326,6 +1344,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -1690,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15940,4 +15962,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFEC9AD-8CED-42C2-A17C-22E666A51A4E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B3EEE8D1-4C15-4056-8F0D-573B754815EF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{082B86FD-62F5-4D41-8716-3B6621435A44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -60,79 +60,79 @@
     <t>valueRead</t>
   </si>
   <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>KNW.SUN.Home.Hit.1</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Hyperlink validation</t>
+  </si>
+  <si>
+    <t>LoginKnowler</t>
+  </si>
+  <si>
+    <t>KNW.SUN.Home.Hit.2</t>
+  </si>
+  <si>
+    <t>WaitForElement</t>
+  </si>
+  <si>
+    <t>//*[@id="0"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-hits/div/evc-carousel/div/div[1]/div</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ChangeTab</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.syntphony.com/</t>
+  </si>
+  <si>
+    <t>Widget layout</t>
+  </si>
+  <si>
+    <t>KNW.SUN.Home.Int.1</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[1]/div[1]/img</t>
+  </si>
+  <si>
+    <t>visivel</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[1]/div[2]/div</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[2]/div[1]/img</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[2]/div[2]/div</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[3]/div[1]/img</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[3]/div[2]/div</t>
+  </si>
+  <si>
+    <t>//*[text()='View All']</t>
+  </si>
+  <si>
+    <t>existe</t>
+  </si>
+  <si>
     <t>Nao</t>
-  </si>
-  <si>
-    <t>KNW.SUN.Home.Hit.1</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Hyperlink validation</t>
-  </si>
-  <si>
-    <t>LoginKnowler</t>
-  </si>
-  <si>
-    <t>KNW.SUN.Home.Hit.2</t>
-  </si>
-  <si>
-    <t>WaitForElement</t>
-  </si>
-  <si>
-    <t>//*[@id="0"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-hits/div/evc-carousel/div/div[1]/div</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ChangeTab</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://www.syntphony.com/</t>
-  </si>
-  <si>
-    <t>Widget layout</t>
-  </si>
-  <si>
-    <t>KNW.SUN.Home.Int.1</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[1]/div[1]/img</t>
-  </si>
-  <si>
-    <t>visivel</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[2]/div[1]/img</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[2]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[3]/div[1]/img</t>
-  </si>
-  <si>
-    <t>//*[@id="1"]/evc-card/div/div[2]/evc-view-more/div/div/div/skmo-home-internal-news/div/div/a[3]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[text()='View All']</t>
-  </si>
-  <si>
-    <t>existe</t>
   </si>
   <si>
     <t>KNW.SUN.Sear.Kn.3</t>
@@ -962,14 +962,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,18 +994,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1017,7 +1066,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,6 +1074,59 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,133 +1148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,19 +1163,153 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1225,25 +1337,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,229 +1421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
+        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFABA86"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,11 +1456,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,81 +1553,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1624,190 +1574,190 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1815,38 +1765,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1858,17 +1808,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1883,7 +1833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1895,21 +1845,21 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Incorrecto 2" xfId="9"/>
-    <cellStyle name="Note" xfId="10" builtinId="10"/>
-    <cellStyle name="Normal 7 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
+    <cellStyle name="Note" xfId="7" builtinId="10"/>
+    <cellStyle name="Incorrecto 2" xfId="8"/>
+    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="Normal 7 2" xfId="12"/>
     <cellStyle name="60% - Accent4" xfId="13" builtinId="44"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9"/>
     <cellStyle name="20% - Accent1 2 2" xfId="15"/>
     <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11"/>
-    <cellStyle name="Normal 4_Sheet1" xfId="18"/>
-    <cellStyle name="40% - Accent2" xfId="19" builtinId="35"/>
-    <cellStyle name="Normal 6 3" xfId="20"/>
-    <cellStyle name="Title" xfId="21" builtinId="15"/>
+    <cellStyle name="Title" xfId="18" builtinId="15"/>
+    <cellStyle name="Normal 6 3" xfId="19"/>
+    <cellStyle name="40% - Accent2" xfId="20" builtinId="35"/>
+    <cellStyle name="Normal 4_Sheet1" xfId="21"/>
     <cellStyle name="CExplanatory Text" xfId="22" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="24" builtinId="18"/>
@@ -1927,17 +1877,17 @@
     <cellStyle name="Linked Cell" xfId="36" builtinId="24"/>
     <cellStyle name="Total" xfId="37" builtinId="25"/>
     <cellStyle name="Bad" xfId="38" builtinId="27"/>
-    <cellStyle name="20% - Accent6 3" xfId="39"/>
-    <cellStyle name="Neutral" xfId="40" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="39" builtinId="28"/>
+    <cellStyle name="20% - Accent6 3" xfId="40"/>
     <cellStyle name="20% - Accent2 3" xfId="41"/>
     <cellStyle name="Accent1" xfId="42" builtinId="29"/>
     <cellStyle name="20% - Accent5" xfId="43" builtinId="46"/>
     <cellStyle name="60% - Accent1" xfId="44" builtinId="32"/>
     <cellStyle name="Accent2" xfId="45" builtinId="33"/>
     <cellStyle name="20% - Accent2" xfId="46" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="47" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="47" builtinId="36"/>
     <cellStyle name="Title 2" xfId="48"/>
-    <cellStyle name="60% - Accent2" xfId="49" builtinId="36"/>
+    <cellStyle name="20% - Accent6" xfId="49" builtinId="50"/>
     <cellStyle name="Accent3" xfId="50" builtinId="37"/>
     <cellStyle name="20% - Accent3" xfId="51" builtinId="38"/>
     <cellStyle name="20% - Accent4 2 2" xfId="52"/>
@@ -1960,12 +1910,12 @@
     <cellStyle name="20% - Accent5 3" xfId="69"/>
     <cellStyle name="20% - Accent6 2" xfId="70"/>
     <cellStyle name="20% - Accent6 2 2" xfId="71"/>
-    <cellStyle name="Millares 2" xfId="72"/>
-    <cellStyle name="40% - Accent1 2" xfId="73"/>
-    <cellStyle name="Millares 2 2" xfId="74"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="75"/>
-    <cellStyle name="Millares 3" xfId="76"/>
-    <cellStyle name="40% - Accent1 3" xfId="77"/>
+    <cellStyle name="40% - Accent1 2" xfId="72"/>
+    <cellStyle name="Millares 2" xfId="73"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="74"/>
+    <cellStyle name="Millares 2 2" xfId="75"/>
+    <cellStyle name="40% - Accent1 3" xfId="76"/>
+    <cellStyle name="Millares 3" xfId="77"/>
     <cellStyle name="40% - Accent2 2" xfId="78"/>
     <cellStyle name="40% - Accent2 2 2" xfId="79"/>
     <cellStyle name="40% - Accent2 3" xfId="80"/>
@@ -1982,8 +1932,8 @@
     <cellStyle name="40% - Accent6 2 2" xfId="91"/>
     <cellStyle name="40% - Accent6 3" xfId="92"/>
     <cellStyle name="Buena 2" xfId="93"/>
-    <cellStyle name="Normal 7 2 2" xfId="94"/>
-    <cellStyle name="Hyperlink 2" xfId="95"/>
+    <cellStyle name="Hyperlink 2" xfId="94"/>
+    <cellStyle name="Normal 7 2 2" xfId="95"/>
     <cellStyle name="Millares 2 2 2" xfId="96"/>
     <cellStyle name="Millares 2 3" xfId="97"/>
     <cellStyle name="Millares 3 2" xfId="98"/>
@@ -2292,8 +2242,8 @@
   <sheetPr/>
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B427"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B428" sqref="B2:B428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2608,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2638,13 +2588,13 @@
         <v>24</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2674,13 +2624,13 @@
         <v>24</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -2710,13 +2660,13 @@
         <v>24</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -2746,13 +2696,13 @@
         <v>24</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -2782,13 +2732,13 @@
         <v>24</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -2818,13 +2768,13 @@
         <v>24</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -3916,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -4112,7 +4062,7 @@
         <v>30</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -4312,7 +4262,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -4446,7 +4396,7 @@
         <v>30</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -4518,7 +4468,7 @@
         <v>30</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -4590,7 +4540,7 @@
         <v>30</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
@@ -4662,7 +4612,7 @@
         <v>30</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -4734,7 +4684,7 @@
         <v>30</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
@@ -4806,7 +4756,7 @@
         <v>30</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
@@ -7078,7 +7028,7 @@
         <v>30</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
@@ -7150,7 +7100,7 @@
         <v>30</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
@@ -7186,7 +7136,7 @@
         <v>30</v>
       </c>
       <c r="J148" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
@@ -7258,7 +7208,7 @@
         <v>30</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
@@ -7294,7 +7244,7 @@
         <v>30</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
@@ -7330,7 +7280,7 @@
         <v>30</v>
       </c>
       <c r="J152" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
@@ -7366,7 +7316,7 @@
         <v>30</v>
       </c>
       <c r="J153" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
@@ -7402,7 +7352,7 @@
         <v>30</v>
       </c>
       <c r="J154" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
@@ -7474,7 +7424,7 @@
         <v>30</v>
       </c>
       <c r="J156" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
@@ -7510,7 +7460,7 @@
         <v>30</v>
       </c>
       <c r="J157" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
@@ -7582,7 +7532,7 @@
         <v>30</v>
       </c>
       <c r="J159" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
@@ -7618,7 +7568,7 @@
         <v>30</v>
       </c>
       <c r="J160" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
@@ -7690,7 +7640,7 @@
         <v>30</v>
       </c>
       <c r="J162" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
@@ -7726,7 +7676,7 @@
         <v>30</v>
       </c>
       <c r="J163" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
@@ -7798,7 +7748,7 @@
         <v>30</v>
       </c>
       <c r="J165" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
@@ -7834,7 +7784,7 @@
         <v>30</v>
       </c>
       <c r="J166" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
@@ -7906,7 +7856,7 @@
         <v>30</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
@@ -7942,7 +7892,7 @@
         <v>30</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
@@ -8014,7 +7964,7 @@
         <v>30</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
@@ -8050,7 +8000,7 @@
         <v>30</v>
       </c>
       <c r="J172" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
@@ -8122,7 +8072,7 @@
         <v>30</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
@@ -8158,7 +8108,7 @@
         <v>30</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
@@ -8230,7 +8180,7 @@
         <v>30</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K177" s="13"/>
       <c r="L177" s="13"/>
@@ -8266,7 +8216,7 @@
         <v>30</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
@@ -8338,7 +8288,7 @@
         <v>30</v>
       </c>
       <c r="J180" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
@@ -8374,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
@@ -8446,7 +8396,7 @@
         <v>30</v>
       </c>
       <c r="J183" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
@@ -8482,7 +8432,7 @@
         <v>30</v>
       </c>
       <c r="J184" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
@@ -8554,7 +8504,7 @@
         <v>30</v>
       </c>
       <c r="J186" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
@@ -8590,7 +8540,7 @@
         <v>30</v>
       </c>
       <c r="J187" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
@@ -8662,7 +8612,7 @@
         <v>30</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
@@ -8858,7 +8808,7 @@
         <v>30</v>
       </c>
       <c r="J195" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K195" s="13"/>
       <c r="L195" s="13"/>
@@ -8894,7 +8844,7 @@
         <v>30</v>
       </c>
       <c r="J196" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
@@ -8930,7 +8880,7 @@
         <v>30</v>
       </c>
       <c r="J197" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
@@ -8966,7 +8916,7 @@
         <v>30</v>
       </c>
       <c r="J198" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
@@ -9002,7 +8952,7 @@
         <v>30</v>
       </c>
       <c r="J199" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K199" s="13"/>
       <c r="L199" s="13"/>
@@ -9038,7 +8988,7 @@
         <v>30</v>
       </c>
       <c r="J200" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
@@ -9074,7 +9024,7 @@
         <v>30</v>
       </c>
       <c r="J201" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K201" s="13"/>
       <c r="L201" s="13"/>
@@ -9110,7 +9060,7 @@
         <v>30</v>
       </c>
       <c r="J202" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
@@ -9146,7 +9096,7 @@
         <v>30</v>
       </c>
       <c r="J203" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K203" s="13"/>
       <c r="L203" s="13"/>
@@ -9182,7 +9132,7 @@
         <v>30</v>
       </c>
       <c r="J204" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
@@ -9218,7 +9168,7 @@
         <v>30</v>
       </c>
       <c r="J205" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K205" s="13"/>
       <c r="L205" s="13"/>
@@ -9254,7 +9204,7 @@
         <v>30</v>
       </c>
       <c r="J206" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
@@ -9290,7 +9240,7 @@
         <v>30</v>
       </c>
       <c r="J207" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K207" s="13"/>
       <c r="L207" s="13"/>
@@ -9326,7 +9276,7 @@
         <v>30</v>
       </c>
       <c r="J208" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
@@ -9362,7 +9312,7 @@
         <v>30</v>
       </c>
       <c r="J209" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K209" s="13"/>
       <c r="L209" s="13"/>
@@ -9398,7 +9348,7 @@
         <v>30</v>
       </c>
       <c r="J210" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
@@ -9434,7 +9384,7 @@
         <v>30</v>
       </c>
       <c r="J211" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K211" s="13"/>
       <c r="L211" s="13"/>
@@ -9470,7 +9420,7 @@
         <v>30</v>
       </c>
       <c r="J212" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
@@ -9506,7 +9456,7 @@
         <v>30</v>
       </c>
       <c r="J213" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K213" s="13"/>
       <c r="L213" s="13"/>
@@ -9542,7 +9492,7 @@
         <v>30</v>
       </c>
       <c r="J214" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
@@ -9578,7 +9528,7 @@
         <v>30</v>
       </c>
       <c r="J215" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K215" s="13"/>
       <c r="L215" s="13"/>
@@ -9614,7 +9564,7 @@
         <v>30</v>
       </c>
       <c r="J216" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
@@ -9650,7 +9600,7 @@
         <v>30</v>
       </c>
       <c r="J217" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K217" s="13"/>
       <c r="L217" s="13"/>
@@ -9686,7 +9636,7 @@
         <v>30</v>
       </c>
       <c r="J218" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
@@ -9787,10 +9737,10 @@
         <v>195</v>
       </c>
       <c r="I221" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J221" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="J221" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="K221" s="13"/>
       <c r="L221" s="13"/>
@@ -10022,7 +9972,7 @@
         <v>30</v>
       </c>
       <c r="J228" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
@@ -10058,7 +10008,7 @@
         <v>30</v>
       </c>
       <c r="J229" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K229" s="13"/>
       <c r="L229" s="13"/>
@@ -10094,7 +10044,7 @@
         <v>30</v>
       </c>
       <c r="J230" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
@@ -10130,7 +10080,7 @@
         <v>30</v>
       </c>
       <c r="J231" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K231" s="13"/>
       <c r="L231" s="13"/>
@@ -10166,7 +10116,7 @@
         <v>30</v>
       </c>
       <c r="J232" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
@@ -10202,7 +10152,7 @@
         <v>30</v>
       </c>
       <c r="J233" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K233" s="13"/>
       <c r="L233" s="13"/>
@@ -10238,7 +10188,7 @@
         <v>30</v>
       </c>
       <c r="J234" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
@@ -10274,7 +10224,7 @@
         <v>30</v>
       </c>
       <c r="J235" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K235" s="13"/>
       <c r="L235" s="13"/>
@@ -10310,7 +10260,7 @@
         <v>30</v>
       </c>
       <c r="J236" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
@@ -10346,7 +10296,7 @@
         <v>30</v>
       </c>
       <c r="J237" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K237" s="13"/>
       <c r="L237" s="13"/>
@@ -10382,7 +10332,7 @@
         <v>30</v>
       </c>
       <c r="J238" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
@@ -10418,7 +10368,7 @@
         <v>30</v>
       </c>
       <c r="J239" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K239" s="13"/>
       <c r="L239" s="13"/>
@@ -10454,7 +10404,7 @@
         <v>30</v>
       </c>
       <c r="J240" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
@@ -10490,7 +10440,7 @@
         <v>30</v>
       </c>
       <c r="J241" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K241" s="13"/>
       <c r="L241" s="13"/>
@@ -10526,7 +10476,7 @@
         <v>30</v>
       </c>
       <c r="J242" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
@@ -10562,7 +10512,7 @@
         <v>30</v>
       </c>
       <c r="J243" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K243" s="13"/>
       <c r="L243" s="13"/>
@@ -10598,7 +10548,7 @@
         <v>30</v>
       </c>
       <c r="J244" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
@@ -10634,7 +10584,7 @@
         <v>30</v>
       </c>
       <c r="J245" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K245" s="13"/>
       <c r="L245" s="13"/>
@@ -10670,7 +10620,7 @@
         <v>30</v>
       </c>
       <c r="J246" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
@@ -10706,7 +10656,7 @@
         <v>30</v>
       </c>
       <c r="J247" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
@@ -10742,7 +10692,7 @@
         <v>30</v>
       </c>
       <c r="J248" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
@@ -10778,7 +10728,7 @@
         <v>30</v>
       </c>
       <c r="J249" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
@@ -10814,7 +10764,7 @@
         <v>30</v>
       </c>
       <c r="J250" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
@@ -10850,7 +10800,7 @@
         <v>30</v>
       </c>
       <c r="J251" s="13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
@@ -11672,7 +11622,7 @@
         <v>30</v>
       </c>
       <c r="J276" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
@@ -11740,7 +11690,7 @@
         <v>30</v>
       </c>
       <c r="J278" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
@@ -11808,7 +11758,7 @@
         <v>30</v>
       </c>
       <c r="J280" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
@@ -11876,7 +11826,7 @@
         <v>30</v>
       </c>
       <c r="J282" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
@@ -11944,7 +11894,7 @@
         <v>30</v>
       </c>
       <c r="J284" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K284" s="13"/>
       <c r="L284" s="13"/>
@@ -12012,7 +11962,7 @@
         <v>30</v>
       </c>
       <c r="J286" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
@@ -12080,7 +12030,7 @@
         <v>30</v>
       </c>
       <c r="J288" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
@@ -12148,7 +12098,7 @@
         <v>30</v>
       </c>
       <c r="J290" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
@@ -12216,7 +12166,7 @@
         <v>30</v>
       </c>
       <c r="J292" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
@@ -12284,7 +12234,7 @@
         <v>30</v>
       </c>
       <c r="J294" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
@@ -12352,7 +12302,7 @@
         <v>30</v>
       </c>
       <c r="J296" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
@@ -12648,7 +12598,7 @@
         <v>30</v>
       </c>
       <c r="J305" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K305" s="13"/>
       <c r="L305" s="13"/>
@@ -12716,7 +12666,7 @@
         <v>30</v>
       </c>
       <c r="J307" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K307" s="13"/>
       <c r="L307" s="13"/>
@@ -12784,7 +12734,7 @@
         <v>30</v>
       </c>
       <c r="J309" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K309" s="13"/>
       <c r="L309" s="13"/>
@@ -12852,7 +12802,7 @@
         <v>30</v>
       </c>
       <c r="J311" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K311" s="13"/>
       <c r="L311" s="13"/>
@@ -12920,7 +12870,7 @@
         <v>30</v>
       </c>
       <c r="J313" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K313" s="13"/>
       <c r="L313" s="13"/>
@@ -12988,7 +12938,7 @@
         <v>30</v>
       </c>
       <c r="J315" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K315" s="13"/>
       <c r="L315" s="13"/>
@@ -13056,7 +13006,7 @@
         <v>30</v>
       </c>
       <c r="J317" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K317" s="13"/>
       <c r="L317" s="13"/>
@@ -13124,7 +13074,7 @@
         <v>30</v>
       </c>
       <c r="J319" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K319" s="13"/>
       <c r="L319" s="13"/>
@@ -13192,7 +13142,7 @@
         <v>30</v>
       </c>
       <c r="J321" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K321" s="13"/>
       <c r="L321" s="13"/>
@@ -13260,7 +13210,7 @@
         <v>30</v>
       </c>
       <c r="J323" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K323" s="13"/>
       <c r="L323" s="13"/>
@@ -13328,7 +13278,7 @@
         <v>30</v>
       </c>
       <c r="J325" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K325" s="13"/>
       <c r="L325" s="13"/>
@@ -13396,7 +13346,7 @@
         <v>30</v>
       </c>
       <c r="J327" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K327" s="13"/>
       <c r="L327" s="13"/>
@@ -13464,7 +13414,7 @@
         <v>30</v>
       </c>
       <c r="J329" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K329" s="13"/>
       <c r="L329" s="13"/>
@@ -13532,7 +13482,7 @@
         <v>30</v>
       </c>
       <c r="J331" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K331" s="13"/>
       <c r="L331" s="13"/>
@@ -13600,7 +13550,7 @@
         <v>30</v>
       </c>
       <c r="J333" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K333" s="13"/>
       <c r="L333" s="13"/>
@@ -13796,7 +13746,7 @@
         <v>30</v>
       </c>
       <c r="J339" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K339" s="13"/>
       <c r="L339" s="13"/>
@@ -13868,7 +13818,7 @@
         <v>30</v>
       </c>
       <c r="J341" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K341" s="13"/>
       <c r="L341" s="13"/>
@@ -13904,7 +13854,7 @@
         <v>30</v>
       </c>
       <c r="J342" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K342" s="13"/>
       <c r="L342" s="13"/>
@@ -14038,7 +13988,7 @@
         <v>30</v>
       </c>
       <c r="J346" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K346" s="13"/>
       <c r="L346" s="13"/>
@@ -14110,7 +14060,7 @@
         <v>30</v>
       </c>
       <c r="J348" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K348" s="13"/>
       <c r="L348" s="13"/>
@@ -14146,7 +14096,7 @@
         <v>30</v>
       </c>
       <c r="J349" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
@@ -14280,7 +14230,7 @@
         <v>30</v>
       </c>
       <c r="J353" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K353" s="13"/>
       <c r="L353" s="13"/>
@@ -14352,7 +14302,7 @@
         <v>30</v>
       </c>
       <c r="J355" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K355" s="13"/>
       <c r="L355" s="13"/>
@@ -14388,7 +14338,7 @@
         <v>30</v>
       </c>
       <c r="J356" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K356" s="13"/>
       <c r="L356" s="13"/>
@@ -16427,7 +16377,7 @@
         <v>1</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C428" t="s">
         <v>300</v>
@@ -16457,7 +16407,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C429" t="s">
         <v>300</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66F7E0-5E4A-43FC-AAEB-4ABDD9054B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12510"/>
+    <workbookView xWindow="6420" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
   <si>
     <t>order</t>
   </si>
@@ -955,21 +961,20 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,43 +1005,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1054,105 +1022,6 @@
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1183,8 +1052,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1199,229 +1075,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599963377788629"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
+        <fgColor theme="6" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1470,333 +1202,109 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1824,159 +1332,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="106" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="87">
+    <cellStyle name="20% - Accent1 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Buena 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Incorrecto 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Millares 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Millares 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Millares 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Millares 2 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Millares 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Millares 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Millares 3 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Millares 3 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Moneda 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Moneda 2 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Moneda 2 3" xfId="57" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Neutral 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
-    <cellStyle name="Incorrecto 2" xfId="8"/>
-    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="Normal 7 2" xfId="12"/>
-    <cellStyle name="60% - Accent4" xfId="13" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3" xfId="16" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="17" builtinId="11"/>
-    <cellStyle name="Title" xfId="18" builtinId="15"/>
-    <cellStyle name="Normal 6 3" xfId="19"/>
-    <cellStyle name="40% - Accent2" xfId="20" builtinId="35"/>
-    <cellStyle name="Normal 4_Sheet1" xfId="21"/>
-    <cellStyle name="CExplanatory Text" xfId="22" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="24" builtinId="18"/>
-    <cellStyle name="20% - Accent3 2" xfId="25"/>
-    <cellStyle name="Heading 4" xfId="26" builtinId="19"/>
-    <cellStyle name="20% - Accent3 3" xfId="27"/>
-    <cellStyle name="Input" xfId="28" builtinId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="29"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40"/>
-    <cellStyle name="Good" xfId="31" builtinId="26"/>
-    <cellStyle name="Output" xfId="32" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="33" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="35"/>
-    <cellStyle name="Linked Cell" xfId="36" builtinId="24"/>
-    <cellStyle name="Total" xfId="37" builtinId="25"/>
-    <cellStyle name="Bad" xfId="38" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="39" builtinId="28"/>
-    <cellStyle name="20% - Accent6 3" xfId="40"/>
-    <cellStyle name="20% - Accent2 3" xfId="41"/>
-    <cellStyle name="Accent1" xfId="42" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="44" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="45" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="46" builtinId="34"/>
-    <cellStyle name="60% - Accent2" xfId="47" builtinId="36"/>
-    <cellStyle name="Title 2" xfId="48"/>
-    <cellStyle name="20% - Accent6" xfId="49" builtinId="50"/>
-    <cellStyle name="Accent3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="51" builtinId="38"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="52"/>
-    <cellStyle name="Accent4" xfId="53" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="54" builtinId="42"/>
-    <cellStyle name="20% - Accent4 2" xfId="55"/>
-    <cellStyle name="40% - Accent4" xfId="56" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="57" builtinId="45"/>
-    <cellStyle name="20% - Accent4 3" xfId="58"/>
-    <cellStyle name="40% - Accent5" xfId="59" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="60" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="61" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="62" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="63" builtinId="52"/>
-    <cellStyle name="20% - Accent1 2" xfId="64"/>
-    <cellStyle name="20% - Accent1 3" xfId="65"/>
-    <cellStyle name="20% - Accent2 2" xfId="66"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="67"/>
-    <cellStyle name="20% - Accent5 2" xfId="68"/>
-    <cellStyle name="20% - Accent5 3" xfId="69"/>
-    <cellStyle name="20% - Accent6 2" xfId="70"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="71"/>
-    <cellStyle name="40% - Accent1 2" xfId="72"/>
-    <cellStyle name="Millares 2" xfId="73"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="74"/>
-    <cellStyle name="Millares 2 2" xfId="75"/>
-    <cellStyle name="40% - Accent1 3" xfId="76"/>
-    <cellStyle name="Millares 3" xfId="77"/>
-    <cellStyle name="40% - Accent2 2" xfId="78"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="79"/>
-    <cellStyle name="40% - Accent2 3" xfId="80"/>
-    <cellStyle name="40% - Accent3 2" xfId="81"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="82"/>
-    <cellStyle name="40% - Accent3 3" xfId="83"/>
-    <cellStyle name="40% - Accent4 2" xfId="84"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="85"/>
-    <cellStyle name="40% - Accent4 3" xfId="86"/>
-    <cellStyle name="40% - Accent5 2" xfId="87"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="88"/>
-    <cellStyle name="40% - Accent5 3" xfId="89"/>
-    <cellStyle name="40% - Accent6 2" xfId="90"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="91"/>
-    <cellStyle name="40% - Accent6 3" xfId="92"/>
-    <cellStyle name="Buena 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2" xfId="94"/>
-    <cellStyle name="Normal 7 2 2" xfId="95"/>
-    <cellStyle name="Millares 2 2 2" xfId="96"/>
-    <cellStyle name="Millares 2 3" xfId="97"/>
-    <cellStyle name="Millares 3 2" xfId="98"/>
-    <cellStyle name="Millares 3 2 2" xfId="99"/>
-    <cellStyle name="Millares 3 3" xfId="100"/>
-    <cellStyle name="Moneda 2" xfId="101"/>
-    <cellStyle name="Moneda 2 2" xfId="102"/>
-    <cellStyle name="Moneda 2 2 2" xfId="103"/>
-    <cellStyle name="Moneda 2 3" xfId="104"/>
-    <cellStyle name="Neutral 2" xfId="105"/>
-    <cellStyle name="Normal 10" xfId="106"/>
-    <cellStyle name="Normal 10 2" xfId="107"/>
-    <cellStyle name="Normal 2" xfId="108"/>
-    <cellStyle name="Normal 2 2" xfId="109"/>
-    <cellStyle name="Normal 2 2 2" xfId="110"/>
-    <cellStyle name="Normal 2 3" xfId="111"/>
-    <cellStyle name="Normal 2_Sheet1" xfId="112"/>
-    <cellStyle name="Normal 3" xfId="113"/>
-    <cellStyle name="Normal 4" xfId="114"/>
-    <cellStyle name="Normal 4 2" xfId="115"/>
-    <cellStyle name="Normal 4 2 2" xfId="116"/>
-    <cellStyle name="Normal 4 3" xfId="117"/>
-    <cellStyle name="Normal 5" xfId="118"/>
-    <cellStyle name="Normal 6" xfId="119"/>
-    <cellStyle name="Normal 6 2" xfId="120"/>
-    <cellStyle name="Normal 6 4" xfId="121"/>
-    <cellStyle name="Normal 7" xfId="122"/>
-    <cellStyle name="Normal 7 3" xfId="123"/>
-    <cellStyle name="Normal 7_Sheet1" xfId="124"/>
-    <cellStyle name="Normal 8" xfId="125"/>
-    <cellStyle name="Normal 9" xfId="126"/>
-    <cellStyle name="Normal 9 2" xfId="127"/>
-    <cellStyle name="Normal 9_Sheet1" xfId="128"/>
-    <cellStyle name="Notas 2" xfId="129"/>
-    <cellStyle name="Notas 2 2" xfId="130"/>
-    <cellStyle name="Notas 2 2 2" xfId="131"/>
-    <cellStyle name="Notas 2 3" xfId="132"/>
-    <cellStyle name="Porcentaje 2" xfId="133"/>
+    <cellStyle name="Normal 10" xfId="59" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 10 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 2_Sheet1" xfId="65" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 4 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 4_Sheet1" xfId="6" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 5" xfId="71" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 6" xfId="72" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 6 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 6 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 7" xfId="75" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 7 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 7 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 7_Sheet1" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 8" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 9" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 9_Sheet1" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Notas 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Notas 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Notas 2 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Notas 2 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2234,33 +1699,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B428" sqref="B2:B428"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297:B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="7" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="4" width="20.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="41.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.5714285714286" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="122.857142857143" customWidth="1"/>
-    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
-    <col min="10" max="10" width="31.4285714285714" customWidth="1"/>
-    <col min="11" max="12" width="11.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="11.2857142857143" customWidth="1"/>
-    <col min="14" max="14" width="10.2857142857143" customWidth="1"/>
-    <col min="15" max="17" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="122.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2312,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -2337,12 +1802,12 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -2369,12 +1834,12 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -2401,12 +1866,12 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -2438,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -2472,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -2502,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -2534,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2570,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2606,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2642,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2678,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2714,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2750,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2786,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2816,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2848,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2882,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2914,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2946,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2978,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -3010,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -3042,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -3074,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -3106,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -3138,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -3170,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -3202,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -3234,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -3266,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -3298,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -3330,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -3362,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -3394,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -3426,7 +2891,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -3458,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -3490,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -3522,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3554,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3586,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3618,7 +3083,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3650,7 +3115,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3682,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3712,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3744,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3778,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3810,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3842,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3878,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3908,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3940,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3974,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -4006,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -4038,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -4074,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -4110,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -4142,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -4176,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -4206,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -4238,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -4274,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -4306,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -4340,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -4372,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -4408,7 +3873,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -4444,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -4480,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -4516,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4552,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4588,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4624,7 +4089,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4660,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4696,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4732,7 +4197,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4768,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4804,7 +4269,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4836,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4868,7 +4333,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4900,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4932,7 +4397,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4966,7 +4431,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4996,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -5028,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -5060,7 +4525,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -5092,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -5124,7 +4589,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -5158,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -5190,7 +4655,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -5222,7 +4687,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -5254,7 +4719,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -5286,7 +4751,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -5320,7 +4785,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -5352,7 +4817,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -5384,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -5416,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -5450,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -5482,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -5514,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5546,7 +5011,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5580,7 +5045,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5612,7 +5077,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5644,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5676,7 +5141,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5710,7 +5175,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5742,7 +5207,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5774,7 +5239,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5806,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5840,7 +5305,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5872,7 +5337,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5904,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5936,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5970,7 +5435,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -6002,7 +5467,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -6034,7 +5499,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -6066,7 +5531,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -6100,7 +5565,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -6132,7 +5597,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -6164,7 +5629,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -6196,7 +5661,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -6228,7 +5693,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -6260,7 +5725,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -6294,7 +5759,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -6326,7 +5791,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -6358,7 +5823,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -6390,7 +5855,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -6424,7 +5889,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -6456,7 +5921,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -6488,7 +5953,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -6520,7 +5985,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6552,7 +6017,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6584,7 +6049,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6618,7 +6083,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6650,7 +6115,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6682,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6714,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6746,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6778,7 +6243,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6812,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6844,7 +6309,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6876,7 +6341,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6910,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6940,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6972,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -7004,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -7040,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -7076,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -7112,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -7148,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -7184,7 +6649,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -7220,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -7256,7 +6721,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -7292,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -7328,7 +6793,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -7364,7 +6829,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -7400,7 +6865,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -7436,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -7472,7 +6937,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -7508,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7544,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7580,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7616,7 +7081,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7652,7 +7117,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7688,7 +7153,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7724,7 +7189,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7760,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7796,7 +7261,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7832,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7868,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7904,7 +7369,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7940,7 +7405,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7976,7 +7441,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -8012,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -8048,7 +7513,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -8084,7 +7549,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -8120,7 +7585,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -8156,7 +7621,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -8192,7 +7657,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -8228,7 +7693,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -8264,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -8300,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -8336,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -8372,7 +7837,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -8408,7 +7873,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -8444,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -8480,7 +7945,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -8516,7 +7981,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8552,7 +8017,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8588,7 +8053,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8624,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8654,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8686,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8718,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8752,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8784,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8820,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8856,7 +8321,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8892,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8928,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8964,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -9000,7 +8465,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -9036,7 +8501,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -9072,7 +8537,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -9108,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -9144,7 +8609,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -9180,7 +8645,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -9216,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -9252,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -9288,7 +8753,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -9324,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -9360,7 +8825,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -9396,7 +8861,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -9432,7 +8897,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -9468,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -9504,7 +8969,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9540,7 +9005,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9576,7 +9041,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9612,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9648,7 +9113,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9680,7 +9145,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9716,7 +9181,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9752,7 +9217,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9788,7 +9253,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9820,7 +9285,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9852,7 +9317,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9884,7 +9349,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9916,7 +9381,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9948,7 +9413,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9984,7 +9449,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -10020,7 +9485,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -10056,7 +9521,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -10092,7 +9557,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -10128,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -10164,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -10200,7 +9665,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -10236,7 +9701,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -10272,7 +9737,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -10308,7 +9773,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -10344,7 +9809,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -10380,7 +9845,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -10416,7 +9881,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -10452,7 +9917,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -10488,7 +9953,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -10524,7 +9989,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10560,7 +10025,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10596,7 +10061,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10632,7 +10097,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10668,7 +10133,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10704,7 +10169,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10740,7 +10205,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10776,7 +10241,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10812,7 +10277,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10846,7 +10311,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10878,7 +10343,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10910,7 +10375,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10944,7 +10409,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10978,7 +10443,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -11010,7 +10475,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -11042,7 +10507,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -11078,7 +10543,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -11112,7 +10577,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -11144,7 +10609,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -11176,7 +10641,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -11208,7 +10673,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -11240,7 +10705,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -11272,7 +10737,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -11304,7 +10769,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -12314,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -12344,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -12376,7 +11841,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -12408,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -12440,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -12474,7 +11939,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -12501,12 +11966,12 @@
       <c r="M302" s="13"/>
       <c r="N302" s="13"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1" spans="1:14">
+    <row r="303" spans="1:14" ht="15.75" customHeight="1">
       <c r="A303" s="7">
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12542,7 +12007,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12574,7 +12039,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12610,7 +12075,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12642,7 +12107,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12678,7 +12143,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12710,7 +12175,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12746,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12778,7 +12243,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12814,7 +12279,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12846,7 +12311,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12882,7 +12347,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12914,7 +12379,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12950,7 +12415,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12982,7 +12447,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -13018,7 +12483,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -13050,7 +12515,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -13086,7 +12551,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -13118,7 +12583,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -13154,7 +12619,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -13186,7 +12651,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -13222,7 +12687,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -13254,7 +12719,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -13290,7 +12755,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -13322,7 +12787,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -13358,7 +12823,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -13390,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -13426,7 +12891,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -13458,7 +12923,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -13494,7 +12959,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -13526,7 +12991,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13562,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13592,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13624,7 +13089,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13656,7 +13121,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13688,7 +13153,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13722,7 +13187,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13758,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13794,7 +13259,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13830,7 +13295,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13866,7 +13331,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13898,7 +13363,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13930,7 +13395,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13964,7 +13429,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -14000,7 +13465,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -14036,7 +13501,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -14072,7 +13537,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -14108,7 +13573,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -14140,7 +13605,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -14172,7 +13637,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -14206,7 +13671,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -14242,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -14278,7 +13743,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -14314,7 +13779,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -14350,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -14380,7 +13845,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -14412,7 +13877,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -14444,7 +13909,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -14478,7 +13943,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -14512,7 +13977,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14542,7 +14007,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14574,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14606,7 +14071,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14640,7 +14105,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14670,7 +14135,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14702,7 +14167,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14734,7 +14199,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14768,7 +14233,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14798,7 +14263,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14830,7 +14295,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14862,7 +14327,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14896,7 +14361,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14926,7 +14391,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14958,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14990,7 +14455,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -15024,7 +14489,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -15054,7 +14519,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -15088,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -15113,12 +14578,12 @@
       <c r="M380" s="9"/>
       <c r="N380" s="9"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:14">
       <c r="A381" s="7">
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -15139,12 +14604,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:14">
       <c r="A382" s="7">
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -15165,12 +14630,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="383" ht="16.5" spans="1:10">
+    <row r="383" spans="1:14" ht="16.5">
       <c r="A383" s="7">
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -15193,12 +14658,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:14">
       <c r="A384" s="7">
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -15223,12 +14688,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:10">
       <c r="A385" s="7">
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -15246,12 +14711,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:10">
       <c r="A386" s="7">
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -15272,12 +14737,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:10">
       <c r="A387" s="7">
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -15303,7 +14768,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -15333,7 +14798,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -15357,12 +14822,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:10">
       <c r="A390" s="7">
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -15383,12 +14848,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:10">
       <c r="A391" s="7">
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -15409,12 +14874,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="392" ht="16.5" spans="1:10">
+    <row r="392" spans="1:10" ht="16.5">
       <c r="A392" s="7">
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -15442,7 +14907,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -15467,12 +14932,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:10">
       <c r="A394" s="7">
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -15490,12 +14955,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:10">
       <c r="A395" s="7">
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -15516,12 +14981,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:10">
       <c r="A396" s="7">
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15542,12 +15007,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="397" ht="16.5" spans="1:10">
+    <row r="397" spans="1:10" ht="16.5">
       <c r="A397" s="7">
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15575,7 +15040,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15600,12 +15065,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:10">
       <c r="A399" s="7">
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15623,12 +15088,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:10">
       <c r="A400" s="7">
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15649,12 +15114,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:10">
       <c r="A401" s="7">
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15675,12 +15140,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="402" ht="16.5" spans="1:10">
+    <row r="402" spans="1:10" ht="16.5">
       <c r="A402" s="7">
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15708,7 +15173,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15733,12 +15198,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:10">
       <c r="A404" s="7">
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15756,12 +15221,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:10">
       <c r="A405" s="7">
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15782,12 +15247,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:10">
       <c r="A406" s="7">
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15808,12 +15273,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="407" ht="16.5" spans="1:10">
+    <row r="407" spans="1:10" ht="16.5">
       <c r="A407" s="7">
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15841,7 +15306,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15866,12 +15331,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:10">
       <c r="A409" s="7">
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15889,12 +15354,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:10">
       <c r="A410" s="7">
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15915,12 +15380,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:10">
       <c r="A411" s="7">
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15941,12 +15406,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="412" ht="16.5" spans="1:10">
+    <row r="412" spans="1:10" ht="16.5">
       <c r="A412" s="7">
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15974,7 +15439,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15999,12 +15464,12 @@
         <v>295</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:10">
       <c r="A414" s="7">
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -16022,12 +15487,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:10">
       <c r="A415" s="7">
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -16048,12 +15513,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:10">
       <c r="A416" s="7">
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -16074,12 +15539,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="417" ht="16.5" spans="1:10">
+    <row r="417" spans="1:14" ht="16.5">
       <c r="A417" s="7">
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -16102,12 +15567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:14">
       <c r="A418" s="7">
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -16132,12 +15597,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:14">
       <c r="A419" s="7">
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -16155,12 +15620,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:14">
       <c r="A420" s="7">
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -16181,12 +15646,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:14">
       <c r="A421" s="7">
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -16207,12 +15672,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="422" ht="16.5" spans="1:10">
+    <row r="422" spans="1:14" ht="16.5">
       <c r="A422" s="7">
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -16235,12 +15700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:14">
       <c r="A423" s="7">
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -16265,12 +15730,12 @@
         <v>298</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:14">
       <c r="A424" s="7">
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -16288,12 +15753,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:14">
       <c r="A425" s="7">
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -16314,12 +15779,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="426" ht="16.5" spans="1:10">
+    <row r="426" spans="1:14" ht="16.5">
       <c r="A426" s="7">
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -16342,12 +15807,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:14">
       <c r="A427" s="7">
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>
@@ -16377,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C428" t="s">
         <v>300</v>
@@ -16402,12 +15867,12 @@
       <c r="M428" s="9"/>
       <c r="N428" s="9"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:14">
       <c r="A429" s="7">
         <v>2</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C429" t="s">
         <v>300</v>
@@ -16433,30 +15898,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J108" r:id="rId1" display="http://weapp.everis.com/CVEM.Web/EditCV.aspx"/>
-    <hyperlink ref="J301" r:id="rId2" display="https://knowler.everis.com/internalNews/company/nttd"/>
+    <hyperlink ref="J108" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J301" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="40.8571428571429" customWidth="1"/>
-    <col min="4" max="5" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16489,27 +15952,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://knowler.everis.com/home"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -16529,11 +15988,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="alex.hilas05@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="varela.alexandre01@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66F7E0-5E4A-43FC-AAEB-4ABDD9054B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F2B6C7-A686-468F-85EB-45BDA390EAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
   <si>
     <t>order</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1705,7 @@
   <dimension ref="A1:N429"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="B297" sqref="B297:B429"/>
+      <selection activeCell="B2" sqref="B2:B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1777,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1807,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -1839,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -1871,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -1903,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1937,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -1967,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -1999,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2035,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2107,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2143,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2179,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2215,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2251,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2281,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2313,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2347,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2379,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2411,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2443,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -2475,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2507,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -2539,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -2571,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -2603,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -2635,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -2667,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -2699,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -2731,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -2763,7 +2760,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -2795,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -2827,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -2859,7 +2856,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -2891,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -2923,7 +2920,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -2955,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -2987,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3019,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3051,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3083,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3115,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3177,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3209,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3243,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3275,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3307,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3343,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3373,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3405,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3439,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -3471,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -3503,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -3539,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -3575,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -3607,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -3703,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -3739,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -3771,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -3805,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3837,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -3873,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -3909,7 +3906,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -3945,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -3981,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4017,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4053,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4089,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4125,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4161,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4197,7 +4194,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4233,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4269,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4301,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4333,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4365,7 +4362,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4397,7 +4394,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4431,7 +4428,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4461,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -4493,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -4525,7 +4522,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -4557,7 +4554,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -4589,7 +4586,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -4623,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -4655,7 +4652,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -4687,7 +4684,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -4719,7 +4716,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -4751,7 +4748,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -4785,7 +4782,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -4817,7 +4814,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -4849,7 +4846,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -4881,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -4915,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -4947,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -4979,7 +4976,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5011,7 +5008,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5045,7 +5042,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5077,7 +5074,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5109,7 +5106,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5141,7 +5138,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5175,7 +5172,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5207,7 +5204,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5239,7 +5236,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5271,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5305,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5337,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5369,7 +5366,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5401,7 +5398,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5435,7 +5432,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -5467,7 +5464,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -5499,7 +5496,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -5531,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -5565,7 +5562,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -5597,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -5629,7 +5626,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -5661,7 +5658,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -5693,7 +5690,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -5725,7 +5722,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -5759,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -5791,7 +5788,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -5823,7 +5820,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -5855,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -5889,7 +5886,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -5921,7 +5918,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -5953,7 +5950,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -5985,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6017,7 +6014,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6049,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6083,7 +6080,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6115,7 +6112,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6147,7 +6144,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6179,7 +6176,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6211,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6243,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6277,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6309,7 +6306,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6341,7 +6338,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6375,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6405,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6437,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -6469,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -6505,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -6541,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -6577,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -6613,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -6649,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -6685,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -6721,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -6757,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -6793,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -6829,7 +6826,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -6865,7 +6862,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -6901,7 +6898,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -6937,7 +6934,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -6973,7 +6970,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7009,7 +7006,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7045,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7081,7 +7078,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7117,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7153,7 +7150,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7189,7 +7186,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7225,7 +7222,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7261,7 +7258,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7297,7 +7294,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7333,7 +7330,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7369,7 +7366,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7405,7 +7402,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7441,7 +7438,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -7477,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -7513,7 +7510,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -7549,7 +7546,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -7585,7 +7582,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -7621,7 +7618,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -7657,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -7693,7 +7690,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -7729,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -7765,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -7801,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -7837,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -7873,7 +7870,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -7909,7 +7906,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -7945,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -7981,7 +7978,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8017,7 +8014,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8053,7 +8050,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8089,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8119,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8151,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8183,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8217,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8249,7 +8246,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8285,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8321,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8357,7 +8354,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8393,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8429,7 +8426,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -8465,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -8501,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -8537,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -8573,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -8609,7 +8606,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -8645,7 +8642,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -8681,7 +8678,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -8717,7 +8714,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -8753,7 +8750,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -8789,7 +8786,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -8825,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -8861,7 +8858,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -8897,7 +8894,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -8933,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -8969,7 +8966,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9005,7 +9002,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9041,7 +9038,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9077,7 +9074,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9113,7 +9110,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9145,7 +9142,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9181,7 +9178,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9217,7 +9214,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9253,7 +9250,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9285,7 +9282,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9317,7 +9314,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9349,7 +9346,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9381,7 +9378,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9413,7 +9410,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9449,7 +9446,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -9485,7 +9482,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -9521,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -9557,7 +9554,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -9593,7 +9590,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -9629,7 +9626,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -9665,7 +9662,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -9701,7 +9698,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -9737,7 +9734,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -9773,7 +9770,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -9809,7 +9806,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -9845,7 +9842,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -9881,7 +9878,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -9917,7 +9914,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -9953,7 +9950,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -9989,7 +9986,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10025,7 +10022,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10061,7 +10058,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10097,7 +10094,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10133,7 +10130,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10169,7 +10166,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10205,7 +10202,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10241,7 +10238,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10277,7 +10274,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10311,7 +10308,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10343,7 +10340,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10375,7 +10372,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10409,7 +10406,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10443,7 +10440,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -10475,7 +10472,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -10507,7 +10504,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -10543,7 +10540,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -10577,7 +10574,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -10609,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -10641,7 +10638,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -10673,7 +10670,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -10705,7 +10702,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -10737,7 +10734,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -10769,7 +10766,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -11779,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -11809,7 +11806,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -11841,7 +11838,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -11873,7 +11870,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -11905,7 +11902,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -11939,7 +11936,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -11971,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12007,7 +12004,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12039,7 +12036,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12075,7 +12072,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12107,7 +12104,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12143,7 +12140,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12175,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12211,7 +12208,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12243,7 +12240,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12279,7 +12276,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12311,7 +12308,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12347,7 +12344,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12379,7 +12376,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12415,7 +12412,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12447,7 +12444,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -12483,7 +12480,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -12515,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -12551,7 +12548,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -12583,7 +12580,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -12619,7 +12616,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -12651,7 +12648,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -12687,7 +12684,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -12719,7 +12716,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -12755,7 +12752,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -12787,7 +12784,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -12823,7 +12820,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -12855,7 +12852,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -12891,7 +12888,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -12923,7 +12920,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -12959,7 +12956,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -12991,7 +12988,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13057,7 +13054,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13089,7 +13086,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13121,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13153,7 +13150,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13187,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13223,7 +13220,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13259,7 +13256,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13295,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13331,7 +13328,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13363,7 +13360,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13395,7 +13392,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13429,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -13465,7 +13462,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -13501,7 +13498,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -13537,7 +13534,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -13573,7 +13570,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -13605,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -13637,7 +13634,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -13671,7 +13668,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -13707,7 +13704,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -13743,7 +13740,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -13779,7 +13776,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -13815,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -13845,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -13877,7 +13874,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -13909,7 +13906,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -13943,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -13977,7 +13974,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14007,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14039,7 +14036,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14071,7 +14068,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14105,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14135,7 +14132,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14167,7 +14164,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14199,7 +14196,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14233,7 +14230,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14263,7 +14260,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14295,7 +14292,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14327,7 +14324,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14361,7 +14358,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14391,7 +14388,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14423,7 +14420,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14455,7 +14452,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -14489,7 +14486,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -14519,7 +14516,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -14553,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -14583,7 +14580,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -14609,7 +14606,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -14635,7 +14632,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -14663,7 +14660,7 @@
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -14693,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -14716,7 +14713,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -14742,7 +14739,7 @@
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -14768,7 +14765,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -14798,7 +14795,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -14827,7 +14824,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -14853,7 +14850,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -14879,7 +14876,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -14907,7 +14904,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -14937,7 +14934,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -14960,7 +14957,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -14986,7 +14983,7 @@
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15012,7 +15009,7 @@
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15040,7 +15037,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15070,7 +15067,7 @@
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15093,7 +15090,7 @@
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15119,7 +15116,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15145,7 +15142,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15173,7 +15170,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15203,7 +15200,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15226,7 +15223,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15252,7 +15249,7 @@
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15278,7 +15275,7 @@
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15306,7 +15303,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15336,7 +15333,7 @@
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15359,7 +15356,7 @@
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15385,7 +15382,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15411,7 +15408,7 @@
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15439,7 +15436,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15469,7 +15466,7 @@
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -15492,7 +15489,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -15518,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -15544,7 +15541,7 @@
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -15572,7 +15569,7 @@
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -15602,7 +15599,7 @@
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -15625,7 +15622,7 @@
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -15651,7 +15648,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -15677,7 +15674,7 @@
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -15705,7 +15702,7 @@
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -15735,7 +15732,7 @@
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -15758,7 +15755,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -15784,7 +15781,7 @@
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -15812,7 +15809,7 @@
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>
@@ -15842,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="B428" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C428" t="s">
         <v>300</v>
@@ -15872,7 +15869,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C429" t="s">
         <v>300</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F2B6C7-A686-468F-85EB-45BDA390EAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21ED0E-16C9-41AA-8710-895D77815F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
   <si>
     <t>order</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B429"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1804,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -1836,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -1868,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -1900,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1934,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -1964,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -1996,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2032,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2068,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2104,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2140,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2176,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2212,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2248,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2278,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2310,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2344,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2376,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2408,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2440,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -2472,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2504,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -2536,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -2600,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -2632,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -2664,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -2696,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -2728,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -2760,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -2792,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -2824,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -2856,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -2888,7 +2891,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -2920,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -2952,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -2984,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3016,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3048,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3080,7 +3083,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3112,7 +3115,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3174,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3206,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3240,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3272,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3304,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3370,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3402,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3436,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -3468,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -3500,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -3536,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -3572,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -3604,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -3638,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -3668,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -3700,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -3736,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -3768,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -3802,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3834,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -3870,7 +3873,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -3906,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -3942,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -3978,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4014,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4050,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4086,7 +4089,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4122,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4158,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4194,7 +4197,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4230,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4266,7 +4269,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4298,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4330,7 +4333,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4362,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4394,7 +4397,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4428,7 +4431,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4458,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -4490,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -4522,7 +4525,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -4554,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -4586,7 +4589,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -4620,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -4652,7 +4655,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -4684,7 +4687,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -4716,7 +4719,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -4748,7 +4751,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -4782,7 +4785,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -4814,7 +4817,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -4846,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -4878,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -4912,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -4944,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -4976,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5008,7 +5011,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5042,7 +5045,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5074,7 +5077,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5106,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5138,7 +5141,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5172,7 +5175,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5204,7 +5207,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5236,7 +5239,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5268,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5302,7 +5305,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5334,7 +5337,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5366,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5398,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5432,7 +5435,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -5464,7 +5467,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -5496,7 +5499,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -5528,7 +5531,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -5562,7 +5565,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -5594,7 +5597,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -5626,7 +5629,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -5658,7 +5661,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -5690,7 +5693,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -5722,7 +5725,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -5756,7 +5759,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -5788,7 +5791,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -5820,7 +5823,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -5852,7 +5855,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -5886,7 +5889,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -5918,7 +5921,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -5950,7 +5953,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -5982,7 +5985,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6014,7 +6017,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6046,7 +6049,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6080,7 +6083,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6112,7 +6115,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6144,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6176,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6208,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6240,7 +6243,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6274,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6306,7 +6309,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6338,7 +6341,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6372,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6402,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6434,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -6466,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -6502,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -6538,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -6574,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -6610,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -6646,7 +6649,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -6682,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -6718,7 +6721,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -6754,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -6790,7 +6793,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -6826,7 +6829,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -6862,7 +6865,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -6898,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -6934,7 +6937,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -6970,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7006,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7042,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7078,7 +7081,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7114,7 +7117,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7150,7 +7153,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7186,7 +7189,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7222,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7258,7 +7261,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7294,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7330,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7366,7 +7369,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7402,7 +7405,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7438,7 +7441,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -7474,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -7510,7 +7513,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -7546,7 +7549,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -7582,7 +7585,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -7618,7 +7621,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -7654,7 +7657,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -7690,7 +7693,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -7726,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -7762,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -7798,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -7834,7 +7837,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -7870,7 +7873,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -7906,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -7942,7 +7945,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -7978,7 +7981,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8014,7 +8017,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8050,7 +8053,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8086,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8116,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8148,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8180,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8214,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8246,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8282,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8318,7 +8321,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8354,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8390,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8426,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -8462,7 +8465,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -8498,7 +8501,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -8534,7 +8537,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -8570,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -8606,7 +8609,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -8642,7 +8645,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -8678,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -8714,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -8750,7 +8753,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -8786,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -8822,7 +8825,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -8858,7 +8861,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -8894,7 +8897,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -8930,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -8966,7 +8969,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9002,7 +9005,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9038,7 +9041,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9074,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9110,7 +9113,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9142,7 +9145,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9178,7 +9181,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9214,7 +9217,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9250,7 +9253,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9282,7 +9285,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9314,7 +9317,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9346,7 +9349,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9378,7 +9381,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9410,7 +9413,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9446,7 +9449,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -9482,7 +9485,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -9518,7 +9521,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -9554,7 +9557,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -9590,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -9626,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -9662,7 +9665,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -9698,7 +9701,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -9734,7 +9737,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -9770,7 +9773,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -9806,7 +9809,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -9842,7 +9845,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -9878,7 +9881,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -9914,7 +9917,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -9950,7 +9953,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -9986,7 +9989,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10022,7 +10025,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10058,7 +10061,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10094,7 +10097,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10130,7 +10133,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10166,7 +10169,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10202,7 +10205,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10238,7 +10241,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10274,7 +10277,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10308,7 +10311,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10340,7 +10343,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10372,7 +10375,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10406,7 +10409,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10440,7 +10443,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -10472,7 +10475,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -10504,7 +10507,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -10540,7 +10543,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -10574,7 +10577,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -10606,7 +10609,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -10638,7 +10641,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -10670,7 +10673,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -10702,7 +10705,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -10734,7 +10737,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -10766,7 +10769,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -10800,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>218</v>
@@ -10830,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>218</v>
@@ -10862,7 +10865,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>218</v>
@@ -10894,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>218</v>
@@ -10926,7 +10929,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>218</v>
@@ -10960,7 +10963,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C273" s="13" t="s">
         <v>218</v>
@@ -10992,7 +10995,7 @@
         <v>7</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C274" s="13" t="s">
         <v>218</v>
@@ -11028,7 +11031,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>218</v>
@@ -11060,7 +11063,7 @@
         <v>9</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>218</v>
@@ -11096,7 +11099,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>218</v>
@@ -11128,7 +11131,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>218</v>
@@ -11164,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>218</v>
@@ -11196,7 +11199,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>218</v>
@@ -11232,7 +11235,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>218</v>
@@ -11264,7 +11267,7 @@
         <v>15</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>218</v>
@@ -11300,7 +11303,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>218</v>
@@ -11332,7 +11335,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>218</v>
@@ -11368,7 +11371,7 @@
         <v>18</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>218</v>
@@ -11400,7 +11403,7 @@
         <v>19</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>218</v>
@@ -11436,7 +11439,7 @@
         <v>20</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>218</v>
@@ -11468,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>218</v>
@@ -11504,7 +11507,7 @@
         <v>22</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>218</v>
@@ -11536,7 +11539,7 @@
         <v>23</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>218</v>
@@ -11572,7 +11575,7 @@
         <v>24</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>218</v>
@@ -11604,7 +11607,7 @@
         <v>25</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>218</v>
@@ -11640,7 +11643,7 @@
         <v>26</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>218</v>
@@ -11672,7 +11675,7 @@
         <v>27</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>218</v>
@@ -11708,7 +11711,7 @@
         <v>28</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C295" s="13" t="s">
         <v>218</v>
@@ -11740,7 +11743,7 @@
         <v>29</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>218</v>
@@ -11776,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -11806,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -11838,7 +11841,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -11870,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -11902,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -11936,7 +11939,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -11968,7 +11971,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12004,7 +12007,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12036,7 +12039,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12072,7 +12075,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12104,7 +12107,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12140,7 +12143,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12172,7 +12175,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12208,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12240,7 +12243,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12276,7 +12279,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12308,7 +12311,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12344,7 +12347,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12376,7 +12379,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12412,7 +12415,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12444,7 +12447,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -12480,7 +12483,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -12512,7 +12515,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -12548,7 +12551,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -12580,7 +12583,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -12616,7 +12619,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -12648,7 +12651,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -12684,7 +12687,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -12716,7 +12719,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -12752,7 +12755,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -12784,7 +12787,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -12820,7 +12823,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -12852,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -12888,7 +12891,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -12920,7 +12923,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -12956,7 +12959,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -12988,7 +12991,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13024,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13054,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13086,7 +13089,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13118,7 +13121,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13150,7 +13153,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13184,7 +13187,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13220,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13256,7 +13259,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13292,7 +13295,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13328,7 +13331,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13360,7 +13363,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13392,7 +13395,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13426,7 +13429,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -13462,7 +13465,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -13498,7 +13501,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -13534,7 +13537,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -13570,7 +13573,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -13602,7 +13605,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -13634,7 +13637,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -13668,7 +13671,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -13704,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -13740,7 +13743,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -13776,7 +13779,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -13812,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -13842,7 +13845,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -13874,7 +13877,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -13906,7 +13909,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -13940,7 +13943,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -13974,7 +13977,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14004,7 +14007,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14036,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14068,7 +14071,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14102,7 +14105,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14132,7 +14135,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14164,7 +14167,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14196,7 +14199,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14230,7 +14233,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14260,7 +14263,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14292,7 +14295,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14324,7 +14327,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14358,7 +14361,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14388,7 +14391,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14420,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14452,7 +14455,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -14486,7 +14489,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -14516,7 +14519,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -14550,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -14580,7 +14583,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -14606,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -14632,7 +14635,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -14660,7 +14663,7 @@
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -14690,7 +14693,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -14713,7 +14716,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -14739,7 +14742,7 @@
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -14765,7 +14768,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -14795,7 +14798,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -14824,7 +14827,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -14850,7 +14853,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -14876,7 +14879,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -14904,7 +14907,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -14934,7 +14937,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -14957,7 +14960,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -14983,7 +14986,7 @@
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15009,7 +15012,7 @@
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15037,7 +15040,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15067,7 +15070,7 @@
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15090,7 +15093,7 @@
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15116,7 +15119,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15142,7 +15145,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15170,7 +15173,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15200,7 +15203,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15223,7 +15226,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15249,7 +15252,7 @@
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15275,7 +15278,7 @@
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15303,7 +15306,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15333,7 +15336,7 @@
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15356,7 +15359,7 @@
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15382,7 +15385,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15408,7 +15411,7 @@
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15436,7 +15439,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15466,7 +15469,7 @@
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -15489,7 +15492,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -15515,7 +15518,7 @@
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -15541,7 +15544,7 @@
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -15569,7 +15572,7 @@
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -15599,7 +15602,7 @@
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -15622,7 +15625,7 @@
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -15648,7 +15651,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -15674,7 +15677,7 @@
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -15702,7 +15705,7 @@
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -15732,7 +15735,7 @@
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -15755,7 +15758,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -15781,7 +15784,7 @@
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -15809,7 +15812,7 @@
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F21ED0E-16C9-41AA-8710-895D77815F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E620E1B-1417-4355-8A44-3F51C514141B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
   <si>
     <t>order</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B427"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B427" sqref="B2:B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1777,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1807,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -1839,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -1871,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -1903,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1937,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -1967,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -1999,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2035,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2107,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2143,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2179,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2215,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2251,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2281,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2313,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2347,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2379,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2411,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2443,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -2475,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2507,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -2539,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -2571,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -2603,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -2635,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -2667,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -2699,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -2731,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -2763,7 +2760,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -2795,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -2827,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -2859,7 +2856,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -2891,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -2923,7 +2920,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -2955,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -2987,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3019,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3051,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3083,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3115,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3177,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3209,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3243,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3275,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3307,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3343,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3373,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3405,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3439,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -3471,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -3503,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -3539,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -3575,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -3607,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -3703,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -3739,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -3771,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -3805,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3837,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -3873,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -3909,7 +3906,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -3945,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -3981,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4017,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4053,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4089,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4125,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4161,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4197,7 +4194,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4233,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4269,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4301,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4333,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4365,7 +4362,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4397,7 +4394,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4431,7 +4428,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4461,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -4493,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -4525,7 +4522,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -4557,7 +4554,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -4589,7 +4586,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -4623,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -4655,7 +4652,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -4687,7 +4684,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -4719,7 +4716,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -4751,7 +4748,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -4785,7 +4782,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -4817,7 +4814,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -4849,7 +4846,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -4881,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -4915,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -4947,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -4979,7 +4976,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5011,7 +5008,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5045,7 +5042,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5077,7 +5074,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5109,7 +5106,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5141,7 +5138,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5175,7 +5172,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5207,7 +5204,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5239,7 +5236,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5271,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5305,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5337,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5369,7 +5366,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5401,7 +5398,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5435,7 +5432,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -5467,7 +5464,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -5499,7 +5496,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -5531,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -5565,7 +5562,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -5597,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -5629,7 +5626,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -5661,7 +5658,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -5693,7 +5690,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -5725,7 +5722,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -5759,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -5791,7 +5788,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -5823,7 +5820,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -5855,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -5889,7 +5886,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -5921,7 +5918,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -5953,7 +5950,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -5985,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6017,7 +6014,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6049,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6083,7 +6080,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6115,7 +6112,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6147,7 +6144,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6179,7 +6176,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6211,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6243,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6277,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6309,7 +6306,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6341,7 +6338,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6375,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6405,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6437,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -6469,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -6505,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -6541,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -6577,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -6613,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -6649,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -6685,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -6721,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -6757,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -6793,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -6829,7 +6826,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -6865,7 +6862,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -6901,7 +6898,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -6937,7 +6934,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -6973,7 +6970,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7009,7 +7006,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7045,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7081,7 +7078,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7117,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7153,7 +7150,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7189,7 +7186,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7225,7 +7222,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7261,7 +7258,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7297,7 +7294,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7333,7 +7330,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7369,7 +7366,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7405,7 +7402,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7441,7 +7438,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -7477,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -7513,7 +7510,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -7549,7 +7546,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -7585,7 +7582,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -7621,7 +7618,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -7657,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -7693,7 +7690,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -7729,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -7765,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -7801,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -7837,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -7873,7 +7870,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -7909,7 +7906,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -7945,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -7981,7 +7978,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8017,7 +8014,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8053,7 +8050,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8089,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8119,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8151,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8183,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8217,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8249,7 +8246,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8285,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8321,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8357,7 +8354,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8393,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8429,7 +8426,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -8465,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -8501,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -8537,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -8573,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -8609,7 +8606,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -8645,7 +8642,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -8681,7 +8678,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -8717,7 +8714,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -8753,7 +8750,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -8789,7 +8786,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -8825,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -8861,7 +8858,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -8897,7 +8894,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -8933,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -8969,7 +8966,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9005,7 +9002,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9041,7 +9038,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9077,7 +9074,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9113,7 +9110,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9145,7 +9142,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9181,7 +9178,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9217,7 +9214,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9253,7 +9250,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9285,7 +9282,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9317,7 +9314,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9349,7 +9346,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9381,7 +9378,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9413,7 +9410,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9449,7 +9446,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -9485,7 +9482,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -9521,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -9557,7 +9554,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -9593,7 +9590,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -9629,7 +9626,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -9665,7 +9662,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -9701,7 +9698,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -9737,7 +9734,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -9773,7 +9770,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -9809,7 +9806,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -9845,7 +9842,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -9881,7 +9878,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -9917,7 +9914,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -9953,7 +9950,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -9989,7 +9986,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10025,7 +10022,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10061,7 +10058,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10097,7 +10094,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10133,7 +10130,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10169,7 +10166,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10205,7 +10202,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10241,7 +10238,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10277,7 +10274,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10311,7 +10308,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10343,7 +10340,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10375,7 +10372,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10409,7 +10406,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10443,7 +10440,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -10475,7 +10472,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -10507,7 +10504,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -10543,7 +10540,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -10577,7 +10574,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -10609,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -10641,7 +10638,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -10673,7 +10670,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -10705,7 +10702,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -10737,7 +10734,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -10769,7 +10766,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -10803,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>218</v>
@@ -10833,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>218</v>
@@ -10865,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>218</v>
@@ -10897,7 +10894,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>218</v>
@@ -10929,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>218</v>
@@ -10963,7 +10960,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C273" s="13" t="s">
         <v>218</v>
@@ -10995,7 +10992,7 @@
         <v>7</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C274" s="13" t="s">
         <v>218</v>
@@ -11031,7 +11028,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>218</v>
@@ -11063,7 +11060,7 @@
         <v>9</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>218</v>
@@ -11099,7 +11096,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>218</v>
@@ -11131,7 +11128,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>218</v>
@@ -11167,7 +11164,7 @@
         <v>12</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>218</v>
@@ -11199,7 +11196,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>218</v>
@@ -11235,7 +11232,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>218</v>
@@ -11267,7 +11264,7 @@
         <v>15</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>218</v>
@@ -11303,7 +11300,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>218</v>
@@ -11335,7 +11332,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>218</v>
@@ -11371,7 +11368,7 @@
         <v>18</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>218</v>
@@ -11403,7 +11400,7 @@
         <v>19</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>218</v>
@@ -11439,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>218</v>
@@ -11471,7 +11468,7 @@
         <v>21</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>218</v>
@@ -11507,7 +11504,7 @@
         <v>22</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>218</v>
@@ -11539,7 +11536,7 @@
         <v>23</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>218</v>
@@ -11575,7 +11572,7 @@
         <v>24</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>218</v>
@@ -11607,7 +11604,7 @@
         <v>25</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>218</v>
@@ -11643,7 +11640,7 @@
         <v>26</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>218</v>
@@ -11675,7 +11672,7 @@
         <v>27</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>218</v>
@@ -11711,7 +11708,7 @@
         <v>28</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C295" s="13" t="s">
         <v>218</v>
@@ -11743,7 +11740,7 @@
         <v>29</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>218</v>
@@ -11779,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -11809,7 +11806,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -11841,7 +11838,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -11873,7 +11870,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -11905,7 +11902,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -11939,7 +11936,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -11971,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12007,7 +12004,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12039,7 +12036,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12075,7 +12072,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12107,7 +12104,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12143,7 +12140,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12175,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12211,7 +12208,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12243,7 +12240,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12279,7 +12276,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12311,7 +12308,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12347,7 +12344,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12379,7 +12376,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12415,7 +12412,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12447,7 +12444,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -12483,7 +12480,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -12515,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -12551,7 +12548,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -12583,7 +12580,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -12619,7 +12616,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -12651,7 +12648,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -12687,7 +12684,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -12719,7 +12716,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -12755,7 +12752,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -12787,7 +12784,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -12823,7 +12820,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -12855,7 +12852,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -12891,7 +12888,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -12923,7 +12920,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -12959,7 +12956,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -12991,7 +12988,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13057,7 +13054,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13089,7 +13086,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13121,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13153,7 +13150,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13187,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13223,7 +13220,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13259,7 +13256,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13295,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13331,7 +13328,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13363,7 +13360,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13395,7 +13392,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13429,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -13465,7 +13462,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -13501,7 +13498,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -13537,7 +13534,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -13573,7 +13570,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -13605,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -13637,7 +13634,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -13671,7 +13668,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -13707,7 +13704,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -13743,7 +13740,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -13779,7 +13776,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -13815,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -13845,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -13877,7 +13874,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -13909,7 +13906,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -13943,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -13977,7 +13974,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14007,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14039,7 +14036,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14071,7 +14068,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14105,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14135,7 +14132,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14167,7 +14164,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14199,7 +14196,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14233,7 +14230,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14263,7 +14260,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14295,7 +14292,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14327,7 +14324,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14361,7 +14358,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14391,7 +14388,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14423,7 +14420,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14455,7 +14452,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -14489,7 +14486,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -14519,7 +14516,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -14553,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -14583,7 +14580,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -14609,7 +14606,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -14635,7 +14632,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -14663,7 +14660,7 @@
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -14693,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -14716,7 +14713,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -14742,7 +14739,7 @@
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -14768,7 +14765,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -14798,7 +14795,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -14827,7 +14824,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -14853,7 +14850,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -14879,7 +14876,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -14907,7 +14904,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -14937,7 +14934,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -14960,7 +14957,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -14986,7 +14983,7 @@
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15012,7 +15009,7 @@
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15040,7 +15037,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15070,7 +15067,7 @@
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15093,7 +15090,7 @@
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15119,7 +15116,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15145,7 +15142,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15173,7 +15170,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15203,7 +15200,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15226,7 +15223,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15252,7 +15249,7 @@
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15278,7 +15275,7 @@
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15306,7 +15303,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15336,7 +15333,7 @@
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15359,7 +15356,7 @@
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15385,7 +15382,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15411,7 +15408,7 @@
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15439,7 +15436,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15469,7 +15466,7 @@
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -15492,7 +15489,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -15518,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -15544,7 +15541,7 @@
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -15572,7 +15569,7 @@
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -15602,7 +15599,7 @@
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -15625,7 +15622,7 @@
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -15651,7 +15648,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -15677,7 +15674,7 @@
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -15705,7 +15702,7 @@
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -15735,7 +15732,7 @@
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -15758,7 +15755,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -15784,7 +15781,7 @@
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -15812,7 +15809,7 @@
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E620E1B-1417-4355-8A44-3F51C514141B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AC8C7-37AF-4B45-9FC5-967D40E3DADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
   <si>
     <t>order</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1804,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -1836,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -1868,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -1900,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1934,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -1964,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -1996,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2032,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2068,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2104,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2140,7 +2143,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2176,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2212,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2248,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2278,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2310,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2344,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2376,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2408,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2440,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -2472,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2504,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -2536,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -2600,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -2632,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -2664,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -2696,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -2728,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -2760,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -2792,7 +2795,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -2824,7 +2827,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -2856,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -2888,7 +2891,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -2920,7 +2923,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -2952,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -2984,7 +2987,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3016,7 +3019,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3048,7 +3051,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3080,7 +3083,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3112,7 +3115,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3174,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3206,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3240,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3272,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3304,7 +3307,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3370,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3402,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3436,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -3468,7 +3471,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -3500,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -3536,7 +3539,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -3572,7 +3575,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -3604,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -3638,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -3668,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -3700,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -3736,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -3768,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -3802,7 +3805,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3834,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -3870,7 +3873,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -3906,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -3942,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -3978,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4014,7 +4017,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4050,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4086,7 +4089,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4122,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4158,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4194,7 +4197,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4230,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4266,7 +4269,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4298,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4330,7 +4333,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4362,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4394,7 +4397,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4428,7 +4431,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4458,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -4490,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -4522,7 +4525,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -4554,7 +4557,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -4586,7 +4589,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -4620,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -4652,7 +4655,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -4684,7 +4687,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -4716,7 +4719,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -4748,7 +4751,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -4782,7 +4785,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -4814,7 +4817,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -4846,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -4878,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -4912,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -4944,7 +4947,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -4976,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5008,7 +5011,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5042,7 +5045,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5074,7 +5077,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5106,7 +5109,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5138,7 +5141,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5172,7 +5175,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5204,7 +5207,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5236,7 +5239,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5268,7 +5271,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5302,7 +5305,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5334,7 +5337,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5366,7 +5369,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5398,7 +5401,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5432,7 +5435,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -5464,7 +5467,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -5496,7 +5499,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -5528,7 +5531,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -5562,7 +5565,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -5594,7 +5597,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -5626,7 +5629,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -5658,7 +5661,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -5690,7 +5693,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -5722,7 +5725,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -5756,7 +5759,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -5788,7 +5791,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -5820,7 +5823,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -5852,7 +5855,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -5886,7 +5889,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -5918,7 +5921,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -5950,7 +5953,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -5982,7 +5985,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6014,7 +6017,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6046,7 +6049,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6080,7 +6083,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6112,7 +6115,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6144,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6176,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6208,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6240,7 +6243,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6274,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6306,7 +6309,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6338,7 +6341,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6372,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6402,7 +6405,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6434,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -6466,7 +6469,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -6502,7 +6505,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -6538,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -6574,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -6610,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -6646,7 +6649,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -6682,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -6718,7 +6721,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -6754,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -6790,7 +6793,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -6826,7 +6829,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -6862,7 +6865,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -6898,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -6934,7 +6937,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -6970,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7006,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7042,7 +7045,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7078,7 +7081,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7114,7 +7117,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7150,7 +7153,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7186,7 +7189,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7222,7 +7225,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7258,7 +7261,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7294,7 +7297,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7330,7 +7333,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7366,7 +7369,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7402,7 +7405,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7438,7 +7441,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -7474,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -7510,7 +7513,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -7546,7 +7549,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -7582,7 +7585,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -7618,7 +7621,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -7654,7 +7657,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -7690,7 +7693,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -7726,7 +7729,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -7762,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -7798,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -7834,7 +7837,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -7870,7 +7873,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -7906,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -7942,7 +7945,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -7978,7 +7981,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8014,7 +8017,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8050,7 +8053,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8086,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8116,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8148,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8180,7 +8183,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8214,7 +8217,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8246,7 +8249,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8282,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8318,7 +8321,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8354,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8390,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8426,7 +8429,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -8462,7 +8465,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -8498,7 +8501,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -8534,7 +8537,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -8570,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -8606,7 +8609,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -8642,7 +8645,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -8678,7 +8681,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -8714,7 +8717,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -8750,7 +8753,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -8786,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -8822,7 +8825,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -8858,7 +8861,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -8894,7 +8897,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -8930,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -8966,7 +8969,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9002,7 +9005,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9038,7 +9041,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9074,7 +9077,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9110,7 +9113,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9142,7 +9145,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9178,7 +9181,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9214,7 +9217,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9250,7 +9253,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9282,7 +9285,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9314,7 +9317,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9346,7 +9349,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9378,7 +9381,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9410,7 +9413,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9446,7 +9449,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -9482,7 +9485,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -9518,7 +9521,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -9554,7 +9557,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -9590,7 +9593,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -9626,7 +9629,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -9662,7 +9665,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -9698,7 +9701,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -9734,7 +9737,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -9770,7 +9773,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -9806,7 +9809,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -9842,7 +9845,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -9878,7 +9881,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -9914,7 +9917,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -9950,7 +9953,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -9986,7 +9989,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10022,7 +10025,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10058,7 +10061,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10094,7 +10097,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10130,7 +10133,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10166,7 +10169,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10202,7 +10205,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10238,7 +10241,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10274,7 +10277,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10308,7 +10311,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10340,7 +10343,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10372,7 +10375,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10406,7 +10409,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10440,7 +10443,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -10472,7 +10475,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -10504,7 +10507,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -10540,7 +10543,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -10574,7 +10577,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -10606,7 +10609,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -10638,7 +10641,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -10670,7 +10673,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -10702,7 +10705,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -10734,7 +10737,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -10766,7 +10769,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -10800,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>218</v>
@@ -10830,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>218</v>
@@ -10862,7 +10865,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>218</v>
@@ -10894,7 +10897,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>218</v>
@@ -10926,7 +10929,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>218</v>
@@ -10960,7 +10963,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C273" s="13" t="s">
         <v>218</v>
@@ -10992,7 +10995,7 @@
         <v>7</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C274" s="13" t="s">
         <v>218</v>
@@ -11028,7 +11031,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>218</v>
@@ -11060,7 +11063,7 @@
         <v>9</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>218</v>
@@ -11096,7 +11099,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>218</v>
@@ -11128,7 +11131,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>218</v>
@@ -11164,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>218</v>
@@ -11196,7 +11199,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>218</v>
@@ -11232,7 +11235,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>218</v>
@@ -11264,7 +11267,7 @@
         <v>15</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>218</v>
@@ -11300,7 +11303,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>218</v>
@@ -11332,7 +11335,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>218</v>
@@ -11368,7 +11371,7 @@
         <v>18</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>218</v>
@@ -11400,7 +11403,7 @@
         <v>19</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>218</v>
@@ -11436,7 +11439,7 @@
         <v>20</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>218</v>
@@ -11468,7 +11471,7 @@
         <v>21</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>218</v>
@@ -11504,7 +11507,7 @@
         <v>22</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>218</v>
@@ -11536,7 +11539,7 @@
         <v>23</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>218</v>
@@ -11572,7 +11575,7 @@
         <v>24</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>218</v>
@@ -11604,7 +11607,7 @@
         <v>25</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>218</v>
@@ -11640,7 +11643,7 @@
         <v>26</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>218</v>
@@ -11672,7 +11675,7 @@
         <v>27</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>218</v>
@@ -11708,7 +11711,7 @@
         <v>28</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C295" s="13" t="s">
         <v>218</v>
@@ -11740,7 +11743,7 @@
         <v>29</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>218</v>
@@ -11776,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -11806,7 +11809,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -11838,7 +11841,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -11870,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -11902,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -11936,7 +11939,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -11968,7 +11971,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12004,7 +12007,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12036,7 +12039,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12072,7 +12075,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12104,7 +12107,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12140,7 +12143,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12172,7 +12175,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12208,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12240,7 +12243,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12276,7 +12279,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12308,7 +12311,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12344,7 +12347,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12376,7 +12379,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12412,7 +12415,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12444,7 +12447,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -12480,7 +12483,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -12512,7 +12515,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -12548,7 +12551,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -12580,7 +12583,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -12616,7 +12619,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -12648,7 +12651,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -12684,7 +12687,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -12716,7 +12719,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -12752,7 +12755,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -12784,7 +12787,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -12820,7 +12823,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -12852,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -12888,7 +12891,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -12920,7 +12923,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -12956,7 +12959,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -12988,7 +12991,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13024,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13054,7 +13057,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13086,7 +13089,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13118,7 +13121,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13150,7 +13153,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13184,7 +13187,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13220,7 +13223,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13256,7 +13259,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13292,7 +13295,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13328,7 +13331,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13360,7 +13363,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13392,7 +13395,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13426,7 +13429,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -13462,7 +13465,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -13498,7 +13501,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -13534,7 +13537,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -13570,7 +13573,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -13602,7 +13605,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -13634,7 +13637,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -13668,7 +13671,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -13704,7 +13707,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -13740,7 +13743,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -13776,7 +13779,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -13812,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -13842,7 +13845,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -13874,7 +13877,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -13906,7 +13909,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -13940,7 +13943,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -13974,7 +13977,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14004,7 +14007,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14036,7 +14039,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14068,7 +14071,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14102,7 +14105,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14132,7 +14135,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14164,7 +14167,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14196,7 +14199,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14230,7 +14233,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14260,7 +14263,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14292,7 +14295,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14324,7 +14327,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14358,7 +14361,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14388,7 +14391,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14420,7 +14423,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14452,7 +14455,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -14486,7 +14489,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -14516,7 +14519,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -14550,7 +14553,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -14580,7 +14583,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -14606,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -14632,7 +14635,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -14660,7 +14663,7 @@
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -14690,7 +14693,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -14713,7 +14716,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -14739,7 +14742,7 @@
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -14765,7 +14768,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -14795,7 +14798,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -14824,7 +14827,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -14850,7 +14853,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -14876,7 +14879,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -14904,7 +14907,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -14934,7 +14937,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -14957,7 +14960,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -14983,7 +14986,7 @@
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15009,7 +15012,7 @@
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15037,7 +15040,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15067,7 +15070,7 @@
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15090,7 +15093,7 @@
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15116,7 +15119,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15142,7 +15145,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15170,7 +15173,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15200,7 +15203,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15223,7 +15226,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15249,7 +15252,7 @@
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15275,7 +15278,7 @@
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15303,7 +15306,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15333,7 +15336,7 @@
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15356,7 +15359,7 @@
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15382,7 +15385,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15408,7 +15411,7 @@
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15436,7 +15439,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15466,7 +15469,7 @@
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -15489,7 +15492,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -15515,7 +15518,7 @@
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -15541,7 +15544,7 @@
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -15569,7 +15572,7 @@
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -15599,7 +15602,7 @@
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -15622,7 +15625,7 @@
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -15648,7 +15651,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -15674,7 +15677,7 @@
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -15702,7 +15705,7 @@
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -15732,7 +15735,7 @@
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -15755,7 +15758,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -15781,7 +15784,7 @@
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -15809,7 +15812,7 @@
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0AC8C7-37AF-4B45-9FC5-967D40E3DADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A36F0E-F112-4D0D-929C-FF9BD83CBB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="313">
   <si>
     <t>order</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>varela.alexandre01@gmail.com</t>
-  </si>
-  <si>
-    <t>não</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B427" sqref="B2:B427"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1777,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1807,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>19</v>
@@ -1839,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>19</v>
@@ -1871,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>19</v>
@@ -1903,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>19</v>
@@ -1937,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -1967,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -1999,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>28</v>
@@ -2035,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>28</v>
@@ -2107,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>28</v>
@@ -2143,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>28</v>
@@ -2179,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>28</v>
@@ -2215,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>28</v>
@@ -2251,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>39</v>
@@ -2281,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>39</v>
@@ -2313,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>39</v>
@@ -2347,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>39</v>
@@ -2379,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
@@ -2411,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>39</v>
@@ -2443,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>39</v>
@@ -2475,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -2507,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
@@ -2539,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>39</v>
@@ -2571,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -2603,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>39</v>
@@ -2635,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -2667,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>39</v>
@@ -2699,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>39</v>
@@ -2731,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>39</v>
@@ -2763,7 +2760,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>39</v>
@@ -2795,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>39</v>
@@ -2827,7 +2824,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>39</v>
@@ -2859,7 +2856,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>39</v>
@@ -2891,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -2923,7 +2920,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>39</v>
@@ -2955,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>39</v>
@@ -2987,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>39</v>
@@ -3019,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>39</v>
@@ -3051,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
@@ -3083,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>39</v>
@@ -3115,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>39</v>
@@ -3147,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>55</v>
@@ -3177,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>55</v>
@@ -3209,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>55</v>
@@ -3243,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>55</v>
@@ -3275,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>55</v>
@@ -3307,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>55</v>
@@ -3343,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>62</v>
@@ -3373,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>62</v>
@@ -3405,7 +3402,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>62</v>
@@ -3439,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>62</v>
@@ -3471,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>62</v>
@@ -3503,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
@@ -3539,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>62</v>
@@ -3575,7 +3572,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>62</v>
@@ -3607,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>62</v>
@@ -3641,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>69</v>
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>69</v>
@@ -3703,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>69</v>
@@ -3739,7 +3736,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>69</v>
@@ -3771,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>69</v>
@@ -3805,7 +3802,7 @@
         <v>6</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>69</v>
@@ -3837,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>69</v>
@@ -3873,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>69</v>
@@ -3909,7 +3906,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>69</v>
@@ -3945,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>69</v>
@@ -3981,7 +3978,7 @@
         <v>11</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>69</v>
@@ -4017,7 +4014,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>69</v>
@@ -4053,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>69</v>
@@ -4089,7 +4086,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>69</v>
@@ -4125,7 +4122,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>69</v>
@@ -4161,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>69</v>
@@ -4197,7 +4194,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>69</v>
@@ -4233,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>69</v>
@@ -4269,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>69</v>
@@ -4301,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>69</v>
@@ -4333,7 +4330,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>69</v>
@@ -4365,7 +4362,7 @@
         <v>22</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>69</v>
@@ -4397,7 +4394,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>69</v>
@@ -4431,7 +4428,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>69</v>
@@ -4461,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>69</v>
@@ -4493,7 +4490,7 @@
         <v>26</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>69</v>
@@ -4525,7 +4522,7 @@
         <v>27</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>69</v>
@@ -4557,7 +4554,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>69</v>
@@ -4589,7 +4586,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>69</v>
@@ -4623,7 +4620,7 @@
         <v>30</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>69</v>
@@ -4655,7 +4652,7 @@
         <v>31</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>69</v>
@@ -4687,7 +4684,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>69</v>
@@ -4719,7 +4716,7 @@
         <v>33</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>69</v>
@@ -4751,7 +4748,7 @@
         <v>34</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>69</v>
@@ -4785,7 +4782,7 @@
         <v>35</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>69</v>
@@ -4817,7 +4814,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>69</v>
@@ -4849,7 +4846,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>69</v>
@@ -4881,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>69</v>
@@ -4915,7 +4912,7 @@
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>69</v>
@@ -4947,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>69</v>
@@ -4979,7 +4976,7 @@
         <v>41</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>69</v>
@@ -5011,7 +5008,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>69</v>
@@ -5045,7 +5042,7 @@
         <v>43</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>69</v>
@@ -5077,7 +5074,7 @@
         <v>44</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>69</v>
@@ -5109,7 +5106,7 @@
         <v>45</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>69</v>
@@ -5141,7 +5138,7 @@
         <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>69</v>
@@ -5175,7 +5172,7 @@
         <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>69</v>
@@ -5207,7 +5204,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>69</v>
@@ -5239,7 +5236,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>69</v>
@@ -5271,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>69</v>
@@ -5305,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>69</v>
@@ -5337,7 +5334,7 @@
         <v>52</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>69</v>
@@ -5369,7 +5366,7 @@
         <v>53</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>69</v>
@@ -5401,7 +5398,7 @@
         <v>54</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>69</v>
@@ -5435,7 +5432,7 @@
         <v>55</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>69</v>
@@ -5467,7 +5464,7 @@
         <v>56</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>69</v>
@@ -5499,7 +5496,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>69</v>
@@ -5531,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>69</v>
@@ -5565,7 +5562,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>69</v>
@@ -5597,7 +5594,7 @@
         <v>60</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>69</v>
@@ -5629,7 +5626,7 @@
         <v>61</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>69</v>
@@ -5661,7 +5658,7 @@
         <v>62</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>69</v>
@@ -5693,7 +5690,7 @@
         <v>63</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>69</v>
@@ -5725,7 +5722,7 @@
         <v>64</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>69</v>
@@ -5759,7 +5756,7 @@
         <v>65</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>69</v>
@@ -5791,7 +5788,7 @@
         <v>66</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>69</v>
@@ -5823,7 +5820,7 @@
         <v>67</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>69</v>
@@ -5855,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>69</v>
@@ -5889,7 +5886,7 @@
         <v>69</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>69</v>
@@ -5921,7 +5918,7 @@
         <v>70</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>69</v>
@@ -5953,7 +5950,7 @@
         <v>71</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>69</v>
@@ -5985,7 +5982,7 @@
         <v>72</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>69</v>
@@ -6017,7 +6014,7 @@
         <v>73</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>69</v>
@@ -6049,7 +6046,7 @@
         <v>74</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>69</v>
@@ -6083,7 +6080,7 @@
         <v>75</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>69</v>
@@ -6115,7 +6112,7 @@
         <v>76</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C134" s="13" t="s">
         <v>69</v>
@@ -6147,7 +6144,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C135" s="13" t="s">
         <v>69</v>
@@ -6179,7 +6176,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>69</v>
@@ -6211,7 +6208,7 @@
         <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C137" s="13" t="s">
         <v>69</v>
@@ -6243,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C138" s="13" t="s">
         <v>69</v>
@@ -6277,7 +6274,7 @@
         <v>81</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>69</v>
@@ -6309,7 +6306,7 @@
         <v>82</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>69</v>
@@ -6341,7 +6338,7 @@
         <v>83</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>69</v>
@@ -6375,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>118</v>
@@ -6405,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>118</v>
@@ -6437,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>118</v>
@@ -6469,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C145" s="13" t="s">
         <v>118</v>
@@ -6505,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C146" s="13" t="s">
         <v>118</v>
@@ -6541,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C147" s="13" t="s">
         <v>118</v>
@@ -6577,7 +6574,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>118</v>
@@ -6613,7 +6610,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>118</v>
@@ -6649,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>118</v>
@@ -6685,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C151" s="13" t="s">
         <v>118</v>
@@ -6721,7 +6718,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C152" s="13" t="s">
         <v>118</v>
@@ -6757,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C153" s="13" t="s">
         <v>118</v>
@@ -6793,7 +6790,7 @@
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C154" s="13" t="s">
         <v>118</v>
@@ -6829,7 +6826,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C155" s="13" t="s">
         <v>118</v>
@@ -6865,7 +6862,7 @@
         <v>15</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C156" s="13" t="s">
         <v>118</v>
@@ -6901,7 +6898,7 @@
         <v>16</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C157" s="13" t="s">
         <v>118</v>
@@ -6937,7 +6934,7 @@
         <v>17</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>118</v>
@@ -6973,7 +6970,7 @@
         <v>18</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C159" s="13" t="s">
         <v>118</v>
@@ -7009,7 +7006,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C160" s="13" t="s">
         <v>118</v>
@@ -7045,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>118</v>
@@ -7081,7 +7078,7 @@
         <v>21</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C162" s="13" t="s">
         <v>118</v>
@@ -7117,7 +7114,7 @@
         <v>22</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C163" s="13" t="s">
         <v>118</v>
@@ -7153,7 +7150,7 @@
         <v>23</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C164" s="13" t="s">
         <v>118</v>
@@ -7189,7 +7186,7 @@
         <v>24</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C165" s="13" t="s">
         <v>118</v>
@@ -7225,7 +7222,7 @@
         <v>25</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C166" s="13" t="s">
         <v>118</v>
@@ -7261,7 +7258,7 @@
         <v>26</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>118</v>
@@ -7297,7 +7294,7 @@
         <v>27</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C168" s="13" t="s">
         <v>118</v>
@@ -7333,7 +7330,7 @@
         <v>28</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C169" s="13" t="s">
         <v>118</v>
@@ -7369,7 +7366,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>118</v>
@@ -7405,7 +7402,7 @@
         <v>30</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>118</v>
@@ -7441,7 +7438,7 @@
         <v>31</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C172" s="13" t="s">
         <v>118</v>
@@ -7477,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>118</v>
@@ -7513,7 +7510,7 @@
         <v>33</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>118</v>
@@ -7549,7 +7546,7 @@
         <v>34</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C175" s="13" t="s">
         <v>118</v>
@@ -7585,7 +7582,7 @@
         <v>35</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>118</v>
@@ -7621,7 +7618,7 @@
         <v>36</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C177" s="13" t="s">
         <v>118</v>
@@ -7657,7 +7654,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C178" s="13" t="s">
         <v>118</v>
@@ -7693,7 +7690,7 @@
         <v>38</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C179" s="13" t="s">
         <v>118</v>
@@ -7729,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>118</v>
@@ -7765,7 +7762,7 @@
         <v>40</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C181" s="13" t="s">
         <v>118</v>
@@ -7801,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C182" s="13" t="s">
         <v>118</v>
@@ -7837,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C183" s="13" t="s">
         <v>118</v>
@@ -7873,7 +7870,7 @@
         <v>43</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C184" s="13" t="s">
         <v>118</v>
@@ -7909,7 +7906,7 @@
         <v>44</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C185" s="13" t="s">
         <v>118</v>
@@ -7945,7 +7942,7 @@
         <v>45</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>118</v>
@@ -7981,7 +7978,7 @@
         <v>46</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C187" s="13" t="s">
         <v>118</v>
@@ -8017,7 +8014,7 @@
         <v>47</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C188" s="13" t="s">
         <v>118</v>
@@ -8053,7 +8050,7 @@
         <v>48</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C189" s="13" t="s">
         <v>118</v>
@@ -8089,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>164</v>
@@ -8119,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C191" s="13" t="s">
         <v>164</v>
@@ -8151,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C192" s="13" t="s">
         <v>164</v>
@@ -8183,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C193" s="13" t="s">
         <v>164</v>
@@ -8217,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C194" s="13" t="s">
         <v>164</v>
@@ -8249,7 +8246,7 @@
         <v>6</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C195" s="13" t="s">
         <v>164</v>
@@ -8285,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C196" s="13" t="s">
         <v>164</v>
@@ -8321,7 +8318,7 @@
         <v>8</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C197" s="13" t="s">
         <v>164</v>
@@ -8357,7 +8354,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C198" s="13" t="s">
         <v>164</v>
@@ -8393,7 +8390,7 @@
         <v>10</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C199" s="13" t="s">
         <v>164</v>
@@ -8429,7 +8426,7 @@
         <v>11</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>164</v>
@@ -8465,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C201" s="13" t="s">
         <v>164</v>
@@ -8501,7 +8498,7 @@
         <v>13</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C202" s="13" t="s">
         <v>164</v>
@@ -8537,7 +8534,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C203" s="13" t="s">
         <v>164</v>
@@ -8573,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C204" s="13" t="s">
         <v>164</v>
@@ -8609,7 +8606,7 @@
         <v>16</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C205" s="13" t="s">
         <v>164</v>
@@ -8645,7 +8642,7 @@
         <v>17</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C206" s="13" t="s">
         <v>164</v>
@@ -8681,7 +8678,7 @@
         <v>18</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C207" s="13" t="s">
         <v>164</v>
@@ -8717,7 +8714,7 @@
         <v>19</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>164</v>
@@ -8753,7 +8750,7 @@
         <v>20</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C209" s="13" t="s">
         <v>164</v>
@@ -8789,7 +8786,7 @@
         <v>21</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C210" s="13" t="s">
         <v>164</v>
@@ -8825,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C211" s="13" t="s">
         <v>164</v>
@@ -8861,7 +8858,7 @@
         <v>23</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C212" s="13" t="s">
         <v>164</v>
@@ -8897,7 +8894,7 @@
         <v>24</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C213" s="13" t="s">
         <v>164</v>
@@ -8933,7 +8930,7 @@
         <v>25</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C214" s="13" t="s">
         <v>164</v>
@@ -8969,7 +8966,7 @@
         <v>26</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C215" s="13" t="s">
         <v>164</v>
@@ -9005,7 +9002,7 @@
         <v>27</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C216" s="13" t="s">
         <v>164</v>
@@ -9041,7 +9038,7 @@
         <v>28</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C217" s="13" t="s">
         <v>164</v>
@@ -9077,7 +9074,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C218" s="13" t="s">
         <v>164</v>
@@ -9113,7 +9110,7 @@
         <v>30</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C219" s="13" t="s">
         <v>164</v>
@@ -9145,7 +9142,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C220" s="13" t="s">
         <v>164</v>
@@ -9181,7 +9178,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C221" s="13" t="s">
         <v>164</v>
@@ -9217,7 +9214,7 @@
         <v>33</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C222" s="13" t="s">
         <v>164</v>
@@ -9253,7 +9250,7 @@
         <v>34</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>164</v>
@@ -9285,7 +9282,7 @@
         <v>35</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C224" s="13" t="s">
         <v>164</v>
@@ -9317,7 +9314,7 @@
         <v>36</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C225" s="13" t="s">
         <v>164</v>
@@ -9349,7 +9346,7 @@
         <v>37</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C226" s="13" t="s">
         <v>164</v>
@@ -9381,7 +9378,7 @@
         <v>38</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C227" s="13" t="s">
         <v>164</v>
@@ -9413,7 +9410,7 @@
         <v>39</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C228" s="13" t="s">
         <v>164</v>
@@ -9449,7 +9446,7 @@
         <v>40</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C229" s="13" t="s">
         <v>164</v>
@@ -9485,7 +9482,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C230" s="13" t="s">
         <v>164</v>
@@ -9521,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C231" s="13" t="s">
         <v>164</v>
@@ -9557,7 +9554,7 @@
         <v>43</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C232" s="13" t="s">
         <v>164</v>
@@ -9593,7 +9590,7 @@
         <v>44</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C233" s="13" t="s">
         <v>164</v>
@@ -9629,7 +9626,7 @@
         <v>45</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C234" s="13" t="s">
         <v>164</v>
@@ -9665,7 +9662,7 @@
         <v>46</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C235" s="13" t="s">
         <v>164</v>
@@ -9701,7 +9698,7 @@
         <v>47</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C236" s="13" t="s">
         <v>164</v>
@@ -9737,7 +9734,7 @@
         <v>48</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C237" s="13" t="s">
         <v>164</v>
@@ -9773,7 +9770,7 @@
         <v>49</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C238" s="13" t="s">
         <v>164</v>
@@ -9809,7 +9806,7 @@
         <v>50</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C239" s="13" t="s">
         <v>164</v>
@@ -9845,7 +9842,7 @@
         <v>51</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C240" s="13" t="s">
         <v>164</v>
@@ -9881,7 +9878,7 @@
         <v>52</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C241" s="13" t="s">
         <v>164</v>
@@ -9917,7 +9914,7 @@
         <v>53</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C242" s="13" t="s">
         <v>164</v>
@@ -9953,7 +9950,7 @@
         <v>54</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C243" s="13" t="s">
         <v>164</v>
@@ -9989,7 +9986,7 @@
         <v>55</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C244" s="13" t="s">
         <v>164</v>
@@ -10025,7 +10022,7 @@
         <v>56</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C245" s="13" t="s">
         <v>164</v>
@@ -10061,7 +10058,7 @@
         <v>57</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C246" s="13" t="s">
         <v>164</v>
@@ -10097,7 +10094,7 @@
         <v>58</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C247" s="13" t="s">
         <v>164</v>
@@ -10133,7 +10130,7 @@
         <v>59</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C248" s="13" t="s">
         <v>164</v>
@@ -10169,7 +10166,7 @@
         <v>60</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C249" s="13" t="s">
         <v>164</v>
@@ -10205,7 +10202,7 @@
         <v>61</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C250" s="13" t="s">
         <v>164</v>
@@ -10241,7 +10238,7 @@
         <v>62</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C251" s="13" t="s">
         <v>164</v>
@@ -10277,7 +10274,7 @@
         <v>63</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C252" s="13" t="s">
         <v>164</v>
@@ -10311,7 +10308,7 @@
         <v>64</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C253" s="13" t="s">
         <v>164</v>
@@ -10343,7 +10340,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C254" s="13" t="s">
         <v>164</v>
@@ -10375,7 +10372,7 @@
         <v>66</v>
       </c>
       <c r="B255" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C255" s="13" t="s">
         <v>164</v>
@@ -10409,7 +10406,7 @@
         <v>67</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C256" s="13" t="s">
         <v>164</v>
@@ -10443,7 +10440,7 @@
         <v>68</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C257" s="13" t="s">
         <v>164</v>
@@ -10475,7 +10472,7 @@
         <v>69</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C258" s="13" t="s">
         <v>164</v>
@@ -10507,7 +10504,7 @@
         <v>70</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C259" s="13" t="s">
         <v>164</v>
@@ -10543,7 +10540,7 @@
         <v>71</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C260" s="13" t="s">
         <v>164</v>
@@ -10577,7 +10574,7 @@
         <v>72</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C261" s="13" t="s">
         <v>164</v>
@@ -10609,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C262" s="13" t="s">
         <v>164</v>
@@ -10641,7 +10638,7 @@
         <v>74</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C263" s="13" t="s">
         <v>164</v>
@@ -10673,7 +10670,7 @@
         <v>75</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C264" s="13" t="s">
         <v>164</v>
@@ -10705,7 +10702,7 @@
         <v>76</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C265" s="13" t="s">
         <v>164</v>
@@ -10737,7 +10734,7 @@
         <v>77</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C266" s="13" t="s">
         <v>164</v>
@@ -10769,7 +10766,7 @@
         <v>78</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C267" s="13" t="s">
         <v>164</v>
@@ -10803,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C268" s="13" t="s">
         <v>218</v>
@@ -10833,7 +10830,7 @@
         <v>2</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C269" s="13" t="s">
         <v>218</v>
@@ -10865,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C270" s="13" t="s">
         <v>218</v>
@@ -10897,7 +10894,7 @@
         <v>4</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C271" s="13" t="s">
         <v>218</v>
@@ -10929,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C272" s="13" t="s">
         <v>218</v>
@@ -10963,7 +10960,7 @@
         <v>6</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C273" s="13" t="s">
         <v>218</v>
@@ -10995,7 +10992,7 @@
         <v>7</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C274" s="13" t="s">
         <v>218</v>
@@ -11031,7 +11028,7 @@
         <v>8</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C275" s="13" t="s">
         <v>218</v>
@@ -11063,7 +11060,7 @@
         <v>9</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C276" s="13" t="s">
         <v>218</v>
@@ -11099,7 +11096,7 @@
         <v>10</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C277" s="13" t="s">
         <v>218</v>
@@ -11131,7 +11128,7 @@
         <v>11</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C278" s="13" t="s">
         <v>218</v>
@@ -11167,7 +11164,7 @@
         <v>12</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C279" s="13" t="s">
         <v>218</v>
@@ -11199,7 +11196,7 @@
         <v>13</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C280" s="13" t="s">
         <v>218</v>
@@ -11235,7 +11232,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C281" s="13" t="s">
         <v>218</v>
@@ -11267,7 +11264,7 @@
         <v>15</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C282" s="13" t="s">
         <v>218</v>
@@ -11303,7 +11300,7 @@
         <v>16</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C283" s="13" t="s">
         <v>218</v>
@@ -11335,7 +11332,7 @@
         <v>17</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C284" s="13" t="s">
         <v>218</v>
@@ -11371,7 +11368,7 @@
         <v>18</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C285" s="13" t="s">
         <v>218</v>
@@ -11403,7 +11400,7 @@
         <v>19</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C286" s="13" t="s">
         <v>218</v>
@@ -11439,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C287" s="13" t="s">
         <v>218</v>
@@ -11471,7 +11468,7 @@
         <v>21</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C288" s="13" t="s">
         <v>218</v>
@@ -11507,7 +11504,7 @@
         <v>22</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C289" s="13" t="s">
         <v>218</v>
@@ -11539,7 +11536,7 @@
         <v>23</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C290" s="13" t="s">
         <v>218</v>
@@ -11575,7 +11572,7 @@
         <v>24</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C291" s="13" t="s">
         <v>218</v>
@@ -11607,7 +11604,7 @@
         <v>25</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C292" s="13" t="s">
         <v>218</v>
@@ -11643,7 +11640,7 @@
         <v>26</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C293" s="13" t="s">
         <v>218</v>
@@ -11675,7 +11672,7 @@
         <v>27</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C294" s="13" t="s">
         <v>218</v>
@@ -11711,7 +11708,7 @@
         <v>28</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C295" s="13" t="s">
         <v>218</v>
@@ -11743,7 +11740,7 @@
         <v>29</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C296" s="13" t="s">
         <v>218</v>
@@ -11779,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C297" s="13" t="s">
         <v>218</v>
@@ -11809,7 +11806,7 @@
         <v>2</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C298" s="13" t="s">
         <v>218</v>
@@ -11841,7 +11838,7 @@
         <v>3</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -11873,7 +11870,7 @@
         <v>4</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>218</v>
@@ -11905,7 +11902,7 @@
         <v>5</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C301" s="13" t="s">
         <v>218</v>
@@ -11939,7 +11936,7 @@
         <v>6</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C302" s="13" t="s">
         <v>218</v>
@@ -11971,7 +11968,7 @@
         <v>7</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C303" s="13" t="s">
         <v>218</v>
@@ -12007,7 +12004,7 @@
         <v>8</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C304" s="13" t="s">
         <v>218</v>
@@ -12039,7 +12036,7 @@
         <v>9</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C305" s="13" t="s">
         <v>218</v>
@@ -12075,7 +12072,7 @@
         <v>10</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C306" s="13" t="s">
         <v>218</v>
@@ -12107,7 +12104,7 @@
         <v>11</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C307" s="13" t="s">
         <v>218</v>
@@ -12143,7 +12140,7 @@
         <v>12</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C308" s="13" t="s">
         <v>218</v>
@@ -12175,7 +12172,7 @@
         <v>13</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C309" s="13" t="s">
         <v>218</v>
@@ -12211,7 +12208,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C310" s="13" t="s">
         <v>218</v>
@@ -12243,7 +12240,7 @@
         <v>15</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C311" s="13" t="s">
         <v>218</v>
@@ -12279,7 +12276,7 @@
         <v>16</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C312" s="13" t="s">
         <v>218</v>
@@ -12311,7 +12308,7 @@
         <v>17</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C313" s="13" t="s">
         <v>218</v>
@@ -12347,7 +12344,7 @@
         <v>18</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C314" s="13" t="s">
         <v>218</v>
@@ -12379,7 +12376,7 @@
         <v>19</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C315" s="13" t="s">
         <v>218</v>
@@ -12415,7 +12412,7 @@
         <v>20</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C316" s="13" t="s">
         <v>218</v>
@@ -12447,7 +12444,7 @@
         <v>21</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C317" s="13" t="s">
         <v>218</v>
@@ -12483,7 +12480,7 @@
         <v>22</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C318" s="13" t="s">
         <v>218</v>
@@ -12515,7 +12512,7 @@
         <v>23</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C319" s="13" t="s">
         <v>218</v>
@@ -12551,7 +12548,7 @@
         <v>24</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C320" s="13" t="s">
         <v>218</v>
@@ -12583,7 +12580,7 @@
         <v>25</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C321" s="13" t="s">
         <v>218</v>
@@ -12619,7 +12616,7 @@
         <v>26</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C322" s="13" t="s">
         <v>218</v>
@@ -12651,7 +12648,7 @@
         <v>27</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C323" s="13" t="s">
         <v>218</v>
@@ -12687,7 +12684,7 @@
         <v>28</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C324" s="13" t="s">
         <v>218</v>
@@ -12719,7 +12716,7 @@
         <v>29</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C325" s="13" t="s">
         <v>218</v>
@@ -12755,7 +12752,7 @@
         <v>30</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C326" s="13" t="s">
         <v>218</v>
@@ -12787,7 +12784,7 @@
         <v>31</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C327" s="13" t="s">
         <v>218</v>
@@ -12823,7 +12820,7 @@
         <v>32</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C328" s="13" t="s">
         <v>218</v>
@@ -12855,7 +12852,7 @@
         <v>33</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C329" s="13" t="s">
         <v>218</v>
@@ -12891,7 +12888,7 @@
         <v>34</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C330" s="13" t="s">
         <v>218</v>
@@ -12923,7 +12920,7 @@
         <v>35</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C331" s="13" t="s">
         <v>218</v>
@@ -12959,7 +12956,7 @@
         <v>36</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C332" s="13" t="s">
         <v>218</v>
@@ -12991,7 +12988,7 @@
         <v>37</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C333" s="13" t="s">
         <v>218</v>
@@ -13027,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C334" s="13" t="s">
         <v>245</v>
@@ -13057,7 +13054,7 @@
         <v>2</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C335" s="13" t="s">
         <v>245</v>
@@ -13089,7 +13086,7 @@
         <v>3</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C336" s="13" t="s">
         <v>245</v>
@@ -13121,7 +13118,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C337" s="13" t="s">
         <v>245</v>
@@ -13153,7 +13150,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C338" s="13" t="s">
         <v>245</v>
@@ -13187,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C339" s="13" t="s">
         <v>245</v>
@@ -13223,7 +13220,7 @@
         <v>7</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C340" s="13" t="s">
         <v>245</v>
@@ -13259,7 +13256,7 @@
         <v>8</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C341" s="13" t="s">
         <v>245</v>
@@ -13295,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C342" s="13" t="s">
         <v>245</v>
@@ -13331,7 +13328,7 @@
         <v>10</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C343" s="13" t="s">
         <v>245</v>
@@ -13363,7 +13360,7 @@
         <v>11</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>245</v>
@@ -13395,7 +13392,7 @@
         <v>12</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>245</v>
@@ -13429,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C346" s="13" t="s">
         <v>245</v>
@@ -13465,7 +13462,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C347" s="13" t="s">
         <v>245</v>
@@ -13501,7 +13498,7 @@
         <v>15</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C348" s="13" t="s">
         <v>245</v>
@@ -13537,7 +13534,7 @@
         <v>16</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C349" s="13" t="s">
         <v>245</v>
@@ -13573,7 +13570,7 @@
         <v>17</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C350" s="13" t="s">
         <v>245</v>
@@ -13605,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C351" s="13" t="s">
         <v>245</v>
@@ -13637,7 +13634,7 @@
         <v>19</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C352" s="13" t="s">
         <v>245</v>
@@ -13671,7 +13668,7 @@
         <v>20</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C353" s="13" t="s">
         <v>245</v>
@@ -13707,7 +13704,7 @@
         <v>21</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C354" s="13" t="s">
         <v>245</v>
@@ -13743,7 +13740,7 @@
         <v>22</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C355" s="13" t="s">
         <v>245</v>
@@ -13779,7 +13776,7 @@
         <v>23</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C356" s="13" t="s">
         <v>245</v>
@@ -13815,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>266</v>
@@ -13845,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>266</v>
@@ -13877,7 +13874,7 @@
         <v>3</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>266</v>
@@ -13909,7 +13906,7 @@
         <v>4</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>266</v>
@@ -13943,7 +13940,7 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>266</v>
@@ -13977,7 +13974,7 @@
         <v>6</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>266</v>
@@ -14007,7 +14004,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>266</v>
@@ -14039,7 +14036,7 @@
         <v>8</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>266</v>
@@ -14071,7 +14068,7 @@
         <v>9</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>266</v>
@@ -14105,7 +14102,7 @@
         <v>10</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>266</v>
@@ -14135,7 +14132,7 @@
         <v>11</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>266</v>
@@ -14167,7 +14164,7 @@
         <v>12</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>266</v>
@@ -14199,7 +14196,7 @@
         <v>13</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>266</v>
@@ -14233,7 +14230,7 @@
         <v>14</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>266</v>
@@ -14263,7 +14260,7 @@
         <v>15</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>266</v>
@@ -14295,7 +14292,7 @@
         <v>16</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>266</v>
@@ -14327,7 +14324,7 @@
         <v>17</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>266</v>
@@ -14361,7 +14358,7 @@
         <v>18</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>266</v>
@@ -14391,7 +14388,7 @@
         <v>19</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>266</v>
@@ -14423,7 +14420,7 @@
         <v>20</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>266</v>
@@ -14455,7 +14452,7 @@
         <v>21</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>266</v>
@@ -14489,7 +14486,7 @@
         <v>22</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>266</v>
@@ -14519,7 +14516,7 @@
         <v>23</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>266</v>
@@ -14553,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C380" t="s">
         <v>281</v>
@@ -14583,7 +14580,7 @@
         <v>2</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C381" t="s">
         <v>281</v>
@@ -14609,7 +14606,7 @@
         <v>3</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C382" t="s">
         <v>281</v>
@@ -14635,7 +14632,7 @@
         <v>4</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C383" t="s">
         <v>281</v>
@@ -14663,7 +14660,7 @@
         <v>5</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C384" t="s">
         <v>281</v>
@@ -14693,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C385" t="s">
         <v>281</v>
@@ -14716,7 +14713,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C386" t="s">
         <v>281</v>
@@ -14742,7 +14739,7 @@
         <v>8</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C387" t="s">
         <v>281</v>
@@ -14768,7 +14765,7 @@
         <v>9</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C388" t="s">
         <v>281</v>
@@ -14798,7 +14795,7 @@
         <v>10</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C389" t="s">
         <v>281</v>
@@ -14827,7 +14824,7 @@
         <v>11</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C390" t="s">
         <v>281</v>
@@ -14853,7 +14850,7 @@
         <v>12</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C391" t="s">
         <v>281</v>
@@ -14879,7 +14876,7 @@
         <v>13</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C392" t="s">
         <v>281</v>
@@ -14907,7 +14904,7 @@
         <v>14</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
         <v>281</v>
@@ -14937,7 +14934,7 @@
         <v>15</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C394" t="s">
         <v>281</v>
@@ -14960,7 +14957,7 @@
         <v>16</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C395" t="s">
         <v>281</v>
@@ -14986,7 +14983,7 @@
         <v>17</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C396" t="s">
         <v>281</v>
@@ -15012,7 +15009,7 @@
         <v>18</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>281</v>
@@ -15040,7 +15037,7 @@
         <v>19</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C398" t="s">
         <v>281</v>
@@ -15070,7 +15067,7 @@
         <v>20</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C399" t="s">
         <v>281</v>
@@ -15093,7 +15090,7 @@
         <v>21</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C400" t="s">
         <v>281</v>
@@ -15119,7 +15116,7 @@
         <v>22</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C401" t="s">
         <v>281</v>
@@ -15145,7 +15142,7 @@
         <v>23</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
         <v>281</v>
@@ -15173,7 +15170,7 @@
         <v>24</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
         <v>281</v>
@@ -15203,7 +15200,7 @@
         <v>25</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C404" t="s">
         <v>281</v>
@@ -15226,7 +15223,7 @@
         <v>26</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
         <v>281</v>
@@ -15252,7 +15249,7 @@
         <v>27</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C406" t="s">
         <v>281</v>
@@ -15278,7 +15275,7 @@
         <v>28</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C407" t="s">
         <v>281</v>
@@ -15306,7 +15303,7 @@
         <v>29</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C408" t="s">
         <v>281</v>
@@ -15336,7 +15333,7 @@
         <v>30</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C409" t="s">
         <v>281</v>
@@ -15359,7 +15356,7 @@
         <v>31</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C410" t="s">
         <v>281</v>
@@ -15385,7 +15382,7 @@
         <v>32</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C411" t="s">
         <v>281</v>
@@ -15411,7 +15408,7 @@
         <v>33</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C412" t="s">
         <v>281</v>
@@ -15439,7 +15436,7 @@
         <v>34</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C413" t="s">
         <v>281</v>
@@ -15469,7 +15466,7 @@
         <v>35</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
         <v>281</v>
@@ -15492,7 +15489,7 @@
         <v>36</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C415" t="s">
         <v>281</v>
@@ -15518,7 +15515,7 @@
         <v>37</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C416" t="s">
         <v>281</v>
@@ -15544,7 +15541,7 @@
         <v>38</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
         <v>281</v>
@@ -15572,7 +15569,7 @@
         <v>39</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C418" t="s">
         <v>281</v>
@@ -15602,7 +15599,7 @@
         <v>40</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C419" t="s">
         <v>281</v>
@@ -15625,7 +15622,7 @@
         <v>41</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C420" t="s">
         <v>281</v>
@@ -15651,7 +15648,7 @@
         <v>42</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C421" t="s">
         <v>281</v>
@@ -15677,7 +15674,7 @@
         <v>43</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C422" t="s">
         <v>281</v>
@@ -15705,7 +15702,7 @@
         <v>44</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C423" t="s">
         <v>281</v>
@@ -15735,7 +15732,7 @@
         <v>45</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C424" t="s">
         <v>281</v>
@@ -15758,7 +15755,7 @@
         <v>46</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C425" t="s">
         <v>281</v>
@@ -15784,7 +15781,7 @@
         <v>47</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C426" t="s">
         <v>281</v>
@@ -15812,7 +15809,7 @@
         <v>48</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="C427" t="s">
         <v>281</v>
